--- a/ofc/estimates/राष्ट्रिय मा. बि. वाल निर्माण/V राष्ट्रिय मा. बि. वाल निर्माण.xlsx
+++ b/ofc/estimates/राष्ट्रिय मा. बि. वाल निर्माण/V राष्ट्रिय मा. बि. वाल निर्माण.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="re-estimate" sheetId="18" state="hidden" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'callapsible gate added'!$A$1:$K$119</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'grill item changed'!$A$1:$K$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'re-estimate'!$A$1:$K$113</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">V!$A$1:$K$211</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">V!$A$1:$K$213</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'callapsible gate added'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'grill item changed'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'re-estimate'!$1:$8</definedName>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="158">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -1068,6 +1068,12 @@
   <si>
     <t>Area (m2)</t>
   </si>
+  <si>
+    <t>-MS Rectangular Hollow section of 40mm*25mm*1.8mm for window</t>
+  </si>
+  <si>
+    <t>by actual measurement in digital weighing machine</t>
+  </si>
 </sst>
 </file>
 
@@ -1335,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1402,12 +1408,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1645,82 +1688,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1729,9 +1696,6 @@
     </xf>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1742,18 +1706,9 @@
     <xf numFmtId="2" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1784,11 +1739,108 @@
     <xf numFmtId="166" fontId="32" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2427,113 +2479,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:19" ht="15.6">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:19" ht="15.6">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -2641,15 +2693,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -4707,11 +4759,11 @@
       <c r="B108" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="105">
+      <c r="C108" s="120">
         <f>J106</f>
         <v>532419.58529343281</v>
       </c>
-      <c r="D108" s="105"/>
+      <c r="D108" s="120"/>
       <c r="E108" s="38">
         <v>100</v>
       </c>
@@ -4727,10 +4779,10 @@
       <c r="B109" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="108">
+      <c r="C109" s="123">
         <v>500000</v>
       </c>
-      <c r="D109" s="108"/>
+      <c r="D109" s="123"/>
       <c r="E109" s="38"/>
       <c r="F109" s="44"/>
       <c r="G109" s="43"/>
@@ -4749,11 +4801,11 @@
       <c r="B110" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="108">
+      <c r="C110" s="123">
         <f>C109-C112-C113</f>
         <v>475000</v>
       </c>
-      <c r="D110" s="108"/>
+      <c r="D110" s="123"/>
       <c r="E110" s="38">
         <f>C110/C108*100</f>
         <v>89.215350659614231</v>
@@ -4775,11 +4827,11 @@
       <c r="B111" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="105">
+      <c r="C111" s="120">
         <f>C108-C110</f>
         <v>57419.585293432814</v>
       </c>
-      <c r="D111" s="105"/>
+      <c r="D111" s="120"/>
       <c r="E111" s="38">
         <f>100-E110</f>
         <v>10.784649340385769</v>
@@ -4801,11 +4853,11 @@
       <c r="B112" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="105">
+      <c r="C112" s="120">
         <f>C109*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D112" s="105"/>
+      <c r="D112" s="120"/>
       <c r="E112" s="38">
         <v>3</v>
       </c>
@@ -4826,11 +4878,2580 @@
       <c r="B113" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="105">
+      <c r="C113" s="120">
         <f>C109*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D113" s="105"/>
+      <c r="D113" s="120"/>
+      <c r="E113" s="38">
+        <v>2</v>
+      </c>
+      <c r="F113" s="44"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
+    </row>
+    <row r="114" spans="1:16" s="34" customFormat="1">
+      <c r="A114" s="52"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+    </row>
+    <row r="115" spans="1:16" s="34" customFormat="1"/>
+    <row r="116" spans="1:16" s="34" customFormat="1"/>
+    <row r="117" spans="1:16" s="34" customFormat="1"/>
+    <row r="118" spans="1:16" s="34" customFormat="1"/>
+    <row r="119" spans="1:16" s="34" customFormat="1"/>
+    <row r="120" spans="1:16" s="34" customFormat="1"/>
+    <row r="121" spans="1:16" s="34" customFormat="1"/>
+    <row r="122" spans="1:16" s="34" customFormat="1"/>
+    <row r="123" spans="1:16" s="34" customFormat="1"/>
+    <row r="124" spans="1:16" s="34" customFormat="1"/>
+    <row r="125" spans="1:16" s="34" customFormat="1"/>
+    <row r="126" spans="1:16" s="34" customFormat="1"/>
+    <row r="127" spans="1:16" s="34" customFormat="1"/>
+    <row r="128" spans="1:16" s="34" customFormat="1"/>
+    <row r="129" s="34" customFormat="1"/>
+    <row r="130" s="34" customFormat="1"/>
+    <row r="131" s="34" customFormat="1"/>
+    <row r="132" s="34" customFormat="1"/>
+    <row r="133" s="34" customFormat="1"/>
+    <row r="134" s="34" customFormat="1"/>
+    <row r="135" s="34" customFormat="1"/>
+    <row r="136" s="34" customFormat="1"/>
+    <row r="137" s="34" customFormat="1"/>
+    <row r="138" s="34" customFormat="1"/>
+    <row r="139" s="34" customFormat="1"/>
+    <row r="140" s="34" customFormat="1"/>
+    <row r="141" s="34" customFormat="1"/>
+    <row r="142" s="34" customFormat="1"/>
+    <row r="143" s="34" customFormat="1"/>
+    <row r="144" s="34" customFormat="1"/>
+    <row r="145" s="34" customFormat="1"/>
+    <row r="146" s="34" customFormat="1"/>
+    <row r="147" s="34" customFormat="1"/>
+    <row r="148" s="34" customFormat="1"/>
+    <row r="149" s="34" customFormat="1"/>
+    <row r="150" s="34" customFormat="1"/>
+    <row r="151" s="34" customFormat="1"/>
+    <row r="152" s="34" customFormat="1"/>
+    <row r="153" s="34" customFormat="1"/>
+    <row r="154" s="34" customFormat="1"/>
+    <row r="155" s="34" customFormat="1"/>
+    <row r="156" s="34" customFormat="1"/>
+    <row r="157" s="34" customFormat="1"/>
+    <row r="158" s="34" customFormat="1"/>
+    <row r="159" s="34" customFormat="1"/>
+    <row r="160" s="34" customFormat="1"/>
+    <row r="161" s="34" customFormat="1"/>
+    <row r="162" s="34" customFormat="1"/>
+    <row r="163" s="34" customFormat="1"/>
+    <row r="164" s="34" customFormat="1"/>
+    <row r="165" s="34" customFormat="1"/>
+    <row r="166" s="34" customFormat="1"/>
+    <row r="167" s="34" customFormat="1"/>
+    <row r="168" s="34" customFormat="1"/>
+    <row r="169" s="34" customFormat="1"/>
+    <row r="170" s="34" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S170"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1">
+      <c r="A3" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1">
+      <c r="A4" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999">
+      <c r="A5" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6">
+      <c r="A6" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6">
+      <c r="A7" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37">
+        <f>1.93+1.95</f>
+        <v>3.88</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="37">
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
+      </c>
+      <c r="G10" s="38">
+        <f>PRODUCT(C10:F10)</f>
+        <v>0.88692471807375795</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35">
+        <v>3</v>
+      </c>
+      <c r="D11" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E11" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="F11" s="37">
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
+      </c>
+      <c r="G11" s="38">
+        <f>PRODUCT(C11:F11)</f>
+        <v>0.87203828161059815</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G12" s="38">
+        <f>PRODUCT(C12:F12)</f>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <f>SUM(G10:G12)</f>
+        <v>2.1729629996843562</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1950</v>
+      </c>
+      <c r="J13" s="40">
+        <f>G13*I13</f>
+        <v>4237.2778493844944</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:19" ht="124.2">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37">
+        <f>4.98+5.55</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="38">
+        <f>PRODUCT(C16:F16)</f>
+        <v>3.6328500000000004</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23">
+        <f>SUM(G16:G16)</f>
+        <v>3.6328500000000004</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J17" s="40">
+        <f>G17*I17</f>
+        <v>234.79109550000001</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="40">
+        <f>0.13*G17*19284/360</f>
+        <v>25.297956450000001</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="18">
+        <v>3</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="35">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="38">
+        <f>PRODUCT(C21:F21)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G21:G21)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="23">
+        <v>663.31</v>
+      </c>
+      <c r="J22" s="40">
+        <f>G22*I22</f>
+        <v>214.91243999999998</v>
+      </c>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" ht="15">
+      <c r="A24" s="18">
+        <v>4</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <f>D16</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="E25" s="21">
+        <f>E16</f>
+        <v>0.46</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="38">
+        <f>PRODUCT(C25:F25)</f>
+        <v>4.8438000000000008</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <f>D21</f>
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="21">
+        <f>E21</f>
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="38">
+        <f>PRODUCT(C26:F26)</f>
+        <v>0.36</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23">
+        <f>SUM(G25:G26)</f>
+        <v>5.2038000000000011</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1014.97</v>
+      </c>
+      <c r="J27" s="40">
+        <f>G27*I27</f>
+        <v>5281.7008860000014</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="40">
+        <f>0.13*G27*8617.2/10</f>
+        <v>582.94840968000017</v>
+      </c>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="30">
+      <c r="A30" s="18">
+        <v>5</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="19">
+        <f t="shared" ref="C31:E32" si="0">C25</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="0"/>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="38">
+        <f>PRODUCT(C31:F31)</f>
+        <v>0.24219000000000004</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="38">
+        <f>PRODUCT(C32:F32)</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="23">
+        <f>SUM(G31:G32)</f>
+        <v>0.26019000000000003</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="23">
+        <v>12983.1</v>
+      </c>
+      <c r="J33" s="40">
+        <f>G33*I33</f>
+        <v>3378.0727890000007</v>
+      </c>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="40">
+        <f>0.13*G33*8078.11</f>
+        <v>273.23964731700005</v>
+      </c>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="33.6">
+      <c r="A36" s="18">
+        <v>6</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="19">
+        <f>C32</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="20">
+        <f>D32</f>
+        <v>0.6</v>
+      </c>
+      <c r="E37" s="21">
+        <f>E32</f>
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G37" s="38">
+        <f>PRODUCT(C37:F37)</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F38" s="21">
+        <f>0.675+1.8</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="G38" s="38">
+        <f>PRODUCT(C38:F38)</f>
+        <v>0.1309275</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="35">
+        <v>2</v>
+      </c>
+      <c r="D39" s="37">
+        <f>D60</f>
+        <v>11.48</v>
+      </c>
+      <c r="E39" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F39" s="37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G39" s="38">
+        <f>PRODUCT(C39:F39)</f>
+        <v>0.39606000000000002</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="35">
+        <v>2</v>
+      </c>
+      <c r="D40" s="37">
+        <f>D64</f>
+        <v>9.4602042060347458</v>
+      </c>
+      <c r="E40" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F40" s="37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G40" s="38">
+        <f>PRODUCT(C40:F40)</f>
+        <v>0.3263770451081987</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23">
+        <f>SUM(G37:G40)</f>
+        <v>0.93436454510819877</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="23">
+        <v>16512.62</v>
+      </c>
+      <c r="J41" s="40">
+        <f>G41*I41</f>
+        <v>15428.806674844544</v>
+      </c>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="40">
+        <f>0.13*G41*9092.62</f>
+        <v>1104.4568275184224</v>
+      </c>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="30">
+      <c r="A44" s="18">
+        <v>7</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="19">
+        <f>C38</f>
+        <v>1</v>
+      </c>
+      <c r="D45" s="20">
+        <f>0.6*4</f>
+        <v>2.4</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G45" s="38">
+        <f>PRODUCT(C45:F45)</f>
+        <v>0.54</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20">
+        <f>0.23*4</f>
+        <v>0.92</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21">
+        <f>0.675+1.8</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="G46" s="38">
+        <f>PRODUCT(C46:F46)</f>
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="23">
+        <f>SUM(G45:G46)</f>
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J47" s="40">
+        <f>G47*I47</f>
+        <v>2578.7381399999999</v>
+      </c>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="40">
+        <f>0.13*G47*46827.87/100</f>
+        <v>171.48834272700003</v>
+      </c>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:15" ht="30">
+      <c r="A50" s="18">
+        <v>8</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="19">
+        <v>6</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F51" s="21">
+        <f>PRODUCT(C51:E51)</f>
+        <v>1.4222222222222221</v>
+      </c>
+      <c r="G51" s="69">
+        <f>F51/1000</f>
+        <v>1.4222222222222221E-3</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="19">
+        <v>4</v>
+      </c>
+      <c r="D52" s="20">
+        <f>0.675+1.8+0.6</f>
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="E52" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F52" s="21">
+        <f>PRODUCT(C52:E52)</f>
+        <v>10.933333333333334</v>
+      </c>
+      <c r="G52" s="69">
+        <f>F52/1000</f>
+        <v>1.0933333333333333E-2</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="19">
+        <v>16</v>
+      </c>
+      <c r="D53" s="20">
+        <f>(7/12/3.281)*4</f>
+        <v>0.7111652951335975</v>
+      </c>
+      <c r="E53" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F53" s="21">
+        <f>PRODUCT(C53:E53)</f>
+        <v>4.4952670507210115</v>
+      </c>
+      <c r="G53" s="69">
+        <f>F53/1000</f>
+        <v>4.4952670507210114E-3</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="19">
+        <v>4</v>
+      </c>
+      <c r="D54" s="20">
+        <f>D39+D40-0.05*10</f>
+        <v>20.440204206034746</v>
+      </c>
+      <c r="E54" s="21">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F54" s="21">
+        <f>PRODUCT(C54:E54)</f>
+        <v>50.469640014900605</v>
+      </c>
+      <c r="G54" s="69">
+        <f>F54/1000</f>
+        <v>5.0469640014900605E-2</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="19">
+        <v>135</v>
+      </c>
+      <c r="D55" s="20">
+        <f>(7+2+2)/12/3.281</f>
+        <v>0.27938636594534183</v>
+      </c>
+      <c r="E55" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F55" s="21">
+        <f>PRODUCT(C55:E55)</f>
+        <v>14.900606183751565</v>
+      </c>
+      <c r="G55" s="69">
+        <f>F55/1000</f>
+        <v>1.4900606183751565E-2</v>
+      </c>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="23">
+        <f>SUM(G51:G55)</f>
+        <v>8.2221068804928729E-2</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J56" s="40">
+        <f>G56*I56</f>
+        <v>10848.247818122296</v>
+      </c>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="A57" s="18"/>
+      <c r="B57" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="40">
+        <f>0.13*G56*106200</f>
+        <v>1135.144075920846</v>
+      </c>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" ht="30">
+      <c r="A59" s="18">
+        <v>9</v>
+      </c>
+      <c r="B59" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="21"/>
+      <c r="N59">
+        <f>18.833*2</f>
+        <v>37.665999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="35">
+        <v>1</v>
+      </c>
+      <c r="D60" s="37">
+        <v>11.48</v>
+      </c>
+      <c r="E60" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F60" s="37">
+        <f>2.083/3.281</f>
+        <v>0.63486741846997874</v>
+      </c>
+      <c r="G60" s="38">
+        <f>PRODUCT(C60:F60)</f>
+        <v>1.6763039317281319</v>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="21"/>
+      <c r="M60">
+        <f>19.083*2/3.281</f>
+        <v>11.632429137458091</v>
+      </c>
+      <c r="N60">
+        <f>18.833*2/3.281</f>
+        <v>11.480036574215177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1">
+      <c r="A61" s="18"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="35">
+        <v>1</v>
+      </c>
+      <c r="D61" s="37">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F61" s="37">
+        <f>6/3.281+0.675</f>
+        <v>2.503710758914965</v>
+      </c>
+      <c r="G61" s="38">
+        <f>PRODUCT(C61:F61)</f>
+        <v>0.23379651066747945</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1">
+      <c r="A62" s="18"/>
+      <c r="B62" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="35">
+        <v>-2</v>
+      </c>
+      <c r="D62" s="37">
+        <f>D60</f>
+        <v>11.48</v>
+      </c>
+      <c r="E62" s="37">
+        <f>E60</f>
+        <v>0.23</v>
+      </c>
+      <c r="F62" s="37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G62" s="38">
+        <f>PRODUCT(C62:F62)</f>
+        <v>-0.39606000000000002</v>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="35">
+        <v>1</v>
+      </c>
+      <c r="D63" s="37">
+        <f>4.98+5.55-(3*(1.17/3.281))</f>
+        <v>9.4602042060347458</v>
+      </c>
+      <c r="E63" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F63" s="37">
+        <f>1.8+0.4+0.15</f>
+        <v>2.35</v>
+      </c>
+      <c r="G63" s="38">
+        <f t="shared" ref="G63:G67" si="1">PRODUCT(C63:F63)</f>
+        <v>5.1132403733617799</v>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="21"/>
+      <c r="N63">
+        <f>D63/3.18</f>
+        <v>2.9749069830297943</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="35">
+        <v>-2</v>
+      </c>
+      <c r="D64" s="37">
+        <f>D63</f>
+        <v>9.4602042060347458</v>
+      </c>
+      <c r="E64" s="37">
+        <f>E62</f>
+        <v>0.23</v>
+      </c>
+      <c r="F64" s="37">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G64" s="38">
+        <f>PRODUCT(C64:F64)</f>
+        <v>-0.3263770451081987</v>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1">
+      <c r="A65" s="18"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="35">
+        <v>3</v>
+      </c>
+      <c r="D65" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E65" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="F65" s="37">
+        <f>1.8+0.4+0.15</f>
+        <v>2.35</v>
+      </c>
+      <c r="G65" s="38">
+        <f t="shared" si="1"/>
+        <v>0.89649604861550347</v>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="35">
+        <v>1</v>
+      </c>
+      <c r="D66" s="37">
+        <f>4.98+5.55</f>
+        <v>10.530000000000001</v>
+      </c>
+      <c r="E66" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="F66" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="G66" s="38">
+        <f t="shared" si="1"/>
+        <v>0.96876000000000018</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1">
+      <c r="A67" s="18"/>
+      <c r="B67" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="35">
+        <v>12</v>
+      </c>
+      <c r="D67" s="37">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E67" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F67" s="37">
+        <f>4.083/3.281</f>
+        <v>1.2444376714416336</v>
+      </c>
+      <c r="G67" s="38">
+        <f t="shared" si="1"/>
+        <v>2.8787814465839681</v>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="23">
+        <f>SUM(G60:G67)</f>
+        <v>11.044941265848664</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="23">
+        <v>14362.76</v>
+      </c>
+      <c r="J68" s="40">
+        <f>G68*I68</f>
+        <v>158635.84061548056</v>
+      </c>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1">
+      <c r="A69" s="18"/>
+      <c r="B69" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="40">
+        <f>0.13*G68*10311.74</f>
+        <v>14806.033144331301</v>
+      </c>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1">
+      <c r="A70" s="18"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" ht="30.6">
+      <c r="A71" s="18">
+        <v>10</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="35">
+        <v>2</v>
+      </c>
+      <c r="D72" s="37">
+        <f>(5.17+15.5+27+11+70+24.5+41.17+4.667+39.75)/3.281</f>
+        <v>72.769582444376724</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="G72" s="38">
+        <f t="shared" ref="G72" si="2">PRODUCT(C72:F72)</f>
+        <v>261.97049679975623</v>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="23">
+        <f>SUM(G72:G72)</f>
+        <v>261.97049679975623</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="23">
+        <v>405.86</v>
+      </c>
+      <c r="J73" s="40">
+        <f>G73*I73</f>
+        <v>106323.34583114907</v>
+      </c>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="40">
+        <f>0.13*G73*11166.2/100</f>
+        <v>3802.7794497750701</v>
+      </c>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1">
+      <c r="A75" s="18"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" ht="76.8">
+      <c r="A76" s="18">
+        <v>11</v>
+      </c>
+      <c r="B76" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="19">
+        <v>6</v>
+      </c>
+      <c r="D77" s="20">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21">
+        <f>5.42/3.281</f>
+        <v>1.6519353855531849</v>
+      </c>
+      <c r="G77" s="38">
+        <f t="shared" ref="G77" si="3">PRODUCT(C77:F77)</f>
+        <v>11.832912353328542</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1">
+      <c r="A78" s="18"/>
+      <c r="B78" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="23">
+        <f>SUM(G77:G77)</f>
+        <v>11.832912353328542</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I78" s="23">
+        <v>2575.34</v>
+      </c>
+      <c r="J78" s="40">
+        <f>G78*I78</f>
+        <v>30473.772500021129</v>
+      </c>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="40">
+        <f>0.13*G78*24343.96/10</f>
+        <v>3744.779285168167</v>
+      </c>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:11" ht="30.6">
+      <c r="A81" s="18">
+        <v>12</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="19">
+        <v>1</v>
+      </c>
+      <c r="D82" s="20">
+        <f>(5.17+15.5+27+10.917+70+53.5+21.333+24.5+41.17+4.667+39.75)/3.281</f>
+        <v>95.552270649192295</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="38">
+        <f t="shared" ref="G82" si="4">PRODUCT(C82:F82)</f>
+        <v>95.552270649192295</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1">
+      <c r="A83" s="18"/>
+      <c r="B83" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="23">
+        <f>SUM(G82:G82)</f>
+        <v>95.552270649192295</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="23">
+        <v>82.59</v>
+      </c>
+      <c r="J83" s="40">
+        <f>G83*I83</f>
+        <v>7891.6620329167918</v>
+      </c>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1">
+      <c r="A84" s="18"/>
+      <c r="B84" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="40">
+        <f>0.13*G83*1992.14/100</f>
+        <v>247.45955058640655</v>
+      </c>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1">
+      <c r="A85" s="18"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:11" ht="135.6">
+      <c r="A86" s="18">
+        <v>13</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="19">
+        <v>1</v>
+      </c>
+      <c r="D87" s="20">
+        <f>(13.5+12.333)/3.281</f>
+        <v>7.873514172508381</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="38">
+        <f t="shared" ref="G87" si="5">PRODUCT(C87:F87)</f>
+        <v>7.873514172508381</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="23">
+        <f>SUM(G87:G87)</f>
+        <v>7.873514172508381</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="23">
+        <v>4132.8</v>
+      </c>
+      <c r="J88" s="40">
+        <f>G88*I88</f>
+        <v>32539.65937214264</v>
+      </c>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="40">
+        <f>0.13*G88*4132.8</f>
+        <v>4230.1557183785426</v>
+      </c>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1">
+      <c r="A90" s="18"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="1:11" ht="30.6">
+      <c r="A91" s="18">
+        <v>14</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="36" t="str">
+        <f>B72</f>
+        <v>-wall</v>
+      </c>
+      <c r="C92" s="19">
+        <f>C72</f>
+        <v>2</v>
+      </c>
+      <c r="D92" s="20">
+        <f>D72</f>
+        <v>72.769582444376724</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21">
+        <f>F72</f>
+        <v>1.8</v>
+      </c>
+      <c r="G92" s="38">
+        <f t="shared" ref="G92" si="6">PRODUCT(C92:F92)</f>
+        <v>261.97049679975623</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="23">
+        <f>SUM(G92:G92)</f>
+        <v>261.97049679975623</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I93" s="23">
+        <v>251.77</v>
+      </c>
+      <c r="J93" s="40">
+        <f>G93*I93</f>
+        <v>65956.311979274629</v>
+      </c>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="40">
+        <f>0.13*G93*12736/100</f>
+        <v>4337.393121414204</v>
+      </c>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="1:11" ht="30.6">
+      <c r="A96" s="18">
+        <v>15</v>
+      </c>
+      <c r="B96" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F96" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G96" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:16" ht="28.2">
+      <c r="A97" s="18"/>
+      <c r="B97" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="19">
+        <v>4</v>
+      </c>
+      <c r="D97" s="20">
+        <f>(3.333*3+8.333*2)/3.281</f>
+        <v>8.1270953977445899</v>
+      </c>
+      <c r="E97" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="F97" s="21">
+        <f>PRODUCT(C97:E97)</f>
+        <v>33.808716854617494</v>
+      </c>
+      <c r="G97" s="69">
+        <f>F97</f>
+        <v>33.808716854617494</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:16" ht="28.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="19">
+        <v>4</v>
+      </c>
+      <c r="D98" s="20">
+        <f>8/3.281</f>
+        <v>2.4382810118866196</v>
+      </c>
+      <c r="E98" s="21">
+        <v>14.13</v>
+      </c>
+      <c r="F98" s="21">
+        <f>PRODUCT(C98:E98)</f>
+        <v>137.81164279183176</v>
+      </c>
+      <c r="G98" s="69">
+        <f>F98</f>
+        <v>137.81164279183176</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:16" ht="15" customHeight="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="23">
+        <f>SUM(G97:G98)</f>
+        <v>171.62035964644926</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I99" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J99" s="40">
+        <f>G99*I99</f>
+        <v>31092.460557147209</v>
+      </c>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:16" ht="15" customHeight="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="40">
+        <f>0.13*G99*1871.42/18.94</f>
+        <v>2204.4662380381496</v>
+      </c>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:16" ht="15" customHeight="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="1:16" ht="15" customHeight="1">
+      <c r="A102" s="18">
+        <v>16</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="19">
+        <v>1</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="33">
+        <f t="shared" ref="G102" si="7">PRODUCT(C102:F102)</f>
+        <v>1</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102" s="23">
+        <v>5000</v>
+      </c>
+      <c r="J102" s="33">
+        <f>G102*I102</f>
+        <v>5000</v>
+      </c>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:16" ht="15" customHeight="1">
+      <c r="A103" s="18"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="1:16" ht="15" customHeight="1">
+      <c r="A104" s="18">
+        <v>17</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="19">
+        <v>1</v>
+      </c>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="33">
+        <f t="shared" ref="G104" si="8">PRODUCT(C104:F104)</f>
+        <v>1</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" s="23">
+        <v>500</v>
+      </c>
+      <c r="J104" s="33">
+        <f>G104*I104</f>
+        <v>500</v>
+      </c>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="1:16" ht="15" customHeight="1">
+      <c r="A105" s="18"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="39"/>
+      <c r="B106" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="42"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40">
+        <f>SUM(J10:J104)</f>
+        <v>517281.24234828848</v>
+      </c>
+      <c r="K106" s="35"/>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="53"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="52"/>
+    </row>
+    <row r="108" spans="1:16" s="1" customFormat="1">
+      <c r="A108" s="45"/>
+      <c r="B108" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="120">
+        <f>J106</f>
+        <v>517281.24234828848</v>
+      </c>
+      <c r="D108" s="120"/>
+      <c r="E108" s="38">
+        <v>100</v>
+      </c>
+      <c r="F108" s="46"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="50"/>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="51"/>
+      <c r="B109" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="123">
+        <v>500000</v>
+      </c>
+      <c r="D109" s="123"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="53"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
+    </row>
+    <row r="110" spans="1:16" ht="14.4" customHeight="1">
+      <c r="A110" s="51"/>
+      <c r="B110" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="123">
+        <f>C109-C112-C113</f>
+        <v>475000</v>
+      </c>
+      <c r="D110" s="123"/>
+      <c r="E110" s="38">
+        <f>C110/C108*100</f>
+        <v>91.826256417815316</v>
+      </c>
+      <c r="F110" s="44"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="34"/>
+    </row>
+    <row r="111" spans="1:16" ht="14.4" customHeight="1">
+      <c r="A111" s="51"/>
+      <c r="B111" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="120">
+        <f>C108-C110</f>
+        <v>42281.242348288477</v>
+      </c>
+      <c r="D111" s="120"/>
+      <c r="E111" s="38">
+        <f>100-E110</f>
+        <v>8.1737435821846844</v>
+      </c>
+      <c r="F111" s="44"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="34"/>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="51"/>
+      <c r="B112" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="120">
+        <f>C109*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D112" s="120"/>
+      <c r="E112" s="38">
+        <v>3</v>
+      </c>
+      <c r="F112" s="44"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="52"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="51"/>
+      <c r="B113" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="120">
+        <f>C109*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D113" s="120"/>
       <c r="E113" s="38">
         <v>2</v>
       </c>
@@ -4918,2580 +7539,6 @@
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="M11:S11"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S170"/>
-  <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999">
-      <c r="A5" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6">
-      <c r="A6" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6">
-      <c r="A7" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="45">
-      <c r="A9" s="29">
-        <v>1</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="35">
-        <v>1</v>
-      </c>
-      <c r="D10" s="37">
-        <f>1.93+1.95</f>
-        <v>3.88</v>
-      </c>
-      <c r="E10" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="37">
-        <f>7.5/3.281</f>
-        <v>2.2858884486437061</v>
-      </c>
-      <c r="G10" s="38">
-        <f>PRODUCT(C10:F10)</f>
-        <v>0.88692471807375795</v>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35">
-        <v>3</v>
-      </c>
-      <c r="D11" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="E11" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="F11" s="37">
-        <f>7.5/3.281</f>
-        <v>2.2858884486437061</v>
-      </c>
-      <c r="G11" s="38">
-        <f>PRODUCT(C11:F11)</f>
-        <v>0.87203828161059815</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="21"/>
-      <c r="M11" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35">
-        <v>1</v>
-      </c>
-      <c r="D12" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="F12" s="37">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G12" s="38">
-        <f>PRODUCT(C12:F12)</f>
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23">
-        <f>SUM(G10:G12)</f>
-        <v>2.1729629996843562</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="23">
-        <v>1950</v>
-      </c>
-      <c r="J13" s="40">
-        <f>G13*I13</f>
-        <v>4237.2778493844944</v>
-      </c>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:19" ht="124.2">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="35">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37">
-        <f>4.98+5.55</f>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0.46</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="38">
-        <f>PRODUCT(C16:F16)</f>
-        <v>3.6328500000000004</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23">
-        <f>SUM(G16:G16)</f>
-        <v>3.6328500000000004</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="23">
-        <v>64.63</v>
-      </c>
-      <c r="J17" s="40">
-        <f>G17*I17</f>
-        <v>234.79109550000001</v>
-      </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="40">
-        <f>0.13*G17*19284/360</f>
-        <v>25.297956450000001</v>
-      </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="30">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="35">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="E21" s="37">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="G21" s="38">
-        <f>PRODUCT(C21:F21)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23">
-        <f>SUM(G21:G21)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="23">
-        <v>663.31</v>
-      </c>
-      <c r="J22" s="40">
-        <f>G22*I22</f>
-        <v>214.91243999999998</v>
-      </c>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="15">
-      <c r="A24" s="18">
-        <v>4</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20">
-        <f>D16</f>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="E25" s="21">
-        <f>E16</f>
-        <v>0.46</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="38">
-        <f>PRODUCT(C25:F25)</f>
-        <v>4.8438000000000008</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20">
-        <f>D21</f>
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="21">
-        <f>E21</f>
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="38">
-        <f>PRODUCT(C26:F26)</f>
-        <v>0.36</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="23">
-        <f>SUM(G25:G26)</f>
-        <v>5.2038000000000011</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="23">
-        <v>1014.97</v>
-      </c>
-      <c r="J27" s="40">
-        <f>G27*I27</f>
-        <v>5281.7008860000014</v>
-      </c>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="40">
-        <f>0.13*G27*8617.2/10</f>
-        <v>582.94840968000017</v>
-      </c>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="18">
-        <v>5</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="19">
-        <f t="shared" ref="C31:E32" si="0">C25</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="20">
-        <f t="shared" si="0"/>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-      <c r="F31" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="G31" s="38">
-        <f>PRODUCT(C31:F31)</f>
-        <v>0.24219000000000004</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="20">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0.05</v>
-      </c>
-      <c r="G32" s="38">
-        <f>PRODUCT(C32:F32)</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="23">
-        <f>SUM(G31:G32)</f>
-        <v>0.26019000000000003</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="23">
-        <v>12983.1</v>
-      </c>
-      <c r="J33" s="40">
-        <f>G33*I33</f>
-        <v>3378.0727890000007</v>
-      </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="40">
-        <f>0.13*G33*8078.11</f>
-        <v>273.23964731700005</v>
-      </c>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="1:11" ht="33.6">
-      <c r="A36" s="18">
-        <v>6</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="19">
-        <f>C32</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="20">
-        <f>D32</f>
-        <v>0.6</v>
-      </c>
-      <c r="E37" s="21">
-        <f>E32</f>
-        <v>0.6</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G37" s="38">
-        <f>PRODUCT(C37:F37)</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0.23</v>
-      </c>
-      <c r="E38" s="21">
-        <v>0.23</v>
-      </c>
-      <c r="F38" s="21">
-        <f>0.675+1.8</f>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="G38" s="38">
-        <f>PRODUCT(C38:F38)</f>
-        <v>0.1309275</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="35">
-        <v>2</v>
-      </c>
-      <c r="D39" s="37">
-        <f>D60</f>
-        <v>11.48</v>
-      </c>
-      <c r="E39" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="F39" s="37">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G39" s="38">
-        <f>PRODUCT(C39:F39)</f>
-        <v>0.39606000000000002</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="35">
-        <v>2</v>
-      </c>
-      <c r="D40" s="37">
-        <f>D64</f>
-        <v>9.4602042060347458</v>
-      </c>
-      <c r="E40" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="F40" s="37">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G40" s="38">
-        <f>PRODUCT(C40:F40)</f>
-        <v>0.3263770451081987</v>
-      </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="23">
-        <f>SUM(G37:G40)</f>
-        <v>0.93436454510819877</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="23">
-        <v>16512.62</v>
-      </c>
-      <c r="J41" s="40">
-        <f>G41*I41</f>
-        <v>15428.806674844544</v>
-      </c>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="40">
-        <f>0.13*G41*9092.62</f>
-        <v>1104.4568275184224</v>
-      </c>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" ht="30">
-      <c r="A44" s="18">
-        <v>7</v>
-      </c>
-      <c r="B44" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="19">
-        <f>C38</f>
-        <v>1</v>
-      </c>
-      <c r="D45" s="20">
-        <f>0.6*4</f>
-        <v>2.4</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G45" s="38">
-        <f>PRODUCT(C45:F45)</f>
-        <v>0.54</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="19">
-        <v>1</v>
-      </c>
-      <c r="D46" s="20">
-        <f>0.23*4</f>
-        <v>0.92</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21">
-        <f>0.675+1.8</f>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="G46" s="38">
-        <f>PRODUCT(C46:F46)</f>
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="23">
-        <f>SUM(G45:G46)</f>
-        <v>2.8170000000000002</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="23">
-        <v>915.42</v>
-      </c>
-      <c r="J47" s="40">
-        <f>G47*I47</f>
-        <v>2578.7381399999999</v>
-      </c>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="40">
-        <f>0.13*G47*46827.87/100</f>
-        <v>171.48834272700003</v>
-      </c>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:15" ht="30">
-      <c r="A50" s="18">
-        <v>8</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="19">
-        <v>6</v>
-      </c>
-      <c r="D51" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="E51" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F51" s="21">
-        <f>PRODUCT(C51:E51)</f>
-        <v>1.4222222222222221</v>
-      </c>
-      <c r="G51" s="69">
-        <f>F51/1000</f>
-        <v>1.4222222222222221E-3</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="19">
-        <v>4</v>
-      </c>
-      <c r="D52" s="20">
-        <f>0.675+1.8+0.6</f>
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="E52" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F52" s="21">
-        <f>PRODUCT(C52:E52)</f>
-        <v>10.933333333333334</v>
-      </c>
-      <c r="G52" s="69">
-        <f>F52/1000</f>
-        <v>1.0933333333333333E-2</v>
-      </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="19">
-        <v>16</v>
-      </c>
-      <c r="D53" s="20">
-        <f>(7/12/3.281)*4</f>
-        <v>0.7111652951335975</v>
-      </c>
-      <c r="E53" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F53" s="21">
-        <f>PRODUCT(C53:E53)</f>
-        <v>4.4952670507210115</v>
-      </c>
-      <c r="G53" s="69">
-        <f>F53/1000</f>
-        <v>4.4952670507210114E-3</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="19">
-        <v>4</v>
-      </c>
-      <c r="D54" s="20">
-        <f>D39+D40-0.05*10</f>
-        <v>20.440204206034746</v>
-      </c>
-      <c r="E54" s="21">
-        <f>10*10/162</f>
-        <v>0.61728395061728392</v>
-      </c>
-      <c r="F54" s="21">
-        <f>PRODUCT(C54:E54)</f>
-        <v>50.469640014900605</v>
-      </c>
-      <c r="G54" s="69">
-        <f>F54/1000</f>
-        <v>5.0469640014900605E-2</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="19">
-        <v>135</v>
-      </c>
-      <c r="D55" s="20">
-        <f>(7+2+2)/12/3.281</f>
-        <v>0.27938636594534183</v>
-      </c>
-      <c r="E55" s="21">
-        <f>8*8/162</f>
-        <v>0.39506172839506171</v>
-      </c>
-      <c r="F55" s="21">
-        <f>PRODUCT(C55:E55)</f>
-        <v>14.900606183751565</v>
-      </c>
-      <c r="G55" s="69">
-        <f>F55/1000</f>
-        <v>1.4900606183751565E-2</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="23">
-        <f>SUM(G51:G55)</f>
-        <v>8.2221068804928729E-2</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J56" s="40">
-        <f>G56*I56</f>
-        <v>10848.247818122296</v>
-      </c>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="40">
-        <f>0.13*G56*106200</f>
-        <v>1135.144075920846</v>
-      </c>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:15" ht="30">
-      <c r="A59" s="18">
-        <v>9</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="21"/>
-      <c r="N59">
-        <f>18.833*2</f>
-        <v>37.665999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="35">
-        <v>1</v>
-      </c>
-      <c r="D60" s="37">
-        <v>11.48</v>
-      </c>
-      <c r="E60" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="F60" s="37">
-        <f>2.083/3.281</f>
-        <v>0.63486741846997874</v>
-      </c>
-      <c r="G60" s="38">
-        <f>PRODUCT(C60:F60)</f>
-        <v>1.6763039317281319</v>
-      </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="21"/>
-      <c r="M60">
-        <f>19.083*2/3.281</f>
-        <v>11.632429137458091</v>
-      </c>
-      <c r="N60">
-        <f>18.833*2/3.281</f>
-        <v>11.480036574215177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="35">
-        <v>1</v>
-      </c>
-      <c r="D61" s="37">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E61" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="F61" s="37">
-        <f>6/3.281+0.675</f>
-        <v>2.503710758914965</v>
-      </c>
-      <c r="G61" s="38">
-        <f>PRODUCT(C61:F61)</f>
-        <v>0.23379651066747945</v>
-      </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="35">
-        <v>-2</v>
-      </c>
-      <c r="D62" s="37">
-        <f>D60</f>
-        <v>11.48</v>
-      </c>
-      <c r="E62" s="37">
-        <f>E60</f>
-        <v>0.23</v>
-      </c>
-      <c r="F62" s="37">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G62" s="38">
-        <f>PRODUCT(C62:F62)</f>
-        <v>-0.39606000000000002</v>
-      </c>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="35">
-        <v>1</v>
-      </c>
-      <c r="D63" s="37">
-        <f>4.98+5.55-(3*(1.17/3.281))</f>
-        <v>9.4602042060347458</v>
-      </c>
-      <c r="E63" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="F63" s="37">
-        <f>1.8+0.4+0.15</f>
-        <v>2.35</v>
-      </c>
-      <c r="G63" s="38">
-        <f t="shared" ref="G63:G67" si="1">PRODUCT(C63:F63)</f>
-        <v>5.1132403733617799</v>
-      </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="21"/>
-      <c r="N63">
-        <f>D63/3.18</f>
-        <v>2.9749069830297943</v>
-      </c>
-      <c r="O63" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="35">
-        <v>-2</v>
-      </c>
-      <c r="D64" s="37">
-        <f>D63</f>
-        <v>9.4602042060347458</v>
-      </c>
-      <c r="E64" s="37">
-        <f>E62</f>
-        <v>0.23</v>
-      </c>
-      <c r="F64" s="37">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G64" s="38">
-        <f>PRODUCT(C64:F64)</f>
-        <v>-0.3263770451081987</v>
-      </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="35">
-        <v>3</v>
-      </c>
-      <c r="D65" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="E65" s="37">
-        <f>1.17/3.281</f>
-        <v>0.35659859798841814</v>
-      </c>
-      <c r="F65" s="37">
-        <f>1.8+0.4+0.15</f>
-        <v>2.35</v>
-      </c>
-      <c r="G65" s="38">
-        <f t="shared" si="1"/>
-        <v>0.89649604861550347</v>
-      </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="35">
-        <v>1</v>
-      </c>
-      <c r="D66" s="37">
-        <f>4.98+5.55</f>
-        <v>10.530000000000001</v>
-      </c>
-      <c r="E66" s="37">
-        <v>0.46</v>
-      </c>
-      <c r="F66" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G66" s="38">
-        <f t="shared" si="1"/>
-        <v>0.96876000000000018</v>
-      </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="35">
-        <v>12</v>
-      </c>
-      <c r="D67" s="37">
-        <f>2.75/3.281</f>
-        <v>0.8381590978360256</v>
-      </c>
-      <c r="E67" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="F67" s="37">
-        <f>4.083/3.281</f>
-        <v>1.2444376714416336</v>
-      </c>
-      <c r="G67" s="38">
-        <f t="shared" si="1"/>
-        <v>2.8787814465839681</v>
-      </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="23">
-        <f>SUM(G60:G67)</f>
-        <v>11.044941265848664</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I68" s="23">
-        <v>14362.76</v>
-      </c>
-      <c r="J68" s="40">
-        <f>G68*I68</f>
-        <v>158635.84061548056</v>
-      </c>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="40">
-        <f>0.13*G68*10311.74</f>
-        <v>14806.033144331301</v>
-      </c>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="21"/>
-    </row>
-    <row r="71" spans="1:11" ht="30.6">
-      <c r="A71" s="18">
-        <v>10</v>
-      </c>
-      <c r="B71" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="35">
-        <v>2</v>
-      </c>
-      <c r="D72" s="37">
-        <f>(5.17+15.5+27+11+70+24.5+41.17+4.667+39.75)/3.281</f>
-        <v>72.769582444376724</v>
-      </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37">
-        <v>1.8</v>
-      </c>
-      <c r="G72" s="38">
-        <f t="shared" ref="G72" si="2">PRODUCT(C72:F72)</f>
-        <v>261.97049679975623</v>
-      </c>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="21"/>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="23">
-        <f>SUM(G72:G72)</f>
-        <v>261.97049679975623</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="23">
-        <v>405.86</v>
-      </c>
-      <c r="J73" s="40">
-        <f>G73*I73</f>
-        <v>106323.34583114907</v>
-      </c>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="40">
-        <f>0.13*G73*11166.2/100</f>
-        <v>3802.7794497750701</v>
-      </c>
-      <c r="K74" s="21"/>
-    </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="1:11" ht="76.8">
-      <c r="A76" s="18">
-        <v>11</v>
-      </c>
-      <c r="B76" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="21"/>
-    </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="19">
-        <v>6</v>
-      </c>
-      <c r="D77" s="20">
-        <f>3.917/3.281</f>
-        <v>1.1938433404449862</v>
-      </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21">
-        <f>5.42/3.281</f>
-        <v>1.6519353855531849</v>
-      </c>
-      <c r="G77" s="38">
-        <f t="shared" ref="G77" si="3">PRODUCT(C77:F77)</f>
-        <v>11.832912353328542</v>
-      </c>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="21"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="23">
-        <f>SUM(G77:G77)</f>
-        <v>11.832912353328542</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I78" s="23">
-        <v>2575.34</v>
-      </c>
-      <c r="J78" s="40">
-        <f>G78*I78</f>
-        <v>30473.772500021129</v>
-      </c>
-      <c r="K78" s="21"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="40">
-        <f>0.13*G78*24343.96/10</f>
-        <v>3744.779285168167</v>
-      </c>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" ht="30.6">
-      <c r="A81" s="18">
-        <v>12</v>
-      </c>
-      <c r="B81" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="19">
-        <v>1</v>
-      </c>
-      <c r="D82" s="20">
-        <f>(5.17+15.5+27+10.917+70+53.5+21.333+24.5+41.17+4.667+39.75)/3.281</f>
-        <v>95.552270649192295</v>
-      </c>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="38">
-        <f t="shared" ref="G82" si="4">PRODUCT(C82:F82)</f>
-        <v>95.552270649192295</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="23">
-        <f>SUM(G82:G82)</f>
-        <v>95.552270649192295</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I83" s="23">
-        <v>82.59</v>
-      </c>
-      <c r="J83" s="40">
-        <f>G83*I83</f>
-        <v>7891.6620329167918</v>
-      </c>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="40">
-        <f>0.13*G83*1992.14/100</f>
-        <v>247.45955058640655</v>
-      </c>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" ht="135.6">
-      <c r="A86" s="18">
-        <v>13</v>
-      </c>
-      <c r="B86" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="21"/>
-    </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="19">
-        <v>1</v>
-      </c>
-      <c r="D87" s="20">
-        <f>(13.5+12.333)/3.281</f>
-        <v>7.873514172508381</v>
-      </c>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="38">
-        <f t="shared" ref="G87" si="5">PRODUCT(C87:F87)</f>
-        <v>7.873514172508381</v>
-      </c>
-      <c r="H87" s="22"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="23">
-        <f>SUM(G87:G87)</f>
-        <v>7.873514172508381</v>
-      </c>
-      <c r="H88" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I88" s="23">
-        <v>4132.8</v>
-      </c>
-      <c r="J88" s="40">
-        <f>G88*I88</f>
-        <v>32539.65937214264</v>
-      </c>
-      <c r="K88" s="21"/>
-    </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="40">
-        <f>0.13*G88*4132.8</f>
-        <v>4230.1557183785426</v>
-      </c>
-      <c r="K89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" ht="30.6">
-      <c r="A91" s="18">
-        <v>14</v>
-      </c>
-      <c r="B91" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="36" t="str">
-        <f>B72</f>
-        <v>-wall</v>
-      </c>
-      <c r="C92" s="19">
-        <f>C72</f>
-        <v>2</v>
-      </c>
-      <c r="D92" s="20">
-        <f>D72</f>
-        <v>72.769582444376724</v>
-      </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21">
-        <f>F72</f>
-        <v>1.8</v>
-      </c>
-      <c r="G92" s="38">
-        <f t="shared" ref="G92" si="6">PRODUCT(C92:F92)</f>
-        <v>261.97049679975623</v>
-      </c>
-      <c r="H92" s="22"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="23">
-        <f>SUM(G92:G92)</f>
-        <v>261.97049679975623</v>
-      </c>
-      <c r="H93" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I93" s="23">
-        <v>251.77</v>
-      </c>
-      <c r="J93" s="40">
-        <f>G93*I93</f>
-        <v>65956.311979274629</v>
-      </c>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="40">
-        <f>0.13*G93*12736/100</f>
-        <v>4337.393121414204</v>
-      </c>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="21"/>
-    </row>
-    <row r="96" spans="1:11" ht="30.6">
-      <c r="A96" s="18">
-        <v>15</v>
-      </c>
-      <c r="B96" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F96" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G96" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="H96" s="22"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="21"/>
-    </row>
-    <row r="97" spans="1:16" ht="28.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="19">
-        <v>4</v>
-      </c>
-      <c r="D97" s="20">
-        <f>(3.333*3+8.333*2)/3.281</f>
-        <v>8.1270953977445899</v>
-      </c>
-      <c r="E97" s="21">
-        <v>1.04</v>
-      </c>
-      <c r="F97" s="21">
-        <f>PRODUCT(C97:E97)</f>
-        <v>33.808716854617494</v>
-      </c>
-      <c r="G97" s="69">
-        <f>F97</f>
-        <v>33.808716854617494</v>
-      </c>
-      <c r="H97" s="22"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:16" ht="28.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="19">
-        <v>4</v>
-      </c>
-      <c r="D98" s="20">
-        <f>8/3.281</f>
-        <v>2.4382810118866196</v>
-      </c>
-      <c r="E98" s="21">
-        <v>14.13</v>
-      </c>
-      <c r="F98" s="21">
-        <f>PRODUCT(C98:E98)</f>
-        <v>137.81164279183176</v>
-      </c>
-      <c r="G98" s="69">
-        <f>F98</f>
-        <v>137.81164279183176</v>
-      </c>
-      <c r="H98" s="22"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="21"/>
-    </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1">
-      <c r="A99" s="18"/>
-      <c r="B99" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="23">
-        <f>SUM(G97:G98)</f>
-        <v>171.62035964644926</v>
-      </c>
-      <c r="H99" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I99" s="23">
-        <v>181.17</v>
-      </c>
-      <c r="J99" s="40">
-        <f>G99*I99</f>
-        <v>31092.460557147209</v>
-      </c>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:16" ht="15" customHeight="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="40">
-        <f>0.13*G99*1871.42/18.94</f>
-        <v>2204.4662380381496</v>
-      </c>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:16" ht="15" customHeight="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:16" ht="15" customHeight="1">
-      <c r="A102" s="18">
-        <v>16</v>
-      </c>
-      <c r="B102" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="19">
-        <v>1</v>
-      </c>
-      <c r="D102" s="20"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="33">
-        <f t="shared" ref="G102" si="7">PRODUCT(C102:F102)</f>
-        <v>1</v>
-      </c>
-      <c r="H102" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I102" s="23">
-        <v>5000</v>
-      </c>
-      <c r="J102" s="33">
-        <f>G102*I102</f>
-        <v>5000</v>
-      </c>
-      <c r="K102" s="21"/>
-    </row>
-    <row r="103" spans="1:16" ht="15" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="21"/>
-    </row>
-    <row r="104" spans="1:16" ht="15" customHeight="1">
-      <c r="A104" s="18">
-        <v>17</v>
-      </c>
-      <c r="B104" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C104" s="19">
-        <v>1</v>
-      </c>
-      <c r="D104" s="20"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="33">
-        <f t="shared" ref="G104" si="8">PRODUCT(C104:F104)</f>
-        <v>1</v>
-      </c>
-      <c r="H104" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I104" s="23">
-        <v>500</v>
-      </c>
-      <c r="J104" s="33">
-        <f>G104*I104</f>
-        <v>500</v>
-      </c>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="1:16" ht="15" customHeight="1">
-      <c r="A105" s="18"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" s="39"/>
-      <c r="B106" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="42"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40">
-        <f>SUM(J10:J104)</f>
-        <v>517281.24234828848</v>
-      </c>
-      <c r="K106" s="35"/>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="53"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
-      <c r="K107" s="52"/>
-    </row>
-    <row r="108" spans="1:16" s="1" customFormat="1">
-      <c r="A108" s="45"/>
-      <c r="B108" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="105">
-        <f>J106</f>
-        <v>517281.24234828848</v>
-      </c>
-      <c r="D108" s="105"/>
-      <c r="E108" s="38">
-        <v>100</v>
-      </c>
-      <c r="F108" s="46"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="49"/>
-      <c r="K108" s="50"/>
-    </row>
-    <row r="109" spans="1:16">
-      <c r="A109" s="51"/>
-      <c r="B109" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109" s="108">
-        <v>500000</v>
-      </c>
-      <c r="D109" s="108"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="53"/>
-      <c r="I109" s="53"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="52"/>
-      <c r="L109" s="34"/>
-      <c r="M109" s="34"/>
-      <c r="N109" s="34"/>
-      <c r="O109" s="34"/>
-      <c r="P109" s="34"/>
-    </row>
-    <row r="110" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A110" s="51"/>
-      <c r="B110" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C110" s="108">
-        <f>C109-C112-C113</f>
-        <v>475000</v>
-      </c>
-      <c r="D110" s="108"/>
-      <c r="E110" s="38">
-        <f>C110/C108*100</f>
-        <v>91.826256417815316</v>
-      </c>
-      <c r="F110" s="44"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="34"/>
-    </row>
-    <row r="111" spans="1:16" ht="14.4" customHeight="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="105">
-        <f>C108-C110</f>
-        <v>42281.242348288477</v>
-      </c>
-      <c r="D111" s="105"/>
-      <c r="E111" s="38">
-        <f>100-E110</f>
-        <v>8.1737435821846844</v>
-      </c>
-      <c r="F111" s="44"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="34"/>
-    </row>
-    <row r="112" spans="1:16">
-      <c r="A112" s="51"/>
-      <c r="B112" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" s="105">
-        <f>C109*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D112" s="105"/>
-      <c r="E112" s="38">
-        <v>3</v>
-      </c>
-      <c r="F112" s="44"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="52"/>
-      <c r="L112" s="34"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
-    </row>
-    <row r="113" spans="1:16">
-      <c r="A113" s="51"/>
-      <c r="B113" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" s="105">
-        <f>C109*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D113" s="105"/>
-      <c r="E113" s="38">
-        <v>2</v>
-      </c>
-      <c r="F113" s="44"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="34"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
-    </row>
-    <row r="114" spans="1:16" s="34" customFormat="1">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="52"/>
-    </row>
-    <row r="115" spans="1:16" s="34" customFormat="1"/>
-    <row r="116" spans="1:16" s="34" customFormat="1"/>
-    <row r="117" spans="1:16" s="34" customFormat="1"/>
-    <row r="118" spans="1:16" s="34" customFormat="1"/>
-    <row r="119" spans="1:16" s="34" customFormat="1"/>
-    <row r="120" spans="1:16" s="34" customFormat="1"/>
-    <row r="121" spans="1:16" s="34" customFormat="1"/>
-    <row r="122" spans="1:16" s="34" customFormat="1"/>
-    <row r="123" spans="1:16" s="34" customFormat="1"/>
-    <row r="124" spans="1:16" s="34" customFormat="1"/>
-    <row r="125" spans="1:16" s="34" customFormat="1"/>
-    <row r="126" spans="1:16" s="34" customFormat="1"/>
-    <row r="127" spans="1:16" s="34" customFormat="1"/>
-    <row r="128" spans="1:16" s="34" customFormat="1"/>
-    <row r="129" s="34" customFormat="1"/>
-    <row r="130" s="34" customFormat="1"/>
-    <row r="131" s="34" customFormat="1"/>
-    <row r="132" s="34" customFormat="1"/>
-    <row r="133" s="34" customFormat="1"/>
-    <row r="134" s="34" customFormat="1"/>
-    <row r="135" s="34" customFormat="1"/>
-    <row r="136" s="34" customFormat="1"/>
-    <row r="137" s="34" customFormat="1"/>
-    <row r="138" s="34" customFormat="1"/>
-    <row r="139" s="34" customFormat="1"/>
-    <row r="140" s="34" customFormat="1"/>
-    <row r="141" s="34" customFormat="1"/>
-    <row r="142" s="34" customFormat="1"/>
-    <row r="143" s="34" customFormat="1"/>
-    <row r="144" s="34" customFormat="1"/>
-    <row r="145" s="34" customFormat="1"/>
-    <row r="146" s="34" customFormat="1"/>
-    <row r="147" s="34" customFormat="1"/>
-    <row r="148" s="34" customFormat="1"/>
-    <row r="149" s="34" customFormat="1"/>
-    <row r="150" s="34" customFormat="1"/>
-    <row r="151" s="34" customFormat="1"/>
-    <row r="152" s="34" customFormat="1"/>
-    <row r="153" s="34" customFormat="1"/>
-    <row r="154" s="34" customFormat="1"/>
-    <row r="155" s="34" customFormat="1"/>
-    <row r="156" s="34" customFormat="1"/>
-    <row r="157" s="34" customFormat="1"/>
-    <row r="158" s="34" customFormat="1"/>
-    <row r="159" s="34" customFormat="1"/>
-    <row r="160" s="34" customFormat="1"/>
-    <row r="161" s="34" customFormat="1"/>
-    <row r="162" s="34" customFormat="1"/>
-    <row r="163" s="34" customFormat="1"/>
-    <row r="164" s="34" customFormat="1"/>
-    <row r="165" s="34" customFormat="1"/>
-    <row r="166" s="34" customFormat="1"/>
-    <row r="167" s="34" customFormat="1"/>
-    <row r="168" s="34" customFormat="1"/>
-    <row r="169" s="34" customFormat="1"/>
-    <row r="170" s="34" customFormat="1"/>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="C108:D108"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="C110:D110"/>
@@ -7502,6 +7549,11 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -7538,113 +7590,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:19" ht="17.399999999999999">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:19" ht="15.6">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:19" ht="15.6">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -7752,15 +7804,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="M11" s="103" t="s">
+      <c r="M11" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -9966,11 +10018,11 @@
       <c r="B114" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="105">
+      <c r="C114" s="120">
         <f>J112</f>
         <v>581612.37722048338</v>
       </c>
-      <c r="D114" s="105"/>
+      <c r="D114" s="120"/>
       <c r="E114" s="38">
         <v>100</v>
       </c>
@@ -9986,10 +10038,10 @@
       <c r="B115" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="108">
+      <c r="C115" s="123">
         <v>500000</v>
       </c>
-      <c r="D115" s="108"/>
+      <c r="D115" s="123"/>
       <c r="E115" s="38"/>
       <c r="F115" s="44"/>
       <c r="G115" s="43"/>
@@ -10008,11 +10060,11 @@
       <c r="B116" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="108">
+      <c r="C116" s="123">
         <f>C115-C118-C119</f>
         <v>475000</v>
       </c>
-      <c r="D116" s="108"/>
+      <c r="D116" s="123"/>
       <c r="E116" s="38">
         <f>C116/C114*100</f>
         <v>81.66951368366982</v>
@@ -10034,11 +10086,11 @@
       <c r="B117" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="105">
+      <c r="C117" s="120">
         <f>C114-C116</f>
         <v>106612.37722048338</v>
       </c>
-      <c r="D117" s="105"/>
+      <c r="D117" s="120"/>
       <c r="E117" s="38">
         <f>100-E116</f>
         <v>18.33048631633018</v>
@@ -10060,11 +10112,11 @@
       <c r="B118" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="105">
+      <c r="C118" s="120">
         <f>C115*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D118" s="105"/>
+      <c r="D118" s="120"/>
       <c r="E118" s="38">
         <v>3</v>
       </c>
@@ -10085,11 +10137,11 @@
       <c r="B119" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="105">
+      <c r="C119" s="120">
         <f>C115*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D119" s="105"/>
+      <c r="D119" s="120"/>
       <c r="E119" s="38">
         <v>2</v>
       </c>
@@ -10176,6 +10228,11 @@
     <row r="176" s="34" customFormat="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
     <mergeCell ref="M11:S11"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
@@ -10187,11 +10244,6 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -10212,8 +10264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10232,90 +10284,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="1:11" ht="18">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="116">
+      <c r="C6" s="130">
         <f>F63</f>
         <v>581612.37722048338</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="131"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -10323,11 +10375,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="116">
+      <c r="J6" s="130">
         <f>I63</f>
-        <v>624793.98079692759</v>
-      </c>
-      <c r="K6" s="117"/>
+        <v>494627.26953346224</v>
+      </c>
+      <c r="K6" s="131"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="26" t="s">
@@ -10336,77 +10388,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="I7" s="112" t="s">
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="I7" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="97" t="str">
+      <c r="A8" s="124" t="str">
         <f>'callapsible gate added'!A6:F6</f>
         <v>Project:- राष्ट्रिय मा. बि. वाल निर्माण</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="I8" s="113" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="I8" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="114" t="str">
+      <c r="A9" s="140" t="str">
         <f>'callapsible gate added'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="I9" s="113" t="s">
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="I9" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115" t="s">
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="109" t="s">
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="110" t="s">
+      <c r="K11" s="136" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -10425,10 +10477,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="45">
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A13" s="27">
         <f>'callapsible gate added'!A9</f>
         <v>1</v>
@@ -11215,7 +11267,7 @@
       </c>
       <c r="G41" s="12">
         <f>V!G171</f>
-        <v>13.647162353328541</v>
+        <v>11.893934775982929</v>
       </c>
       <c r="H41" s="12">
         <f>V!I171</f>
@@ -11223,11 +11275,11 @@
       </c>
       <c r="I41" s="12">
         <f>G41*H41</f>
-        <v>35146.083095021131</v>
+        <v>30630.92598597988</v>
       </c>
       <c r="J41" s="28">
         <f>I41-F41</f>
-        <v>0</v>
+        <v>-4515.1571090412508</v>
       </c>
       <c r="K41" s="14"/>
     </row>
@@ -11248,11 +11300,11 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12">
         <f>V!J172</f>
-        <v>4318.9376677581658</v>
+        <v>3764.0911415787864</v>
       </c>
       <c r="J42" s="28">
         <f>I42-F42</f>
-        <v>0</v>
+        <v>-554.84652617937945</v>
       </c>
       <c r="K42" s="14"/>
     </row>
@@ -11296,7 +11348,7 @@
       </c>
       <c r="G44" s="12">
         <f>V!G176</f>
-        <v>95.552270649192295</v>
+        <v>0</v>
       </c>
       <c r="H44" s="12">
         <f>V!I176</f>
@@ -11304,11 +11356,11 @@
       </c>
       <c r="I44" s="12">
         <f>G44*H44</f>
-        <v>7891.6620329167918</v>
+        <v>0</v>
       </c>
       <c r="J44" s="28">
         <f>I44-F44</f>
-        <v>0</v>
+        <v>-7891.6620329167918</v>
       </c>
       <c r="K44" s="14"/>
     </row>
@@ -11329,11 +11381,11 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12">
         <f>V!J177</f>
-        <v>247.45955058640655</v>
+        <v>0</v>
       </c>
       <c r="J45" s="28">
         <f>I45-F45</f>
-        <v>0</v>
+        <v>-247.45955058640655</v>
       </c>
       <c r="K45" s="14"/>
     </row>
@@ -11377,7 +11429,7 @@
       </c>
       <c r="G47" s="12">
         <f>V!G181</f>
-        <v>7.873514172508381</v>
+        <v>0</v>
       </c>
       <c r="H47" s="12">
         <f>V!I181</f>
@@ -11385,11 +11437,11 @@
       </c>
       <c r="I47" s="12">
         <f>G47*H47</f>
-        <v>32539.65937214264</v>
+        <v>0</v>
       </c>
       <c r="J47" s="28">
         <f>I47-F47</f>
-        <v>0</v>
+        <v>-32539.65937214264</v>
       </c>
       <c r="K47" s="14"/>
     </row>
@@ -11410,11 +11462,11 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12">
         <f>V!J182</f>
-        <v>4230.1557183785426</v>
+        <v>0</v>
       </c>
       <c r="J48" s="28">
         <f>I48-F48</f>
-        <v>0</v>
+        <v>-4230.1557183785426</v>
       </c>
       <c r="K48" s="14"/>
     </row>
@@ -11538,20 +11590,20 @@
         <v>31092.460557147209</v>
       </c>
       <c r="G53" s="12">
-        <f>V!G192</f>
-        <v>171.62035964644926</v>
+        <f>V!G194</f>
+        <v>88.889200000000002</v>
       </c>
       <c r="H53" s="12">
-        <f>V!I192</f>
+        <f>V!I194</f>
         <v>181.17</v>
       </c>
       <c r="I53" s="12">
         <f>G53*H53</f>
-        <v>31092.460557147209</v>
+        <v>16104.056364</v>
       </c>
       <c r="J53" s="28">
         <f>I53-F53</f>
-        <v>0</v>
+        <v>-14988.404193147209</v>
       </c>
       <c r="K53" s="14"/>
     </row>
@@ -11571,12 +11623,12 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12">
-        <f>V!J193</f>
-        <v>2204.4662380381496</v>
+        <f>V!J195</f>
+        <v>1141.7831819598734</v>
       </c>
       <c r="J54" s="28">
         <f>I54-F54</f>
-        <v>0</v>
+        <v>-1062.6830560782762</v>
       </c>
       <c r="K54" s="14"/>
     </row>
@@ -11619,20 +11671,20 @@
         <v>52333.348411500003</v>
       </c>
       <c r="G56" s="12">
-        <f>V!G197</f>
-        <v>8.1880500000000005</v>
+        <f>V!G199</f>
+        <v>0</v>
       </c>
       <c r="H56" s="12">
-        <f>V!I197</f>
+        <f>V!I199</f>
         <v>6391.43</v>
       </c>
       <c r="I56" s="12">
         <f>G56*H56</f>
-        <v>52333.348411500003</v>
+        <v>0</v>
       </c>
       <c r="J56" s="28">
         <f>I56-F56</f>
-        <v>0</v>
+        <v>-52333.348411500003</v>
       </c>
       <c r="K56" s="14"/>
     </row>
@@ -11652,12 +11704,12 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12">
-        <f>V!J198</f>
-        <v>6803.3352934950008</v>
+        <f>V!J200</f>
+        <v>0</v>
       </c>
       <c r="J57" s="28">
         <f>I57-F57</f>
-        <v>0</v>
+        <v>-6803.3352934950008</v>
       </c>
       <c r="K57" s="14"/>
     </row>
@@ -11700,20 +11752,20 @@
         <v>5000</v>
       </c>
       <c r="G59" s="12">
-        <f>V!G200</f>
-        <v>1</v>
+        <f>V!G202</f>
+        <v>0</v>
       </c>
       <c r="H59" s="12">
-        <f>V!I200</f>
+        <f>V!I202</f>
         <v>5000</v>
       </c>
       <c r="I59" s="12">
         <f>G59*H59</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J59" s="28">
         <f>I59-F59</f>
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="K59" s="14"/>
     </row>
@@ -11756,11 +11808,11 @@
         <v>500</v>
       </c>
       <c r="G61" s="12">
-        <f>V!G202</f>
+        <f>V!G204</f>
         <v>1</v>
       </c>
       <c r="H61" s="12">
-        <f>V!I202</f>
+        <f>V!I204</f>
         <v>500</v>
       </c>
       <c r="I61" s="12">
@@ -11802,23 +11854,16 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7">
         <f>SUM(I13:I61)</f>
-        <v>624793.98079692759</v>
+        <v>494627.26953346224</v>
       </c>
       <c r="J63" s="13">
         <f>I63-F63</f>
-        <v>43181.603576444206</v>
+        <v>-86985.10768702114</v>
       </c>
       <c r="K63" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -11832,6 +11877,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11847,10 +11899,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T268"/>
+  <dimension ref="A1:T270"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11870,113 +11922,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:20" ht="15.6">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="98" t="s">
+      <c r="H6" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
     </row>
     <row r="7" spans="1:20" ht="15.6">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -12084,15 +12136,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="N11" s="103" t="s">
+      <c r="N11" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -12900,22 +12952,22 @@
       <c r="A50" s="18">
         <v>8</v>
       </c>
-      <c r="B50" s="139" t="s">
+      <c r="B50" s="109" t="s">
         <v>76</v>
       </c>
       <c r="C50" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="145" t="s">
+      <c r="D50" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="146" t="s">
+      <c r="E50" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="146" t="s">
+      <c r="F50" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="G50" s="146" t="s">
+      <c r="G50" s="116" t="s">
         <v>79</v>
       </c>
       <c r="H50" s="90"/>
@@ -12943,7 +12995,7 @@
         <f>PRODUCT(C51:E51)</f>
         <v>11.733333333333333</v>
       </c>
-      <c r="G51" s="147">
+      <c r="G51" s="117">
         <f>F51/1000</f>
         <v>1.1733333333333332E-2</v>
       </c>
@@ -12973,7 +13025,7 @@
         <f>PRODUCT(C52:E52)</f>
         <v>20.589928544820342</v>
       </c>
-      <c r="G52" s="147">
+      <c r="G52" s="117">
         <f>F52/1000</f>
         <v>2.0589928544820342E-2</v>
       </c>
@@ -13003,7 +13055,7 @@
         <f>PRODUCT(C53:E53)</f>
         <v>4.4952670507210115</v>
       </c>
-      <c r="G53" s="147">
+      <c r="G53" s="117">
         <f>F53/1000</f>
         <v>4.4952670507210114E-3</v>
       </c>
@@ -13069,10 +13121,10 @@
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:15" ht="30">
-      <c r="A57" s="138">
+      <c r="A57" s="108">
         <v>9</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="109" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="86"/>
@@ -13090,25 +13142,25 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" customHeight="1">
-      <c r="A58" s="138"/>
-      <c r="B58" s="141" t="s">
+      <c r="A58" s="108"/>
+      <c r="B58" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="142">
+      <c r="C58" s="112">
         <f>0*1</f>
         <v>0</v>
       </c>
-      <c r="D58" s="143">
+      <c r="D58" s="113">
         <v>11.48</v>
       </c>
-      <c r="E58" s="143">
+      <c r="E58" s="113">
         <v>0.23</v>
       </c>
-      <c r="F58" s="143">
+      <c r="F58" s="113">
         <f>2.083/3.281</f>
         <v>0.63486741846997874</v>
       </c>
-      <c r="G58" s="144">
+      <c r="G58" s="114">
         <f>PRODUCT(C58:F58)</f>
         <v>0</v>
       </c>
@@ -13126,23 +13178,23 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" customHeight="1">
-      <c r="A59" s="138"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="142">
+      <c r="A59" s="108"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="112">
         <f>0*1</f>
         <v>0</v>
       </c>
-      <c r="D59" s="143">
+      <c r="D59" s="113">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E59" s="143">
+      <c r="E59" s="113">
         <v>0.23</v>
       </c>
-      <c r="F59" s="143">
+      <c r="F59" s="113">
         <f>6/3.281+0.675</f>
         <v>2.503710758914965</v>
       </c>
-      <c r="G59" s="144">
+      <c r="G59" s="114">
         <f>PRODUCT(C59:F59)</f>
         <v>0</v>
       </c>
@@ -13152,7 +13204,7 @@
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:15" ht="15" customHeight="1">
-      <c r="A60" s="138"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="92" t="s">
         <v>56</v>
       </c>
@@ -13179,7 +13231,7 @@
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:15" ht="15" customHeight="1">
-      <c r="A61" s="138"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="92" t="s">
         <v>148</v>
       </c>
@@ -13205,7 +13257,7 @@
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="138"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="92" t="s">
         <v>152</v>
       </c>
@@ -13233,7 +13285,7 @@
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:15" ht="15" customHeight="1">
-      <c r="A63" s="138"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="92"/>
       <c r="C63" s="93">
         <v>1</v>
@@ -13260,13 +13312,13 @@
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:15" ht="15" customHeight="1">
-      <c r="A64" s="138"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="92"/>
       <c r="C64" s="93">
         <v>1</v>
       </c>
       <c r="D64" s="94">
-        <f t="shared" ref="D64:D67" si="2">9.75/3.281</f>
+        <f t="shared" ref="D64" si="2">9.75/3.281</f>
         <v>2.9716549832368178</v>
       </c>
       <c r="E64" s="94">
@@ -13286,7 +13338,7 @@
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:16" ht="15" customHeight="1">
-      <c r="A65" s="138"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="92"/>
       <c r="C65" s="93">
         <v>1</v>
@@ -13313,13 +13365,13 @@
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:16" ht="15" customHeight="1">
-      <c r="A66" s="138"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="92"/>
       <c r="C66" s="93">
         <v>1</v>
       </c>
       <c r="D66" s="94">
-        <f t="shared" ref="D66:D67" si="4">9.75/3.281</f>
+        <f t="shared" ref="D66" si="4">9.75/3.281</f>
         <v>2.9716549832368178</v>
       </c>
       <c r="E66" s="94">
@@ -13339,7 +13391,7 @@
       <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:16" ht="15" customHeight="1">
-      <c r="A67" s="138"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="92"/>
       <c r="C67" s="93">
         <v>1</v>
@@ -13366,7 +13418,7 @@
       <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:16" ht="15" customHeight="1">
-      <c r="A68" s="138"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="92"/>
       <c r="C68" s="93">
         <v>1</v>
@@ -13392,26 +13444,26 @@
       <c r="K68" s="21"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1">
-      <c r="A69" s="138"/>
-      <c r="B69" s="141" t="s">
+      <c r="A69" s="108"/>
+      <c r="B69" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="142">
+      <c r="C69" s="112">
         <f>0*-2</f>
         <v>0</v>
       </c>
-      <c r="D69" s="143">
+      <c r="D69" s="113">
         <f>D58</f>
         <v>11.48</v>
       </c>
-      <c r="E69" s="143">
+      <c r="E69" s="113">
         <f>E58</f>
         <v>0.23</v>
       </c>
-      <c r="F69" s="143">
+      <c r="F69" s="113">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G69" s="144">
+      <c r="G69" s="114">
         <f>PRODUCT(C69:F69)</f>
         <v>0</v>
       </c>
@@ -13421,26 +13473,26 @@
       <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:16" ht="15" customHeight="1">
-      <c r="A70" s="138"/>
-      <c r="B70" s="141" t="s">
+      <c r="A70" s="108"/>
+      <c r="B70" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="142">
+      <c r="C70" s="112">
         <f>0*1</f>
         <v>0</v>
       </c>
-      <c r="D70" s="143">
+      <c r="D70" s="113">
         <f>4.98+5.55-(3*(1.17/3.281))</f>
         <v>9.4602042060347458</v>
       </c>
-      <c r="E70" s="143">
+      <c r="E70" s="113">
         <v>0.23</v>
       </c>
-      <c r="F70" s="143">
+      <c r="F70" s="113">
         <f>1.8+0.4+0.15</f>
         <v>2.35</v>
       </c>
-      <c r="G70" s="144">
+      <c r="G70" s="114">
         <f t="shared" ref="G70:G74" si="6">PRODUCT(C70:F70)</f>
         <v>0</v>
       </c>
@@ -13457,26 +13509,26 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="15" customHeight="1">
-      <c r="A71" s="138"/>
-      <c r="B71" s="141" t="s">
+      <c r="A71" s="108"/>
+      <c r="B71" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="142">
+      <c r="C71" s="112">
         <f>0*-2</f>
         <v>0</v>
       </c>
-      <c r="D71" s="143">
+      <c r="D71" s="113">
         <f>D70</f>
         <v>9.4602042060347458</v>
       </c>
-      <c r="E71" s="143">
+      <c r="E71" s="113">
         <f>E69</f>
         <v>0.23</v>
       </c>
-      <c r="F71" s="143">
+      <c r="F71" s="113">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G71" s="144">
+      <c r="G71" s="114">
         <f>PRODUCT(C71:F71)</f>
         <v>0</v>
       </c>
@@ -13486,25 +13538,25 @@
       <c r="K71" s="21"/>
     </row>
     <row r="72" spans="1:16" ht="15" customHeight="1">
-      <c r="A72" s="138"/>
-      <c r="B72" s="141"/>
-      <c r="C72" s="142">
+      <c r="A72" s="108"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="112">
         <f>0*3</f>
         <v>0</v>
       </c>
-      <c r="D72" s="143">
+      <c r="D72" s="113">
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="E72" s="143">
+      <c r="E72" s="113">
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="F72" s="143">
+      <c r="F72" s="113">
         <f>1.8+0.4+0.15</f>
         <v>2.35</v>
       </c>
-      <c r="G72" s="144">
+      <c r="G72" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13514,25 +13566,25 @@
       <c r="K72" s="21"/>
     </row>
     <row r="73" spans="1:16" ht="15" customHeight="1">
-      <c r="A73" s="138"/>
-      <c r="B73" s="141" t="s">
+      <c r="A73" s="108"/>
+      <c r="B73" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="142">
+      <c r="C73" s="112">
         <f>0*1</f>
         <v>0</v>
       </c>
-      <c r="D73" s="143">
+      <c r="D73" s="113">
         <f>4.98+5.55</f>
         <v>10.530000000000001</v>
       </c>
-      <c r="E73" s="143">
+      <c r="E73" s="113">
         <v>0.46</v>
       </c>
-      <c r="F73" s="143">
+      <c r="F73" s="113">
         <v>0.2</v>
       </c>
-      <c r="G73" s="144">
+      <c r="G73" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13542,26 +13594,26 @@
       <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:16" ht="15" customHeight="1">
-      <c r="A74" s="138"/>
-      <c r="B74" s="141" t="s">
+      <c r="A74" s="108"/>
+      <c r="B74" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="142">
+      <c r="C74" s="112">
         <f>0*12</f>
         <v>0</v>
       </c>
-      <c r="D74" s="143">
+      <c r="D74" s="113">
         <f>2.75/3.281</f>
         <v>0.8381590978360256</v>
       </c>
-      <c r="E74" s="143">
+      <c r="E74" s="113">
         <v>0.23</v>
       </c>
-      <c r="F74" s="143">
+      <c r="F74" s="113">
         <f>4.083/3.281</f>
         <v>1.2444376714416336</v>
       </c>
-      <c r="G74" s="144">
+      <c r="G74" s="114">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -13571,7 +13623,7 @@
       <c r="K74" s="21"/>
     </row>
     <row r="75" spans="1:16" ht="15" customHeight="1">
-      <c r="A75" s="138"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="92" t="s">
         <v>40</v>
       </c>
@@ -13596,7 +13648,7 @@
       <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:16" ht="15" customHeight="1">
-      <c r="A76" s="138"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="92" t="s">
         <v>38</v>
       </c>
@@ -13627,10 +13679,10 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:16" ht="30">
-      <c r="A78" s="138">
+      <c r="A78" s="108">
         <v>9</v>
       </c>
-      <c r="B78" s="139" t="s">
+      <c r="B78" s="109" t="s">
         <v>48</v>
       </c>
       <c r="C78" s="86"/>
@@ -13648,11 +13700,11 @@
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" customHeight="1">
-      <c r="A79" s="138"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="140">
+      <c r="C79" s="110">
         <v>1</v>
       </c>
       <c r="D79" s="94">
@@ -13679,11 +13731,11 @@
       </c>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1">
-      <c r="A80" s="138"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="140">
+      <c r="C80" s="110">
         <v>1</v>
       </c>
       <c r="D80" s="94">
@@ -13707,9 +13759,9 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1">
-      <c r="A81" s="138"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="92"/>
-      <c r="C81" s="140">
+      <c r="C81" s="110">
         <v>1</v>
       </c>
       <c r="D81" s="93">
@@ -13732,9 +13784,9 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1">
-      <c r="A82" s="138"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="92"/>
-      <c r="C82" s="140">
+      <c r="C82" s="110">
         <v>1</v>
       </c>
       <c r="D82" s="94">
@@ -13758,9 +13810,9 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1">
-      <c r="A83" s="138"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="92"/>
-      <c r="C83" s="140">
+      <c r="C83" s="110">
         <v>1</v>
       </c>
       <c r="D83" s="94">
@@ -13782,9 +13834,9 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1">
-      <c r="A84" s="138"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="92"/>
-      <c r="C84" s="140">
+      <c r="C84" s="110">
         <v>1</v>
       </c>
       <c r="D84" s="94">
@@ -13806,9 +13858,9 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1">
-      <c r="A85" s="138"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="92"/>
-      <c r="C85" s="140">
+      <c r="C85" s="110">
         <v>1</v>
       </c>
       <c r="D85" s="94">
@@ -13830,9 +13882,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1">
-      <c r="A86" s="138"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="92"/>
-      <c r="C86" s="140">
+      <c r="C86" s="110">
         <v>1</v>
       </c>
       <c r="D86" s="94">
@@ -13854,9 +13906,9 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1">
-      <c r="A87" s="138"/>
+      <c r="A87" s="108"/>
       <c r="B87" s="92"/>
-      <c r="C87" s="140">
+      <c r="C87" s="110">
         <v>1</v>
       </c>
       <c r="D87" s="94">
@@ -13878,11 +13930,11 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1">
-      <c r="A88" s="138"/>
+      <c r="A88" s="108"/>
       <c r="B88" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="140">
+      <c r="C88" s="110">
         <v>1</v>
       </c>
       <c r="D88" s="94">
@@ -13904,9 +13956,9 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1">
-      <c r="A89" s="138"/>
+      <c r="A89" s="108"/>
       <c r="B89" s="92"/>
-      <c r="C89" s="140">
+      <c r="C89" s="110">
         <v>1</v>
       </c>
       <c r="D89" s="94">
@@ -13928,9 +13980,9 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1">
-      <c r="A90" s="138"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="92"/>
-      <c r="C90" s="140">
+      <c r="C90" s="110">
         <v>1</v>
       </c>
       <c r="D90" s="93">
@@ -13952,9 +14004,9 @@
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1">
-      <c r="A91" s="138"/>
+      <c r="A91" s="108"/>
       <c r="B91" s="92"/>
-      <c r="C91" s="140">
+      <c r="C91" s="110">
         <v>1</v>
       </c>
       <c r="D91" s="93">
@@ -13976,9 +14028,9 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1">
-      <c r="A92" s="138"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="92"/>
-      <c r="C92" s="140">
+      <c r="C92" s="110">
         <v>1</v>
       </c>
       <c r="D92" s="93">
@@ -14000,9 +14052,9 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1">
-      <c r="A93" s="138"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="92"/>
-      <c r="C93" s="140">
+      <c r="C93" s="110">
         <v>1</v>
       </c>
       <c r="D93" s="93">
@@ -14024,9 +14076,9 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1">
-      <c r="A94" s="138"/>
+      <c r="A94" s="108"/>
       <c r="B94" s="92"/>
-      <c r="C94" s="140">
+      <c r="C94" s="110">
         <v>1</v>
       </c>
       <c r="D94" s="93">
@@ -14048,7 +14100,7 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1">
-      <c r="A95" s="138"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="92" t="s">
         <v>147</v>
       </c>
@@ -14074,7 +14126,7 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1">
-      <c r="A96" s="138"/>
+      <c r="A96" s="108"/>
       <c r="B96" s="92" t="s">
         <v>40</v>
       </c>
@@ -14099,7 +14151,7 @@
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1">
-      <c r="A97" s="138"/>
+      <c r="A97" s="108"/>
       <c r="B97" s="92" t="s">
         <v>38</v>
       </c>
@@ -14117,7 +14169,7 @@
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1">
-      <c r="A98" s="138"/>
+      <c r="A98" s="108"/>
       <c r="B98" s="92"/>
       <c r="C98" s="86"/>
       <c r="D98" s="87"/>
@@ -16096,8 +16148,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="20">
-        <f>3.917/3.281</f>
-        <v>1.1938433404449862</v>
+        <v>1.2</v>
       </c>
       <c r="E169" s="21"/>
       <c r="F169" s="21">
@@ -16106,7 +16157,7 @@
       </c>
       <c r="G169" s="84">
         <f t="shared" ref="G169:G170" si="19">PRODUCT(C169:F169)</f>
-        <v>11.832912353328542</v>
+        <v>11.893934775982929</v>
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="23"/>
@@ -16119,7 +16170,7 @@
         <v>92</v>
       </c>
       <c r="C170" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" s="20">
         <v>0.88500000000000001</v>
@@ -16130,7 +16181,7 @@
       </c>
       <c r="G170" s="84">
         <f t="shared" si="19"/>
-        <v>1.8142499999999999</v>
+        <v>0</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="23"/>
@@ -16148,7 +16199,7 @@
       <c r="F171" s="21"/>
       <c r="G171" s="23">
         <f>SUM(G169:G170)</f>
-        <v>13.647162353328541</v>
+        <v>11.893934775982929</v>
       </c>
       <c r="H171" s="22" t="s">
         <v>62</v>
@@ -16158,9 +16209,13 @@
       </c>
       <c r="J171" s="82">
         <f>G171*I171</f>
-        <v>35146.083095021131</v>
+        <v>30630.92598597988</v>
       </c>
       <c r="K171" s="21"/>
+      <c r="M171">
+        <f>26*6*181.17</f>
+        <v>28262.519999999997</v>
+      </c>
     </row>
     <row r="172" spans="1:15" ht="15" customHeight="1">
       <c r="A172" s="18"/>
@@ -16176,7 +16231,7 @@
       <c r="I172" s="23"/>
       <c r="J172" s="82">
         <f>0.13*G171*24343.96/10</f>
-        <v>4318.9376677581658</v>
+        <v>3764.0911415787864</v>
       </c>
       <c r="K172" s="21"/>
     </row>
@@ -16216,7 +16271,7 @@
         <v>64</v>
       </c>
       <c r="C175" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" s="20">
         <f>(5.17+15.5+27+10.917+70+53.5+21.333+24.5+41.17+4.667+39.75)/3.281</f>
@@ -16226,7 +16281,7 @@
       <c r="F175" s="21"/>
       <c r="G175" s="38">
         <f t="shared" ref="G175" si="20">PRODUCT(C175:F175)</f>
-        <v>95.552270649192295</v>
+        <v>0</v>
       </c>
       <c r="H175" s="22"/>
       <c r="I175" s="23"/>
@@ -16244,7 +16299,7 @@
       <c r="F176" s="21"/>
       <c r="G176" s="23">
         <f>SUM(G175:G175)</f>
-        <v>95.552270649192295</v>
+        <v>0</v>
       </c>
       <c r="H176" s="22" t="s">
         <v>65</v>
@@ -16254,11 +16309,11 @@
       </c>
       <c r="J176" s="40">
         <f>G176*I176</f>
-        <v>7891.6620329167918</v>
+        <v>0</v>
       </c>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:11" ht="15" customHeight="1">
+    <row r="177" spans="1:13" ht="15" customHeight="1">
       <c r="A177" s="18"/>
       <c r="B177" s="36" t="s">
         <v>38</v>
@@ -16272,11 +16327,11 @@
       <c r="I177" s="23"/>
       <c r="J177" s="40">
         <f>0.13*G176*1992.14/100</f>
-        <v>247.45955058640655</v>
+        <v>0</v>
       </c>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:11" ht="15" customHeight="1">
+    <row r="178" spans="1:13" ht="15" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="36"/>
       <c r="C178" s="19"/>
@@ -16289,7 +16344,7 @@
       <c r="J178" s="40"/>
       <c r="K178" s="21"/>
     </row>
-    <row r="179" spans="1:11" ht="135.6">
+    <row r="179" spans="1:13" ht="135.6">
       <c r="A179" s="18">
         <v>13</v>
       </c>
@@ -16306,13 +16361,13 @@
       <c r="J179" s="40"/>
       <c r="K179" s="21"/>
     </row>
-    <row r="180" spans="1:11" ht="15" customHeight="1">
+    <row r="180" spans="1:13" ht="15" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="36" t="s">
         <v>64</v>
       </c>
       <c r="C180" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" s="20">
         <f>(13.5+12.333)/3.281</f>
@@ -16322,14 +16377,14 @@
       <c r="F180" s="21"/>
       <c r="G180" s="38">
         <f t="shared" ref="G180" si="21">PRODUCT(C180:F180)</f>
-        <v>7.873514172508381</v>
+        <v>0</v>
       </c>
       <c r="H180" s="22"/>
       <c r="I180" s="23"/>
       <c r="J180" s="40"/>
       <c r="K180" s="21"/>
     </row>
-    <row r="181" spans="1:11" ht="15" customHeight="1">
+    <row r="181" spans="1:13" ht="15" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="36" t="s">
         <v>40</v>
@@ -16340,7 +16395,7 @@
       <c r="F181" s="21"/>
       <c r="G181" s="23">
         <f>SUM(G180:G180)</f>
-        <v>7.873514172508381</v>
+        <v>0</v>
       </c>
       <c r="H181" s="22" t="s">
         <v>65</v>
@@ -16350,11 +16405,11 @@
       </c>
       <c r="J181" s="40">
         <f>G181*I181</f>
-        <v>32539.65937214264</v>
+        <v>0</v>
       </c>
       <c r="K181" s="21"/>
     </row>
-    <row r="182" spans="1:11" ht="15" customHeight="1">
+    <row r="182" spans="1:13" ht="15" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="36" t="s">
         <v>38</v>
@@ -16368,11 +16423,11 @@
       <c r="I182" s="23"/>
       <c r="J182" s="40">
         <f>0.13*G181*4132.8</f>
-        <v>4230.1557183785426</v>
+        <v>0</v>
       </c>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" ht="15" customHeight="1">
+    <row r="183" spans="1:13" ht="15" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="36"/>
       <c r="C183" s="19"/>
@@ -16385,7 +16440,7 @@
       <c r="J183" s="40"/>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:11" ht="30.6">
+    <row r="184" spans="1:13" ht="30.6">
       <c r="A184" s="18">
         <v>14</v>
       </c>
@@ -16393,10 +16448,10 @@
         <v>87</v>
       </c>
       <c r="C184" s="19"/>
-      <c r="D184" s="148" t="s">
+      <c r="D184" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="E184" s="149"/>
+      <c r="E184" s="143"/>
       <c r="F184" s="21"/>
       <c r="G184" s="23"/>
       <c r="H184" s="22"/>
@@ -16404,7 +16459,7 @@
       <c r="J184" s="40"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:11" ht="15" customHeight="1">
+    <row r="185" spans="1:13" ht="15" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="36" t="str">
         <f>B100</f>
@@ -16413,11 +16468,11 @@
       <c r="C185" s="19">
         <v>1</v>
       </c>
-      <c r="D185" s="148">
+      <c r="D185" s="142">
         <f>G165</f>
         <v>219.30700583663517</v>
       </c>
-      <c r="E185" s="149"/>
+      <c r="E185" s="143"/>
       <c r="F185" s="21"/>
       <c r="G185" s="38">
         <f t="shared" ref="G185" si="22">PRODUCT(C185:F185)</f>
@@ -16428,7 +16483,7 @@
       <c r="J185" s="40"/>
       <c r="K185" s="21"/>
     </row>
-    <row r="186" spans="1:11" ht="15" customHeight="1">
+    <row r="186" spans="1:13" ht="15" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="36" t="s">
         <v>40</v>
@@ -16453,7 +16508,7 @@
       </c>
       <c r="K186" s="21"/>
     </row>
-    <row r="187" spans="1:11" ht="15" customHeight="1">
+    <row r="187" spans="1:13" ht="15" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="36" t="s">
         <v>38</v>
@@ -16471,7 +16526,7 @@
       </c>
       <c r="K187" s="21"/>
     </row>
-    <row r="188" spans="1:11" ht="15" customHeight="1">
+    <row r="188" spans="1:13" ht="15" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="36"/>
       <c r="C188" s="19"/>
@@ -16484,7 +16539,7 @@
       <c r="J188" s="40"/>
       <c r="K188" s="21"/>
     </row>
-    <row r="189" spans="1:11" ht="30.6">
+    <row r="189" spans="1:13" ht="30.6" customHeight="1">
       <c r="A189" s="18">
         <v>15</v>
       </c>
@@ -16509,15 +16564,18 @@
       <c r="H189" s="22"/>
       <c r="I189" s="23"/>
       <c r="J189" s="40"/>
-      <c r="K189" s="21"/>
-    </row>
-    <row r="190" spans="1:11" ht="28.2">
+      <c r="K189" s="150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="28.2" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="36" t="s">
         <v>89</v>
       </c>
       <c r="C190" s="19">
-        <v>4</v>
+        <f>0*4</f>
+        <v>0</v>
       </c>
       <c r="D190" s="20">
         <f>(3.333*3+8.333*2)/3.281</f>
@@ -16528,107 +16586,112 @@
       </c>
       <c r="F190" s="21">
         <f>PRODUCT(C190:E190)</f>
-        <v>33.808716854617494</v>
+        <v>0</v>
       </c>
       <c r="G190" s="69">
         <f>F190</f>
-        <v>33.808716854617494</v>
+        <v>0</v>
       </c>
       <c r="H190" s="22"/>
       <c r="I190" s="23"/>
       <c r="J190" s="40"/>
-      <c r="K190" s="21"/>
-    </row>
-    <row r="191" spans="1:11" ht="28.2">
+      <c r="K190" s="152"/>
+      <c r="M190">
+        <f>61.5*2+26*6</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="28.2" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="36" t="s">
         <v>91</v>
       </c>
       <c r="C191" s="19">
-        <v>4</v>
-      </c>
-      <c r="D191" s="20">
-        <f>8/3.281</f>
-        <v>2.4382810118866196</v>
-      </c>
-      <c r="E191" s="21">
-        <v>14.13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D191" s="20"/>
+      <c r="E191" s="21"/>
       <c r="F191" s="21">
-        <f>PRODUCT(C191:E191)</f>
-        <v>137.81164279183176</v>
+        <v>61</v>
       </c>
       <c r="G191" s="69">
         <f>F191</f>
-        <v>137.81164279183176</v>
+        <v>61</v>
       </c>
       <c r="H191" s="22"/>
       <c r="I191" s="23"/>
       <c r="J191" s="40"/>
-      <c r="K191" s="21"/>
-    </row>
-    <row r="192" spans="1:11" ht="15" customHeight="1">
+      <c r="K191" s="152"/>
+    </row>
+    <row r="192" spans="1:13" ht="28.2">
       <c r="A192" s="18"/>
       <c r="B192" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C192" s="19"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="23">
-        <f>SUM(G190:G191)</f>
-        <v>171.62035964644926</v>
-      </c>
-      <c r="H192" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I192" s="23">
-        <v>181.17</v>
-      </c>
-      <c r="J192" s="40">
-        <f>G192*I192</f>
-        <v>31092.460557147209</v>
-      </c>
-      <c r="K192" s="21"/>
-    </row>
-    <row r="193" spans="1:17" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+      <c r="C192" s="19">
+        <v>6</v>
+      </c>
+      <c r="D192" s="20">
+        <v>2.54</v>
+      </c>
+      <c r="E192" s="21">
+        <v>1.83</v>
+      </c>
+      <c r="F192" s="21">
+        <f>PRODUCT(C192:E192)</f>
+        <v>27.889200000000002</v>
+      </c>
+      <c r="G192" s="69">
+        <f>F192</f>
+        <v>27.889200000000002</v>
+      </c>
+      <c r="H192" s="22"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="151"/>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="18"/>
-      <c r="B193" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="B193" s="36"/>
       <c r="C193" s="19"/>
       <c r="D193" s="20"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
-      <c r="G193" s="23"/>
+      <c r="G193" s="69"/>
       <c r="H193" s="22"/>
       <c r="I193" s="23"/>
-      <c r="J193" s="40">
-        <f>0.13*G192*1871.42/18.94</f>
-        <v>2204.4662380381496</v>
-      </c>
+      <c r="J193" s="40"/>
       <c r="K193" s="21"/>
     </row>
-    <row r="194" spans="1:17" ht="15" customHeight="1">
+    <row r="194" spans="1:11" ht="15" customHeight="1">
       <c r="A194" s="18"/>
-      <c r="B194" s="36"/>
+      <c r="B194" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="C194" s="19"/>
       <c r="D194" s="20"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="22"/>
-      <c r="I194" s="23"/>
-      <c r="J194" s="40"/>
+      <c r="G194" s="23">
+        <f>SUM(G190:G192)</f>
+        <v>88.889200000000002</v>
+      </c>
+      <c r="H194" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I194" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J194" s="40">
+        <f>G194*I194</f>
+        <v>16104.056364</v>
+      </c>
       <c r="K194" s="21"/>
     </row>
-    <row r="195" spans="1:17" ht="30.6">
-      <c r="A195" s="18">
-        <v>16</v>
-      </c>
-      <c r="B195" s="60" t="s">
-        <v>93</v>
+    <row r="195" spans="1:11" ht="15" customHeight="1">
+      <c r="A195" s="18"/>
+      <c r="B195" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="20"/>
@@ -16637,119 +16700,110 @@
       <c r="G195" s="23"/>
       <c r="H195" s="22"/>
       <c r="I195" s="23"/>
-      <c r="J195" s="40"/>
+      <c r="J195" s="40">
+        <f>0.13*G194*1871.42/18.94</f>
+        <v>1141.7831819598734</v>
+      </c>
       <c r="K195" s="21"/>
     </row>
-    <row r="196" spans="1:17" ht="15" customHeight="1">
+    <row r="196" spans="1:11" ht="15" customHeight="1">
       <c r="A196" s="18"/>
-      <c r="B196" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C196" s="19">
-        <v>1</v>
-      </c>
-      <c r="D196" s="20">
-        <v>3.23</v>
-      </c>
+      <c r="B196" s="36"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="20"/>
       <c r="E196" s="21"/>
-      <c r="F196" s="21">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="G196" s="38">
-        <f t="shared" ref="G196" si="23">PRODUCT(C196:F196)</f>
-        <v>8.1880500000000005</v>
-      </c>
+      <c r="F196" s="21"/>
+      <c r="G196" s="23"/>
       <c r="H196" s="22"/>
       <c r="I196" s="23"/>
       <c r="J196" s="40"/>
       <c r="K196" s="21"/>
     </row>
-    <row r="197" spans="1:17" ht="15" customHeight="1">
-      <c r="A197" s="18"/>
-      <c r="B197" s="36" t="s">
-        <v>40</v>
+    <row r="197" spans="1:11" ht="30.6">
+      <c r="A197" s="18">
+        <v>16</v>
+      </c>
+      <c r="B197" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="C197" s="19"/>
       <c r="D197" s="20"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
-      <c r="G197" s="23">
-        <f>SUM(G196:G196)</f>
-        <v>8.1880500000000005</v>
-      </c>
-      <c r="H197" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I197" s="23">
-        <v>6391.43</v>
-      </c>
-      <c r="J197" s="40">
-        <f>G197*I197</f>
-        <v>52333.348411500003</v>
-      </c>
+      <c r="G197" s="23"/>
+      <c r="H197" s="22"/>
+      <c r="I197" s="23"/>
+      <c r="J197" s="40"/>
       <c r="K197" s="21"/>
     </row>
-    <row r="198" spans="1:17" ht="15" customHeight="1">
+    <row r="198" spans="1:11" ht="15" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198" s="19"/>
-      <c r="D198" s="20"/>
+        <v>94</v>
+      </c>
+      <c r="C198" s="19">
+        <v>0</v>
+      </c>
+      <c r="D198" s="20">
+        <v>3.23</v>
+      </c>
       <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="23"/>
+      <c r="F198" s="21">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="G198" s="38">
+        <f t="shared" ref="G198" si="23">PRODUCT(C198:F198)</f>
+        <v>0</v>
+      </c>
       <c r="H198" s="22"/>
       <c r="I198" s="23"/>
-      <c r="J198" s="40">
-        <f>0.13*J197</f>
-        <v>6803.3352934950008</v>
-      </c>
+      <c r="J198" s="40"/>
       <c r="K198" s="21"/>
     </row>
-    <row r="199" spans="1:17" ht="15" customHeight="1">
+    <row r="199" spans="1:11" ht="15" customHeight="1">
       <c r="A199" s="18"/>
-      <c r="B199" s="36"/>
+      <c r="B199" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="C199" s="19"/>
       <c r="D199" s="20"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
-      <c r="G199" s="23"/>
-      <c r="H199" s="22"/>
-      <c r="I199" s="23"/>
-      <c r="J199" s="40"/>
+      <c r="G199" s="23">
+        <f>SUM(G198:G198)</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I199" s="23">
+        <v>6391.43</v>
+      </c>
+      <c r="J199" s="40">
+        <f>G199*I199</f>
+        <v>0</v>
+      </c>
       <c r="K199" s="21"/>
     </row>
-    <row r="200" spans="1:17" ht="15" customHeight="1">
-      <c r="A200" s="18">
-        <v>17</v>
-      </c>
-      <c r="B200" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C200" s="19">
-        <v>1</v>
-      </c>
+    <row r="200" spans="1:11" ht="15" customHeight="1">
+      <c r="A200" s="18"/>
+      <c r="B200" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C200" s="19"/>
       <c r="D200" s="20"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
-      <c r="G200" s="33">
-        <f t="shared" ref="G200" si="24">PRODUCT(C200:F200)</f>
-        <v>1</v>
-      </c>
-      <c r="H200" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I200" s="23">
-        <v>5000</v>
-      </c>
-      <c r="J200" s="33">
-        <f>G200*I200</f>
-        <v>5000</v>
+      <c r="G200" s="23"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="40">
+        <f>0.13*J199</f>
+        <v>0</v>
       </c>
       <c r="K200" s="21"/>
     </row>
-    <row r="201" spans="1:17" ht="15" customHeight="1">
+    <row r="201" spans="1:11" ht="15" customHeight="1">
       <c r="A201" s="18"/>
       <c r="B201" s="36"/>
       <c r="C201" s="19"/>
@@ -16762,38 +16816,38 @@
       <c r="J201" s="40"/>
       <c r="K201" s="21"/>
     </row>
-    <row r="202" spans="1:17" ht="15" customHeight="1">
+    <row r="202" spans="1:11" ht="15" customHeight="1">
       <c r="A202" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C202" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" s="20"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
       <c r="G202" s="33">
-        <f t="shared" ref="G202" si="25">PRODUCT(C202:F202)</f>
-        <v>1</v>
+        <f t="shared" ref="G202" si="24">PRODUCT(C202:F202)</f>
+        <v>0</v>
       </c>
       <c r="H202" s="22" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I202" s="23">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="J202" s="33">
         <f>G202*I202</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K202" s="21"/>
     </row>
-    <row r="203" spans="1:17" ht="15" customHeight="1">
+    <row r="203" spans="1:11" ht="15" customHeight="1">
       <c r="A203" s="18"/>
-      <c r="B203" s="24"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="19"/>
       <c r="D203" s="20"/>
       <c r="E203" s="21"/>
@@ -16804,201 +16858,241 @@
       <c r="J203" s="40"/>
       <c r="K203" s="21"/>
     </row>
-    <row r="204" spans="1:17">
-      <c r="A204" s="39"/>
-      <c r="B204" s="41" t="s">
+    <row r="204" spans="1:11" ht="15" customHeight="1">
+      <c r="A204" s="18">
+        <v>18</v>
+      </c>
+      <c r="B204" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" s="19">
+        <v>1</v>
+      </c>
+      <c r="D204" s="20"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="33">
+        <f t="shared" ref="G204" si="25">PRODUCT(C204:F204)</f>
+        <v>1</v>
+      </c>
+      <c r="H204" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I204" s="23">
+        <v>500</v>
+      </c>
+      <c r="J204" s="33">
+        <f>G204*I204</f>
+        <v>500</v>
+      </c>
+      <c r="K204" s="21"/>
+    </row>
+    <row r="205" spans="1:11" ht="15" customHeight="1">
+      <c r="A205" s="18"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="23"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="23"/>
+      <c r="J205" s="40"/>
+      <c r="K205" s="21"/>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="39"/>
+      <c r="B206" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C204" s="42"/>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
-      <c r="G204" s="40"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="40"/>
-      <c r="J204" s="40">
-        <f>SUM(J10:J202)</f>
-        <v>687880.55405257177</v>
-      </c>
-      <c r="K204" s="35"/>
-    </row>
-    <row r="205" spans="1:17">
-      <c r="A205" s="53"/>
-      <c r="B205" s="56"/>
-      <c r="C205" s="57"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
-      <c r="I205" s="55"/>
-      <c r="J205" s="55"/>
-      <c r="K205" s="52"/>
-    </row>
-    <row r="206" spans="1:17" s="1" customFormat="1">
-      <c r="A206" s="45"/>
-      <c r="B206" s="29" t="s">
+      <c r="C206" s="42"/>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="40"/>
+      <c r="I206" s="40"/>
+      <c r="J206" s="40">
+        <f>SUM(J10:J204)</f>
+        <v>557713.84278910642</v>
+      </c>
+      <c r="K206" s="35"/>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="53"/>
+      <c r="B207" s="56"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="55"/>
+      <c r="H207" s="55"/>
+      <c r="I207" s="55"/>
+      <c r="J207" s="55"/>
+      <c r="K207" s="52"/>
+    </row>
+    <row r="208" spans="1:11" s="1" customFormat="1">
+      <c r="A208" s="45"/>
+      <c r="B208" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C206" s="105">
-        <f>J204</f>
-        <v>687880.55405257177</v>
-      </c>
-      <c r="D206" s="105"/>
-      <c r="E206" s="38">
+      <c r="C208" s="120">
+        <f>J206</f>
+        <v>557713.84278910642</v>
+      </c>
+      <c r="D208" s="120"/>
+      <c r="E208" s="38">
         <v>100</v>
       </c>
-      <c r="F206" s="46"/>
-      <c r="G206" s="47"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="48"/>
-      <c r="J206" s="49"/>
-      <c r="K206" s="50"/>
-    </row>
-    <row r="207" spans="1:17">
-      <c r="A207" s="51"/>
-      <c r="B207" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" s="108">
-        <v>500000</v>
-      </c>
-      <c r="D207" s="108"/>
-      <c r="E207" s="38"/>
-      <c r="F207" s="44"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="53"/>
-      <c r="I207" s="53"/>
-      <c r="J207" s="53"/>
-      <c r="K207" s="52"/>
-      <c r="L207" s="34"/>
-      <c r="M207" s="34"/>
-      <c r="N207" s="34"/>
-      <c r="O207" s="34"/>
-      <c r="P207" s="34"/>
-      <c r="Q207" s="34"/>
-    </row>
-    <row r="208" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A208" s="51"/>
-      <c r="B208" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C208" s="108">
-        <f>C207-C210-C211</f>
-        <v>475000</v>
-      </c>
-      <c r="D208" s="108"/>
-      <c r="E208" s="38">
-        <f>C208/C206*100</f>
-        <v>69.052686138834758</v>
-      </c>
-      <c r="F208" s="44"/>
-      <c r="G208" s="43"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="25"/>
-      <c r="J208" s="25"/>
-      <c r="K208" s="25"/>
-      <c r="L208" s="25"/>
-      <c r="M208" s="25"/>
-      <c r="N208" s="25"/>
-      <c r="O208" s="25"/>
-      <c r="P208" s="25"/>
-      <c r="Q208" s="34"/>
-    </row>
-    <row r="209" spans="1:17" ht="14.4" customHeight="1">
+      <c r="F208" s="46"/>
+      <c r="G208" s="47"/>
+      <c r="H208" s="46"/>
+      <c r="I208" s="48"/>
+      <c r="J208" s="49"/>
+      <c r="K208" s="50"/>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209" s="51"/>
       <c r="B209" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C209" s="105">
-        <f>C206-C208</f>
-        <v>212880.55405257177</v>
-      </c>
-      <c r="D209" s="105"/>
-      <c r="E209" s="38">
-        <f>100-E208</f>
-        <v>30.947313861165242</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C209" s="123">
+        <v>500000</v>
+      </c>
+      <c r="D209" s="123"/>
+      <c r="E209" s="38"/>
       <c r="F209" s="44"/>
       <c r="G209" s="43"/>
       <c r="H209" s="53"/>
-      <c r="I209" s="25"/>
-      <c r="J209" s="25"/>
-      <c r="K209" s="25"/>
-      <c r="L209" s="25"/>
-      <c r="M209" s="25"/>
-      <c r="N209" s="25"/>
-      <c r="O209" s="25"/>
-      <c r="P209" s="25"/>
+      <c r="I209" s="53"/>
+      <c r="J209" s="53"/>
+      <c r="K209" s="52"/>
+      <c r="L209" s="34"/>
+      <c r="M209" s="34"/>
+      <c r="N209" s="34"/>
+      <c r="O209" s="34"/>
+      <c r="P209" s="34"/>
       <c r="Q209" s="34"/>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" ht="14.4" customHeight="1">
       <c r="A210" s="51"/>
       <c r="B210" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C210" s="105">
-        <f>C207*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D210" s="105"/>
+        <v>33</v>
+      </c>
+      <c r="C210" s="123">
+        <f>C209-C212-C213</f>
+        <v>475000</v>
+      </c>
+      <c r="D210" s="123"/>
       <c r="E210" s="38">
-        <v>3</v>
+        <f>C210/C208*100</f>
+        <v>85.169125016611119</v>
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="43"/>
       <c r="H210" s="53"/>
-      <c r="I210" s="53"/>
-      <c r="J210" s="53"/>
-      <c r="K210" s="52"/>
-      <c r="L210" s="34"/>
-      <c r="M210" s="34"/>
-      <c r="N210" s="34"/>
-      <c r="O210" s="34"/>
-      <c r="P210" s="34"/>
+      <c r="I210" s="25"/>
+      <c r="J210" s="25"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="25"/>
+      <c r="N210" s="25"/>
+      <c r="O210" s="25"/>
+      <c r="P210" s="25"/>
       <c r="Q210" s="34"/>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" ht="14.4" customHeight="1">
       <c r="A211" s="51"/>
       <c r="B211" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C211" s="105">
-        <f>C207*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D211" s="105"/>
+        <v>34</v>
+      </c>
+      <c r="C211" s="120">
+        <f>C208-C210</f>
+        <v>82713.84278910642</v>
+      </c>
+      <c r="D211" s="120"/>
       <c r="E211" s="38">
-        <v>2</v>
+        <f>100-E210</f>
+        <v>14.830874983388881</v>
       </c>
       <c r="F211" s="44"/>
       <c r="G211" s="43"/>
       <c r="H211" s="53"/>
-      <c r="I211" s="53"/>
-      <c r="J211" s="53"/>
-      <c r="K211" s="52"/>
-      <c r="L211" s="34"/>
-      <c r="M211" s="34"/>
-      <c r="N211" s="34"/>
-      <c r="O211" s="34"/>
-      <c r="P211" s="34"/>
+      <c r="I211" s="25"/>
+      <c r="J211" s="25"/>
+      <c r="K211" s="25"/>
+      <c r="L211" s="25"/>
+      <c r="M211" s="25"/>
+      <c r="N211" s="25"/>
+      <c r="O211" s="25"/>
+      <c r="P211" s="25"/>
       <c r="Q211" s="34"/>
     </row>
-    <row r="212" spans="1:17" s="34" customFormat="1">
-      <c r="A212" s="52"/>
-      <c r="B212" s="52"/>
-      <c r="C212" s="52"/>
-      <c r="D212" s="52"/>
-      <c r="E212" s="52"/>
-      <c r="F212" s="52"/>
-      <c r="G212" s="52"/>
-      <c r="H212" s="52"/>
-      <c r="I212" s="52"/>
-      <c r="J212" s="52"/>
+    <row r="212" spans="1:17">
+      <c r="A212" s="51"/>
+      <c r="B212" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" s="120">
+        <f>C209*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D212" s="120"/>
+      <c r="E212" s="38">
+        <v>3</v>
+      </c>
+      <c r="F212" s="44"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
+      <c r="J212" s="53"/>
       <c r="K212" s="52"/>
-    </row>
-    <row r="213" spans="1:17" s="34" customFormat="1"/>
-    <row r="214" spans="1:17" s="34" customFormat="1"/>
+      <c r="L212" s="34"/>
+      <c r="M212" s="34"/>
+      <c r="N212" s="34"/>
+      <c r="O212" s="34"/>
+      <c r="P212" s="34"/>
+      <c r="Q212" s="34"/>
+    </row>
+    <row r="213" spans="1:17">
+      <c r="A213" s="51"/>
+      <c r="B213" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" s="120">
+        <f>C209*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D213" s="120"/>
+      <c r="E213" s="38">
+        <v>2</v>
+      </c>
+      <c r="F213" s="44"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="53"/>
+      <c r="I213" s="53"/>
+      <c r="J213" s="53"/>
+      <c r="K213" s="52"/>
+      <c r="L213" s="34"/>
+      <c r="M213" s="34"/>
+      <c r="N213" s="34"/>
+      <c r="O213" s="34"/>
+      <c r="P213" s="34"/>
+      <c r="Q213" s="34"/>
+    </row>
+    <row r="214" spans="1:17" s="34" customFormat="1">
+      <c r="A214" s="52"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="52"/>
+      <c r="D214" s="52"/>
+      <c r="E214" s="52"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="52"/>
+      <c r="H214" s="52"/>
+      <c r="I214" s="52"/>
+      <c r="J214" s="52"/>
+      <c r="K214" s="52"/>
+    </row>
     <row r="215" spans="1:17" s="34" customFormat="1"/>
     <row r="216" spans="1:17" s="34" customFormat="1"/>
     <row r="217" spans="1:17" s="34" customFormat="1"/>
@@ -17053,19 +17147,14 @@
     <row r="266" s="34" customFormat="1"/>
     <row r="267" s="34" customFormat="1"/>
     <row r="268" s="34" customFormat="1"/>
+    <row r="269" s="34" customFormat="1"/>
+    <row r="270" s="34" customFormat="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="N11:T11"/>
+    <mergeCell ref="C208:D208"/>
     <mergeCell ref="C209:D209"/>
     <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -17073,6 +17162,14 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="K189:K191"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -17107,230 +17204,230 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="19.8">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
     </row>
     <row r="4" spans="1:7" ht="19.8">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
     </row>
     <row r="5" spans="1:7" ht="19.8">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-    </row>
-    <row r="7" spans="1:7" ht="64.8">
-      <c r="A7" s="123" t="s">
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+    </row>
+    <row r="7" spans="1:7" ht="48.6">
+      <c r="A7" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="123" t="s">
+      <c r="G7" s="97" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.8">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="100">
         <v>1.5</v>
       </c>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="98" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="5">
         <v>1225</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="101">
         <f t="shared" ref="F8:F10" si="0">FLOOR(C8*E8,0.01)</f>
         <v>1837.5</v>
       </c>
-      <c r="G8" s="129"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7" ht="16.8">
-      <c r="A9" s="130"/>
-      <c r="B9" s="124" t="s">
+      <c r="A9" s="145"/>
+      <c r="B9" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="100">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="98" t="s">
         <v>128</v>
       </c>
       <c r="E9" s="5">
         <v>920</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="101">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="G9" s="131"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="1:7" ht="16.8">
-      <c r="A10" s="130"/>
-      <c r="B10" s="124" t="s">
+      <c r="A10" s="145"/>
+      <c r="B10" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="127">
+      <c r="C10" s="100">
         <v>0.2</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="98" t="s">
         <v>128</v>
       </c>
       <c r="E10" s="5">
         <v>920</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="101">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="G10" s="129">
+      <c r="G10" s="102">
         <f>SUM(F8+F9+F10)</f>
         <v>4045.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.8">
       <c r="A11" s="5"/>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="132">
+      <c r="C11" s="104">
         <v>560</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="98" t="s">
         <v>132</v>
       </c>
       <c r="E11" s="5">
         <v>15.145</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="101">
         <v>8481.2000000000007</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="16.8">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="127">
+      <c r="C12" s="100">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="98" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="5">
         <v>12131</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="101">
         <v>849.17000000000007</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="16.8">
       <c r="A13" s="5"/>
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="127">
+      <c r="C13" s="100">
         <v>0.3</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="98" t="s">
         <v>137</v>
       </c>
       <c r="E13" s="5">
         <v>3177.9</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="101">
         <v>953.37</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.8">
       <c r="A14" s="5"/>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="127">
+      <c r="C14" s="100">
         <v>100</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="98" t="s">
         <v>139</v>
       </c>
       <c r="E14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="101">
         <v>28</v>
       </c>
-      <c r="G14" s="129">
+      <c r="G14" s="102">
         <f>SUM(F11:F14)</f>
         <v>10311.740000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.8">
       <c r="A15" s="5"/>
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="134"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="129">
+      <c r="G15" s="102">
         <f>INT(F10*0.03*100)/100</f>
         <v>5.52</v>
       </c>
@@ -17340,175 +17437,175 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="125">
+      <c r="F16" s="106"/>
+      <c r="G16" s="99">
         <f>SUM(G8:G15)</f>
         <v>14362.760000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18">
-      <c r="A17" s="131"/>
-      <c r="B17" s="131" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="103" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="135" t="s">
+      <c r="E17" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="125">
+      <c r="F17" s="106"/>
+      <c r="G17" s="99">
         <f>FLOOR(G16*0.15,0.01)</f>
         <v>2154.41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="99">
         <f>+G18</f>
         <v>16517.170000000002</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="125">
+      <c r="F18" s="106"/>
+      <c r="G18" s="99">
         <f>SUM(G16:G17)</f>
         <v>16517.170000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="64.8">
-      <c r="A21" s="123" t="s">
+    <row r="21" spans="1:7" ht="48.6">
+      <c r="A21" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="123" t="s">
+      <c r="F21" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="123" t="s">
+      <c r="G21" s="97" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.8">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="127">
+      <c r="C22" s="100">
         <v>1.5</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="98" t="s">
         <v>128</v>
       </c>
       <c r="E22" s="5">
         <v>1225</v>
       </c>
-      <c r="F22" s="128">
+      <c r="F22" s="101">
         <f>FLOOR(C22*E22,0.01)</f>
         <v>1837.5</v>
       </c>
-      <c r="G22" s="129"/>
+      <c r="G22" s="102"/>
     </row>
     <row r="23" spans="1:7" ht="16.8">
-      <c r="A23" s="130"/>
-      <c r="B23" s="124" t="s">
+      <c r="A23" s="145"/>
+      <c r="B23" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="127">
+      <c r="C23" s="100">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="98" t="s">
         <v>128</v>
       </c>
       <c r="E23" s="5">
         <v>920</v>
       </c>
-      <c r="F23" s="128">
-        <f t="shared" ref="F22:F24" si="1">FLOOR(C23*E23,0.01)</f>
+      <c r="F23" s="101">
+        <f t="shared" ref="F23:F24" si="1">FLOOR(C23*E23,0.01)</f>
         <v>2024</v>
       </c>
-      <c r="G23" s="131"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" spans="1:7" ht="16.8">
-      <c r="A24" s="130"/>
-      <c r="B24" s="124" t="s">
+      <c r="A24" s="145"/>
+      <c r="B24" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="127">
+      <c r="C24" s="100">
         <v>0.2</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="98" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="5">
         <v>920</v>
       </c>
-      <c r="F24" s="128">
+      <c r="F24" s="101">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="G24" s="129">
+      <c r="G24" s="102">
         <f>SUM(F22+F23+F24)</f>
         <v>4045.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.8">
       <c r="A25" s="5"/>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="132">
+      <c r="C25" s="104">
         <v>0</v>
       </c>
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="98" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="5">
         <v>15.145</v>
       </c>
-      <c r="F25" s="128">
+      <c r="F25" s="101">
         <f>C25*E25</f>
         <v>0</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="16.8">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="127">
+      <c r="C26" s="100">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="98" t="s">
         <v>135</v>
       </c>
       <c r="E26" s="5">
         <v>12131</v>
       </c>
-      <c r="F26" s="128">
+      <c r="F26" s="101">
         <f t="shared" ref="F26:F28" si="2">C26*E26</f>
         <v>849.17000000000007</v>
       </c>
@@ -17516,19 +17613,19 @@
     </row>
     <row r="27" spans="1:7" ht="16.8">
       <c r="A27" s="5"/>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="127">
+      <c r="C27" s="100">
         <v>0.3</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="98" t="s">
         <v>137</v>
       </c>
       <c r="E27" s="5">
         <v>3177.9</v>
       </c>
-      <c r="F27" s="128">
+      <c r="F27" s="101">
         <f t="shared" si="2"/>
         <v>953.37</v>
       </c>
@@ -17536,39 +17633,39 @@
     </row>
     <row r="28" spans="1:7" ht="16.8">
       <c r="A28" s="5"/>
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="127">
+      <c r="C28" s="100">
         <v>100</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D28" s="98" t="s">
         <v>139</v>
       </c>
       <c r="E28" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F28" s="128">
+      <c r="F28" s="101">
         <f t="shared" si="2"/>
         <v>28.000000000000004</v>
       </c>
-      <c r="G28" s="129">
+      <c r="G28" s="102">
         <f>SUM(F25:F28)</f>
         <v>1830.54</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.8">
       <c r="A29" s="5"/>
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="134"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="129">
+      <c r="G29" s="102">
         <f>INT(F24*0.03*100)/100</f>
         <v>5.52</v>
       </c>
@@ -17578,46 +17675,46 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="135" t="s">
+      <c r="E30" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="136"/>
-      <c r="G30" s="125">
+      <c r="F30" s="106"/>
+      <c r="G30" s="99">
         <f>SUM(G22:G29)</f>
         <v>5881.56</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131" t="s">
+      <c r="A31" s="103"/>
+      <c r="B31" s="103" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="135" t="s">
+      <c r="E31" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="136"/>
-      <c r="G31" s="125">
+      <c r="F31" s="106"/>
+      <c r="G31" s="99">
         <f>FLOOR(G30*0.15,0.01)</f>
         <v>882.23</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="125">
+      <c r="B32" s="99">
         <f>+G32</f>
         <v>6763.7900000000009</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="136"/>
-      <c r="G32" s="125">
+      <c r="F32" s="106"/>
+      <c r="G32" s="99">
         <f>SUM(G30:G31)</f>
         <v>6763.7900000000009</v>
       </c>

--- a/ofc/estimates/राष्ट्रिय मा. बि. वाल निर्माण/V राष्ट्रिय मा. बि. वाल निर्माण.xlsx
+++ b/ofc/estimates/राष्ट्रिय मा. बि. वाल निर्माण/V राष्ट्रिय मा. बि. वाल निर्माण.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\राष्ट्रिय मा. बि. वाल निर्माण\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\estimates\राष्ट्रिय मा. बि. वाल निर्माण\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="re-estimate" sheetId="18" state="hidden" r:id="rId1"/>
@@ -18,18 +18,20 @@
     <sheet name="WCR" sheetId="6" r:id="rId4"/>
     <sheet name="V" sheetId="22" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="23" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="21" state="hidden" r:id="rId7"/>
+    <sheet name="Estimate" sheetId="24" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="21" state="hidden" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
+    <definedName name="description_124" localSheetId="6">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="4">#REF!</definedName>
@@ -47,16 +49,18 @@
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'callapsible gate added'!$A$1:$K$119</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Estimate!$A$1:$K$202</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'grill item changed'!$A$1:$K$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'re-estimate'!$A$1:$K$113</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">V!$A$1:$K$213</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">V!$A$1:$K$212</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'callapsible gate added'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">Estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'grill item changed'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'re-estimate'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -477,8 +481,42 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+white wall</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="158">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -1069,20 +1107,20 @@
     <t>Area (m2)</t>
   </si>
   <si>
-    <t>-MS Rectangular Hollow section of 40mm*25mm*1.8mm for window</t>
+    <t>by actual measurement in digital weighing machine</t>
   </si>
   <si>
-    <t>by actual measurement in digital weighing machine</t>
+    <t>-MS Rectangular Hollow section of 40mm*25mm*2.2mm for window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1448,7 +1486,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1458,7 +1496,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1478,14 +1516,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1494,7 +1532,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1519,7 +1557,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1589,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,7 +1604,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1582,7 +1620,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1614,7 +1652,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1663,7 +1701,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,8 +1774,11 @@
     <xf numFmtId="2" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1773,7 +1814,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1815,6 +1856,12 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1832,15 +1879,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2163,7 +2201,7 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="299">
           <cell r="B299" t="str">
@@ -2171,25 +2209,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2464,128 +2502,128 @@
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="127" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999">
-      <c r="A5" s="129" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6">
-      <c r="A6" s="124" t="s">
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6">
-      <c r="A7" s="121" t="s">
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -2693,15 +2731,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -2765,7 +2803,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="124.2">
+    <row r="15" spans="1:19" ht="150">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -2946,7 +2984,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11">
       <c r="A24" s="18">
         <v>4</v>
       </c>
@@ -3198,7 +3236,7 @@
       <c r="J35" s="40"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="33.6">
+    <row r="36" spans="1:11" ht="33.75">
       <c r="A36" s="18">
         <v>6</v>
       </c>
@@ -4037,7 +4075,7 @@
       <c r="J70" s="40"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="30.6">
+    <row r="71" spans="1:11" ht="30.75">
       <c r="A71" s="18">
         <v>10</v>
       </c>
@@ -4135,7 +4173,7 @@
       <c r="J75" s="40"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" ht="76.8">
+    <row r="76" spans="1:11" ht="77.25">
       <c r="A76" s="18">
         <v>11</v>
       </c>
@@ -4234,7 +4272,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" ht="30.6">
+    <row r="81" spans="1:11" ht="30.75">
       <c r="A81" s="18">
         <v>12</v>
       </c>
@@ -4330,7 +4368,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="135.6">
+    <row r="86" spans="1:11" ht="135.75">
       <c r="A86" s="18">
         <v>13</v>
       </c>
@@ -4426,7 +4464,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" ht="30.6">
+    <row r="91" spans="1:11" ht="30.75">
       <c r="A91" s="18">
         <v>14</v>
       </c>
@@ -4527,7 +4565,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="45.6">
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="45.75">
       <c r="A96" s="18">
         <v>15</v>
       </c>
@@ -4759,11 +4797,11 @@
       <c r="B108" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="120">
+      <c r="C108" s="121">
         <f>J106</f>
         <v>532419.58529343281</v>
       </c>
-      <c r="D108" s="120"/>
+      <c r="D108" s="121"/>
       <c r="E108" s="38">
         <v>100</v>
       </c>
@@ -4779,10 +4817,10 @@
       <c r="B109" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="123">
+      <c r="C109" s="124">
         <v>500000</v>
       </c>
-      <c r="D109" s="123"/>
+      <c r="D109" s="124"/>
       <c r="E109" s="38"/>
       <c r="F109" s="44"/>
       <c r="G109" s="43"/>
@@ -4796,16 +4834,16 @@
       <c r="O109" s="34"/>
       <c r="P109" s="34"/>
     </row>
-    <row r="110" spans="1:16" ht="14.4" customHeight="1">
+    <row r="110" spans="1:16" ht="14.45" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="123">
+      <c r="C110" s="124">
         <f>C109-C112-C113</f>
         <v>475000</v>
       </c>
-      <c r="D110" s="123"/>
+      <c r="D110" s="124"/>
       <c r="E110" s="38">
         <f>C110/C108*100</f>
         <v>89.215350659614231</v>
@@ -4822,16 +4860,16 @@
       <c r="O110" s="25"/>
       <c r="P110" s="34"/>
     </row>
-    <row r="111" spans="1:16" ht="14.4" customHeight="1">
+    <row r="111" spans="1:16" ht="14.45" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="120">
+      <c r="C111" s="121">
         <f>C108-C110</f>
         <v>57419.585293432814</v>
       </c>
-      <c r="D111" s="120"/>
+      <c r="D111" s="121"/>
       <c r="E111" s="38">
         <f>100-E110</f>
         <v>10.784649340385769</v>
@@ -4853,11 +4891,11 @@
       <c r="B112" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="120">
+      <c r="C112" s="121">
         <f>C109*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D112" s="120"/>
+      <c r="D112" s="121"/>
       <c r="E112" s="38">
         <v>3</v>
       </c>
@@ -4878,11 +4916,11 @@
       <c r="B113" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="120">
+      <c r="C113" s="121">
         <f>C109*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D113" s="120"/>
+      <c r="D113" s="121"/>
       <c r="E113" s="38">
         <v>2</v>
       </c>
@@ -5006,128 +5044,128 @@
       <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="127" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999">
-      <c r="A5" s="129" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6">
-      <c r="A6" s="124" t="s">
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6">
-      <c r="A7" s="121" t="s">
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -5235,15 +5273,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -5307,7 +5345,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="124.2">
+    <row r="15" spans="1:19" ht="150">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -5488,7 +5526,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11">
       <c r="A24" s="18">
         <v>4</v>
       </c>
@@ -5740,7 +5778,7 @@
       <c r="J35" s="40"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="33.6">
+    <row r="36" spans="1:11" ht="33.75">
       <c r="A36" s="18">
         <v>6</v>
       </c>
@@ -6579,7 +6617,7 @@
       <c r="J70" s="40"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="30.6">
+    <row r="71" spans="1:11" ht="30.75">
       <c r="A71" s="18">
         <v>10</v>
       </c>
@@ -6677,7 +6715,7 @@
       <c r="J75" s="40"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" ht="76.8">
+    <row r="76" spans="1:11" ht="77.25">
       <c r="A76" s="18">
         <v>11</v>
       </c>
@@ -6776,7 +6814,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" ht="30.6">
+    <row r="81" spans="1:11" ht="30.75">
       <c r="A81" s="18">
         <v>12</v>
       </c>
@@ -6872,7 +6910,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="135.6">
+    <row r="86" spans="1:11" ht="135.75">
       <c r="A86" s="18">
         <v>13</v>
       </c>
@@ -6968,7 +7006,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" ht="30.6">
+    <row r="91" spans="1:11" ht="30.75">
       <c r="A91" s="18">
         <v>14</v>
       </c>
@@ -7069,7 +7107,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" ht="30.6">
+    <row r="96" spans="1:11" ht="30.75">
       <c r="A96" s="18">
         <v>15</v>
       </c>
@@ -7096,7 +7134,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:16" ht="28.2">
+    <row r="97" spans="1:16" ht="30">
       <c r="A97" s="18"/>
       <c r="B97" s="36" t="s">
         <v>89</v>
@@ -7124,7 +7162,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:16" ht="28.2">
+    <row r="98" spans="1:16" ht="30">
       <c r="A98" s="18"/>
       <c r="B98" s="36" t="s">
         <v>91</v>
@@ -7328,11 +7366,11 @@
       <c r="B108" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="120">
+      <c r="C108" s="121">
         <f>J106</f>
         <v>517281.24234828848</v>
       </c>
-      <c r="D108" s="120"/>
+      <c r="D108" s="121"/>
       <c r="E108" s="38">
         <v>100</v>
       </c>
@@ -7348,10 +7386,10 @@
       <c r="B109" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="123">
+      <c r="C109" s="124">
         <v>500000</v>
       </c>
-      <c r="D109" s="123"/>
+      <c r="D109" s="124"/>
       <c r="E109" s="38"/>
       <c r="F109" s="44"/>
       <c r="G109" s="43"/>
@@ -7365,16 +7403,16 @@
       <c r="O109" s="34"/>
       <c r="P109" s="34"/>
     </row>
-    <row r="110" spans="1:16" ht="14.4" customHeight="1">
+    <row r="110" spans="1:16" ht="14.45" customHeight="1">
       <c r="A110" s="51"/>
       <c r="B110" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="123">
+      <c r="C110" s="124">
         <f>C109-C112-C113</f>
         <v>475000</v>
       </c>
-      <c r="D110" s="123"/>
+      <c r="D110" s="124"/>
       <c r="E110" s="38">
         <f>C110/C108*100</f>
         <v>91.826256417815316</v>
@@ -7391,16 +7429,16 @@
       <c r="O110" s="25"/>
       <c r="P110" s="34"/>
     </row>
-    <row r="111" spans="1:16" ht="14.4" customHeight="1">
+    <row r="111" spans="1:16" ht="14.45" customHeight="1">
       <c r="A111" s="51"/>
       <c r="B111" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="120">
+      <c r="C111" s="121">
         <f>C108-C110</f>
         <v>42281.242348288477</v>
       </c>
-      <c r="D111" s="120"/>
+      <c r="D111" s="121"/>
       <c r="E111" s="38">
         <f>100-E110</f>
         <v>8.1737435821846844</v>
@@ -7422,11 +7460,11 @@
       <c r="B112" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="120">
+      <c r="C112" s="121">
         <f>C109*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D112" s="120"/>
+      <c r="D112" s="121"/>
       <c r="E112" s="38">
         <v>3</v>
       </c>
@@ -7447,11 +7485,11 @@
       <c r="B113" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="120">
+      <c r="C113" s="121">
         <f>C109*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D113" s="120"/>
+      <c r="D113" s="121"/>
       <c r="E113" s="38">
         <v>2</v>
       </c>
@@ -7571,132 +7609,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S176"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="127" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999">
-      <c r="A5" s="129" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6">
-      <c r="A6" s="124" t="s">
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
+      <c r="A6" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6">
-      <c r="A7" s="121" t="s">
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -7804,15 +7842,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="M11" s="118" t="s">
+      <c r="M11" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -7876,7 +7914,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="124.2">
+    <row r="15" spans="1:19" ht="150">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -8057,7 +8095,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11">
       <c r="A24" s="18">
         <v>4</v>
       </c>
@@ -8309,7 +8347,7 @@
       <c r="J35" s="40"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="33.6">
+    <row r="36" spans="1:11" ht="33.75">
       <c r="A36" s="18">
         <v>6</v>
       </c>
@@ -9148,7 +9186,7 @@
       <c r="J70" s="40"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="30.6">
+    <row r="71" spans="1:11" ht="30.75">
       <c r="A71" s="18">
         <v>10</v>
       </c>
@@ -9246,7 +9284,7 @@
       <c r="J75" s="40"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" ht="76.8">
+    <row r="76" spans="1:11" ht="77.25">
       <c r="A76" s="18">
         <v>11</v>
       </c>
@@ -9369,7 +9407,7 @@
       <c r="J81" s="40"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" ht="30.6">
+    <row r="82" spans="1:11" ht="30.75">
       <c r="A82" s="18">
         <v>12</v>
       </c>
@@ -9465,7 +9503,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" ht="135.6">
+    <row r="87" spans="1:11" ht="135.75">
       <c r="A87" s="18">
         <v>13</v>
       </c>
@@ -9561,7 +9599,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" ht="30.6">
+    <row r="92" spans="1:11" ht="30.75">
       <c r="A92" s="18">
         <v>14</v>
       </c>
@@ -9662,7 +9700,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" ht="30.6">
+    <row r="97" spans="1:11" ht="30.75">
       <c r="A97" s="18">
         <v>15</v>
       </c>
@@ -9689,7 +9727,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" ht="28.2">
+    <row r="98" spans="1:11" ht="30">
       <c r="A98" s="18"/>
       <c r="B98" s="36" t="s">
         <v>89</v>
@@ -9717,7 +9755,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" ht="28.2">
+    <row r="99" spans="1:11" ht="30">
       <c r="A99" s="18"/>
       <c r="B99" s="36" t="s">
         <v>91</v>
@@ -9801,7 +9839,7 @@
       <c r="J102" s="40"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" ht="30.6">
+    <row r="103" spans="1:11" ht="30.75">
       <c r="A103" s="18">
         <v>16</v>
       </c>
@@ -10018,11 +10056,11 @@
       <c r="B114" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="120">
+      <c r="C114" s="121">
         <f>J112</f>
         <v>581612.37722048338</v>
       </c>
-      <c r="D114" s="120"/>
+      <c r="D114" s="121"/>
       <c r="E114" s="38">
         <v>100</v>
       </c>
@@ -10038,10 +10076,10 @@
       <c r="B115" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C115" s="123">
+      <c r="C115" s="124">
         <v>500000</v>
       </c>
-      <c r="D115" s="123"/>
+      <c r="D115" s="124"/>
       <c r="E115" s="38"/>
       <c r="F115" s="44"/>
       <c r="G115" s="43"/>
@@ -10055,16 +10093,16 @@
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
     </row>
-    <row r="116" spans="1:16" ht="14.4" customHeight="1">
+    <row r="116" spans="1:16" ht="14.45" customHeight="1">
       <c r="A116" s="51"/>
       <c r="B116" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C116" s="123">
+      <c r="C116" s="124">
         <f>C115-C118-C119</f>
         <v>475000</v>
       </c>
-      <c r="D116" s="123"/>
+      <c r="D116" s="124"/>
       <c r="E116" s="38">
         <f>C116/C114*100</f>
         <v>81.66951368366982</v>
@@ -10081,16 +10119,16 @@
       <c r="O116" s="25"/>
       <c r="P116" s="34"/>
     </row>
-    <row r="117" spans="1:16" ht="14.4" customHeight="1">
+    <row r="117" spans="1:16" ht="14.45" customHeight="1">
       <c r="A117" s="51"/>
       <c r="B117" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="120">
+      <c r="C117" s="121">
         <f>C114-C116</f>
         <v>106612.37722048338</v>
       </c>
-      <c r="D117" s="120"/>
+      <c r="D117" s="121"/>
       <c r="E117" s="38">
         <f>100-E116</f>
         <v>18.33048631633018</v>
@@ -10112,11 +10150,11 @@
       <c r="B118" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="120">
+      <c r="C118" s="121">
         <f>C115*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D118" s="120"/>
+      <c r="D118" s="121"/>
       <c r="E118" s="38">
         <v>3</v>
       </c>
@@ -10137,11 +10175,11 @@
       <c r="B119" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="120">
+      <c r="C119" s="121">
         <f>C115*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D119" s="120"/>
+      <c r="D119" s="121"/>
       <c r="E119" s="38">
         <v>2</v>
       </c>
@@ -10264,110 +10302,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="133" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-    </row>
-    <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="134" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-    </row>
-    <row r="6" spans="1:11" ht="18">
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="130">
+      <c r="C6" s="131">
         <f>F63</f>
         <v>581612.37722048338</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -10375,11 +10413,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="130">
+      <c r="J6" s="131">
         <f>I63</f>
-        <v>494627.26953346224</v>
-      </c>
-      <c r="K6" s="131"/>
+        <v>495129.92363649921</v>
+      </c>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="26" t="s">
@@ -10388,77 +10426,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="I7" s="138" t="s">
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="I7" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="124" t="str">
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="125" t="str">
         <f>'callapsible gate added'!A6:F6</f>
         <v>Project:- राष्ट्रिय मा. बि. वाल निर्माण</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="I8" s="139" t="s">
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="I8" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="140" t="str">
+      <c r="A9" s="141" t="str">
         <f>'callapsible gate added'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="I9" s="139" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="I9" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="135" t="s">
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="136" t="s">
+      <c r="K11" s="137" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -10477,10 +10515,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="30">
+      <c r="J12" s="136"/>
+      <c r="K12" s="137"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A13" s="27">
         <f>'callapsible gate added'!A9</f>
         <v>1</v>
@@ -10523,7 +10561,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="27"/>
       <c r="B14" s="79"/>
       <c r="C14" s="12"/>
@@ -10536,7 +10574,7 @@
       <c r="J14" s="28"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="140.4">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="141.75">
       <c r="A15" s="27">
         <f>'callapsible gate added'!A15</f>
         <v>2</v>
@@ -10579,7 +10617,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="27"/>
       <c r="B16" s="80" t="str">
         <f>'callapsible gate added'!B18</f>
@@ -10604,7 +10642,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="27"/>
       <c r="B17" s="32"/>
       <c r="C17" s="12"/>
@@ -10660,7 +10698,7 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="27"/>
       <c r="B19" s="32"/>
       <c r="C19" s="12"/>
@@ -10673,7 +10711,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15">
+    <row r="20" spans="1:11" s="1" customFormat="1">
       <c r="A20" s="27">
         <f>'callapsible gate added'!A24</f>
         <v>4</v>
@@ -10716,7 +10754,7 @@
       </c>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A21" s="27"/>
       <c r="B21" s="80" t="str">
         <f>'callapsible gate added'!B28</f>
@@ -10741,7 +10779,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A22" s="27"/>
       <c r="B22" s="32"/>
       <c r="C22" s="12"/>
@@ -10797,7 +10835,7 @@
       </c>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A24" s="27"/>
       <c r="B24" s="80" t="str">
         <f>'callapsible gate added'!B34</f>
@@ -10822,7 +10860,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="27"/>
       <c r="B25" s="32"/>
       <c r="C25" s="12"/>
@@ -10878,7 +10916,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A27" s="27"/>
       <c r="B27" s="80" t="str">
         <f>'callapsible gate added'!B42</f>
@@ -10903,7 +10941,7 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A28" s="27"/>
       <c r="B28" s="32"/>
       <c r="C28" s="12"/>
@@ -10959,7 +10997,7 @@
       </c>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A30" s="27"/>
       <c r="B30" s="80" t="str">
         <f>'callapsible gate added'!B48</f>
@@ -10984,7 +11022,7 @@
       </c>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A31" s="27"/>
       <c r="B31" s="32"/>
       <c r="C31" s="12"/>
@@ -11040,7 +11078,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A33" s="27"/>
       <c r="B33" s="80" t="str">
         <f>'callapsible gate added'!B57</f>
@@ -11065,7 +11103,7 @@
       </c>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A34" s="27"/>
       <c r="B34" s="32"/>
       <c r="C34" s="12"/>
@@ -11121,7 +11159,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A36" s="27"/>
       <c r="B36" s="80" t="str">
         <f>'callapsible gate added'!B69</f>
@@ -11146,7 +11184,7 @@
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A37" s="27"/>
       <c r="B37" s="32"/>
       <c r="C37" s="12"/>
@@ -11159,7 +11197,7 @@
       <c r="J37" s="28"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="15">
+    <row r="38" spans="1:11" s="1" customFormat="1">
       <c r="A38" s="27">
         <f>'callapsible gate added'!A71</f>
         <v>10</v>
@@ -11202,7 +11240,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A39" s="27"/>
       <c r="B39" s="80" t="str">
         <f>'callapsible gate added'!B74</f>
@@ -11227,7 +11265,7 @@
       </c>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A40" s="27"/>
       <c r="B40" s="32"/>
       <c r="C40" s="12"/>
@@ -11283,7 +11321,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="27"/>
       <c r="B42" s="80" t="str">
         <f>'callapsible gate added'!B80</f>
@@ -11308,7 +11346,7 @@
       </c>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A43" s="27"/>
       <c r="B43" s="32"/>
       <c r="C43" s="12"/>
@@ -11321,7 +11359,7 @@
       <c r="J43" s="28"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="15">
+    <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="27">
         <f>'callapsible gate added'!A82</f>
         <v>12</v>
@@ -11364,7 +11402,7 @@
       </c>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A45" s="27"/>
       <c r="B45" s="80" t="str">
         <f>'callapsible gate added'!B85</f>
@@ -11402,7 +11440,7 @@
       <c r="J46" s="28"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="105">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="120">
       <c r="A47" s="27">
         <f>'callapsible gate added'!A87</f>
         <v>13</v>
@@ -11445,7 +11483,7 @@
       </c>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A48" s="27"/>
       <c r="B48" s="80" t="str">
         <f>'callapsible gate added'!B90</f>
@@ -11526,7 +11564,7 @@
       </c>
       <c r="K50" s="14"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A51" s="27"/>
       <c r="B51" s="80" t="str">
         <f>'callapsible gate added'!B95</f>
@@ -11590,24 +11628,24 @@
         <v>31092.460557147209</v>
       </c>
       <c r="G53" s="12">
-        <f>V!G194</f>
-        <v>88.889200000000002</v>
+        <f>V!G193</f>
+        <v>91.48</v>
       </c>
       <c r="H53" s="12">
-        <f>V!I194</f>
+        <f>V!I193</f>
         <v>181.17</v>
       </c>
       <c r="I53" s="12">
         <f>G53*H53</f>
-        <v>16104.056364</v>
+        <v>16573.4316</v>
       </c>
       <c r="J53" s="28">
         <f>I53-F53</f>
-        <v>-14988.404193147209</v>
+        <v>-14519.028957147209</v>
       </c>
       <c r="K53" s="14"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A54" s="27"/>
       <c r="B54" s="80" t="str">
         <f>'callapsible gate added'!B101</f>
@@ -11623,12 +11661,12 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12">
-        <f>V!J195</f>
-        <v>1141.7831819598734</v>
+        <f>V!J194</f>
+        <v>1175.0620489968321</v>
       </c>
       <c r="J54" s="28">
         <f>I54-F54</f>
-        <v>-1062.6830560782762</v>
+        <v>-1029.4041890413175</v>
       </c>
       <c r="K54" s="14"/>
     </row>
@@ -11671,11 +11709,11 @@
         <v>52333.348411500003</v>
       </c>
       <c r="G56" s="12">
-        <f>V!G199</f>
+        <f>V!G198</f>
         <v>0</v>
       </c>
       <c r="H56" s="12">
-        <f>V!I199</f>
+        <f>V!I198</f>
         <v>6391.43</v>
       </c>
       <c r="I56" s="12">
@@ -11688,7 +11726,7 @@
       </c>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="57" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A57" s="27"/>
       <c r="B57" s="80" t="str">
         <f>'callapsible gate added'!B106</f>
@@ -11704,7 +11742,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12">
-        <f>V!J200</f>
+        <f>V!J199</f>
         <v>0</v>
       </c>
       <c r="J57" s="28">
@@ -11726,7 +11764,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="14"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="15.6">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A59" s="27">
         <f>'callapsible gate added'!A108</f>
         <v>17</v>
@@ -11752,11 +11790,11 @@
         <v>5000</v>
       </c>
       <c r="G59" s="12">
-        <f>V!G202</f>
+        <f>V!G201</f>
         <v>0</v>
       </c>
       <c r="H59" s="12">
-        <f>V!I202</f>
+        <f>V!I201</f>
         <v>5000</v>
       </c>
       <c r="I59" s="12">
@@ -11808,11 +11846,11 @@
         <v>500</v>
       </c>
       <c r="G61" s="12">
-        <f>V!G204</f>
+        <f>V!G203</f>
         <v>1</v>
       </c>
       <c r="H61" s="12">
-        <f>V!I204</f>
+        <f>V!I203</f>
         <v>500</v>
       </c>
       <c r="I61" s="12">
@@ -11854,11 +11892,11 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7">
         <f>SUM(I13:I61)</f>
-        <v>494627.26953346224</v>
+        <v>495129.92363649921</v>
       </c>
       <c r="J63" s="13">
         <f>I63-F63</f>
-        <v>-86985.10768702114</v>
+        <v>-86482.45358398417</v>
       </c>
       <c r="K63" s="5"/>
     </row>
@@ -11899,136 +11937,136 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T270"/>
+  <dimension ref="A1:T269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="127" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-    </row>
-    <row r="5" spans="1:20" ht="17.399999999999999">
-      <c r="A5" s="129" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75">
+      <c r="A5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6">
-      <c r="A6" s="124" t="s">
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75">
+      <c r="A6" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.6">
-      <c r="A7" s="121" t="s">
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75">
+      <c r="A7" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -12136,15 +12174,15 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="21"/>
-      <c r="N11" s="118" t="s">
+      <c r="N11" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="119"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="18"/>
@@ -12211,7 +12249,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:20" ht="124.2">
+    <row r="15" spans="1:20" ht="150">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -12393,7 +12431,7 @@
       <c r="J23" s="40"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11">
       <c r="A24" s="18">
         <v>4</v>
       </c>
@@ -12702,7 +12740,7 @@
       <c r="J37" s="40"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" ht="33.6">
+    <row r="38" spans="1:11" ht="33.75">
       <c r="A38" s="18">
         <v>6</v>
       </c>
@@ -14181,7 +14219,7 @@
       <c r="J98" s="91"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:15" ht="30.6">
+    <row r="99" spans="1:15" ht="30.75">
       <c r="A99" s="18">
         <v>10</v>
       </c>
@@ -16122,7 +16160,7 @@
       <c r="J167" s="91"/>
       <c r="K167" s="21"/>
     </row>
-    <row r="168" spans="1:15" ht="76.8">
+    <row r="168" spans="1:15" ht="77.25">
       <c r="A168" s="18">
         <v>11</v>
       </c>
@@ -16248,7 +16286,7 @@
       <c r="J173" s="82"/>
       <c r="K173" s="21"/>
     </row>
-    <row r="174" spans="1:15" ht="30.6">
+    <row r="174" spans="1:15" ht="30.75">
       <c r="A174" s="18">
         <v>12</v>
       </c>
@@ -16344,7 +16382,7 @@
       <c r="J178" s="40"/>
       <c r="K178" s="21"/>
     </row>
-    <row r="179" spans="1:13" ht="135.6">
+    <row r="179" spans="1:13" ht="135.75">
       <c r="A179" s="18">
         <v>13</v>
       </c>
@@ -16440,7 +16478,7 @@
       <c r="J183" s="40"/>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:13" ht="30.6">
+    <row r="184" spans="1:13" ht="30.75">
       <c r="A184" s="18">
         <v>14</v>
       </c>
@@ -16448,10 +16486,10 @@
         <v>87</v>
       </c>
       <c r="C184" s="19"/>
-      <c r="D184" s="142" t="s">
+      <c r="D184" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="E184" s="143"/>
+      <c r="E184" s="144"/>
       <c r="F184" s="21"/>
       <c r="G184" s="23"/>
       <c r="H184" s="22"/>
@@ -16468,11 +16506,11 @@
       <c r="C185" s="19">
         <v>1</v>
       </c>
-      <c r="D185" s="142">
+      <c r="D185" s="143">
         <f>G165</f>
         <v>219.30700583663517</v>
       </c>
-      <c r="E185" s="143"/>
+      <c r="E185" s="144"/>
       <c r="F185" s="21"/>
       <c r="G185" s="38">
         <f t="shared" ref="G185" si="22">PRODUCT(C185:F185)</f>
@@ -16564,11 +16602,11 @@
       <c r="H189" s="22"/>
       <c r="I189" s="23"/>
       <c r="J189" s="40"/>
-      <c r="K189" s="150" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" ht="28.2" customHeight="1">
+      <c r="K189" s="145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="28.15" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="36" t="s">
         <v>89</v>
@@ -16595,13 +16633,13 @@
       <c r="H190" s="22"/>
       <c r="I190" s="23"/>
       <c r="J190" s="40"/>
-      <c r="K190" s="152"/>
+      <c r="K190" s="146"/>
       <c r="M190">
         <f>61.5*2+26*6</f>
         <v>279</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="28.2" customHeight="1">
+    <row r="191" spans="1:13" ht="28.15" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="36" t="s">
         <v>91</v>
@@ -16621,12 +16659,12 @@
       <c r="H191" s="22"/>
       <c r="I191" s="23"/>
       <c r="J191" s="40"/>
-      <c r="K191" s="152"/>
-    </row>
-    <row r="192" spans="1:13" ht="28.2">
+      <c r="K191" s="146"/>
+    </row>
+    <row r="192" spans="1:13" ht="28.15" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C192" s="19">
         <v>6</v>
@@ -16635,64 +16673,67 @@
         <v>2.54</v>
       </c>
       <c r="E192" s="21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="F192" s="21">
         <f>PRODUCT(C192:E192)</f>
-        <v>27.889200000000002</v>
+        <v>30.48</v>
       </c>
       <c r="G192" s="69">
         <f>F192</f>
-        <v>27.889200000000002</v>
+        <v>30.48</v>
       </c>
       <c r="H192" s="22"/>
       <c r="I192" s="23"/>
       <c r="J192" s="40"/>
-      <c r="K192" s="151"/>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="K192" s="118"/>
+    </row>
+    <row r="193" spans="1:17" ht="15" customHeight="1">
       <c r="A193" s="18"/>
-      <c r="B193" s="36"/>
+      <c r="B193" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="C193" s="19"/>
       <c r="D193" s="20"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
-      <c r="G193" s="69"/>
-      <c r="H193" s="22"/>
-      <c r="I193" s="23"/>
-      <c r="J193" s="40"/>
+      <c r="G193" s="23">
+        <f>SUM(G190:G192)</f>
+        <v>91.48</v>
+      </c>
+      <c r="H193" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I193" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J193" s="40">
+        <f>G193*I193</f>
+        <v>16573.4316</v>
+      </c>
       <c r="K193" s="21"/>
     </row>
-    <row r="194" spans="1:11" ht="15" customHeight="1">
+    <row r="194" spans="1:17" ht="15" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C194" s="19"/>
       <c r="D194" s="20"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
-      <c r="G194" s="23">
-        <f>SUM(G190:G192)</f>
-        <v>88.889200000000002</v>
-      </c>
-      <c r="H194" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I194" s="23">
-        <v>181.17</v>
-      </c>
+      <c r="G194" s="23"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="23"/>
       <c r="J194" s="40">
-        <f>G194*I194</f>
-        <v>16104.056364</v>
+        <f>0.13*G193*1871.42/18.94</f>
+        <v>1175.0620489968321</v>
       </c>
       <c r="K194" s="21"/>
     </row>
-    <row r="195" spans="1:11" ht="15" customHeight="1">
+    <row r="195" spans="1:17" ht="15" customHeight="1">
       <c r="A195" s="18"/>
-      <c r="B195" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="B195" s="36"/>
       <c r="C195" s="19"/>
       <c r="D195" s="20"/>
       <c r="E195" s="21"/>
@@ -16700,15 +16741,16 @@
       <c r="G195" s="23"/>
       <c r="H195" s="22"/>
       <c r="I195" s="23"/>
-      <c r="J195" s="40">
-        <f>0.13*G194*1871.42/18.94</f>
-        <v>1141.7831819598734</v>
-      </c>
+      <c r="J195" s="40"/>
       <c r="K195" s="21"/>
     </row>
-    <row r="196" spans="1:11" ht="15" customHeight="1">
-      <c r="A196" s="18"/>
-      <c r="B196" s="36"/>
+    <row r="196" spans="1:17" ht="30.75">
+      <c r="A196" s="18">
+        <v>16</v>
+      </c>
+      <c r="B196" s="60" t="s">
+        <v>93</v>
+      </c>
       <c r="C196" s="19"/>
       <c r="D196" s="20"/>
       <c r="E196" s="21"/>
@@ -16719,77 +16761,76 @@
       <c r="J196" s="40"/>
       <c r="K196" s="21"/>
     </row>
-    <row r="197" spans="1:11" ht="30.6">
-      <c r="A197" s="18">
-        <v>16</v>
-      </c>
-      <c r="B197" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C197" s="19"/>
-      <c r="D197" s="20"/>
+    <row r="197" spans="1:17" ht="15" customHeight="1">
+      <c r="A197" s="18"/>
+      <c r="B197" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C197" s="19">
+        <v>0</v>
+      </c>
+      <c r="D197" s="20">
+        <v>3.23</v>
+      </c>
       <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="23"/>
+      <c r="F197" s="21">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="G197" s="38">
+        <f t="shared" ref="G197" si="23">PRODUCT(C197:F197)</f>
+        <v>0</v>
+      </c>
       <c r="H197" s="22"/>
       <c r="I197" s="23"/>
       <c r="J197" s="40"/>
       <c r="K197" s="21"/>
     </row>
-    <row r="198" spans="1:11" ht="15" customHeight="1">
+    <row r="198" spans="1:17" ht="15" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C198" s="19">
+        <v>40</v>
+      </c>
+      <c r="C198" s="19"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="23">
+        <f>SUM(G197:G197)</f>
         <v>0</v>
       </c>
-      <c r="D198" s="20">
-        <v>3.23</v>
-      </c>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21">
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="G198" s="38">
-        <f t="shared" ref="G198" si="23">PRODUCT(C198:F198)</f>
+      <c r="H198" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I198" s="23">
+        <v>6391.43</v>
+      </c>
+      <c r="J198" s="40">
+        <f>G198*I198</f>
         <v>0</v>
       </c>
-      <c r="H198" s="22"/>
-      <c r="I198" s="23"/>
-      <c r="J198" s="40"/>
       <c r="K198" s="21"/>
     </row>
-    <row r="199" spans="1:11" ht="15" customHeight="1">
+    <row r="199" spans="1:17" ht="15" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C199" s="19"/>
       <c r="D199" s="20"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
-      <c r="G199" s="23">
-        <f>SUM(G198:G198)</f>
+      <c r="G199" s="23"/>
+      <c r="H199" s="22"/>
+      <c r="I199" s="23"/>
+      <c r="J199" s="40">
+        <f>0.13*J198</f>
         <v>0</v>
       </c>
-      <c r="H199" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I199" s="23">
-        <v>6391.43</v>
-      </c>
-      <c r="J199" s="40">
-        <f>G199*I199</f>
-        <v>0</v>
-      </c>
       <c r="K199" s="21"/>
     </row>
-    <row r="200" spans="1:11" ht="15" customHeight="1">
+    <row r="200" spans="1:17" ht="15" customHeight="1">
       <c r="A200" s="18"/>
-      <c r="B200" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="B200" s="36"/>
       <c r="C200" s="19"/>
       <c r="D200" s="20"/>
       <c r="E200" s="21"/>
@@ -16797,196 +16838,207 @@
       <c r="G200" s="23"/>
       <c r="H200" s="22"/>
       <c r="I200" s="23"/>
-      <c r="J200" s="40">
-        <f>0.13*J199</f>
+      <c r="J200" s="40"/>
+      <c r="K200" s="21"/>
+    </row>
+    <row r="201" spans="1:17" ht="15" customHeight="1">
+      <c r="A201" s="18">
+        <v>17</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C201" s="19">
         <v>0</v>
       </c>
-      <c r="K200" s="21"/>
-    </row>
-    <row r="201" spans="1:11" ht="15" customHeight="1">
-      <c r="A201" s="18"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="19"/>
       <c r="D201" s="20"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="40"/>
+      <c r="G201" s="33">
+        <f t="shared" ref="G201" si="24">PRODUCT(C201:F201)</f>
+        <v>0</v>
+      </c>
+      <c r="H201" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201" s="23">
+        <v>5000</v>
+      </c>
+      <c r="J201" s="33">
+        <f>G201*I201</f>
+        <v>0</v>
+      </c>
       <c r="K201" s="21"/>
     </row>
-    <row r="202" spans="1:11" ht="15" customHeight="1">
-      <c r="A202" s="18">
-        <v>17</v>
-      </c>
-      <c r="B202" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C202" s="19">
-        <v>0</v>
-      </c>
+    <row r="202" spans="1:17" ht="15" customHeight="1">
+      <c r="A202" s="18"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="20"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
-      <c r="G202" s="33">
-        <f t="shared" ref="G202" si="24">PRODUCT(C202:F202)</f>
-        <v>0</v>
-      </c>
-      <c r="H202" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I202" s="23">
-        <v>5000</v>
-      </c>
-      <c r="J202" s="33">
-        <f>G202*I202</f>
-        <v>0</v>
-      </c>
+      <c r="G202" s="23"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="23"/>
+      <c r="J202" s="40"/>
       <c r="K202" s="21"/>
     </row>
-    <row r="203" spans="1:11" ht="15" customHeight="1">
-      <c r="A203" s="18"/>
-      <c r="B203" s="36"/>
-      <c r="C203" s="19"/>
+    <row r="203" spans="1:17" ht="15" customHeight="1">
+      <c r="A203" s="18">
+        <v>18</v>
+      </c>
+      <c r="B203" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" s="19">
+        <v>1</v>
+      </c>
       <c r="D203" s="20"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="22"/>
-      <c r="I203" s="23"/>
-      <c r="J203" s="40"/>
+      <c r="G203" s="33">
+        <f t="shared" ref="G203" si="25">PRODUCT(C203:F203)</f>
+        <v>1</v>
+      </c>
+      <c r="H203" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I203" s="23">
+        <v>500</v>
+      </c>
+      <c r="J203" s="33">
+        <f>G203*I203</f>
+        <v>500</v>
+      </c>
       <c r="K203" s="21"/>
     </row>
-    <row r="204" spans="1:11" ht="15" customHeight="1">
-      <c r="A204" s="18">
-        <v>18</v>
-      </c>
-      <c r="B204" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C204" s="19">
-        <v>1</v>
-      </c>
+    <row r="204" spans="1:17" ht="15" customHeight="1">
+      <c r="A204" s="18"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="19"/>
       <c r="D204" s="20"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
-      <c r="G204" s="33">
-        <f t="shared" ref="G204" si="25">PRODUCT(C204:F204)</f>
-        <v>1</v>
-      </c>
-      <c r="H204" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I204" s="23">
-        <v>500</v>
-      </c>
-      <c r="J204" s="33">
-        <f>G204*I204</f>
-        <v>500</v>
-      </c>
+      <c r="G204" s="23"/>
+      <c r="H204" s="22"/>
+      <c r="I204" s="23"/>
+      <c r="J204" s="40"/>
       <c r="K204" s="21"/>
     </row>
-    <row r="205" spans="1:11" ht="15" customHeight="1">
-      <c r="A205" s="18"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="23"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="23"/>
-      <c r="J205" s="40"/>
-      <c r="K205" s="21"/>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="39"/>
-      <c r="B206" s="41" t="s">
+    <row r="205" spans="1:17">
+      <c r="A205" s="39"/>
+      <c r="B205" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C206" s="42"/>
-      <c r="D206" s="37"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
-      <c r="G206" s="40"/>
-      <c r="H206" s="40"/>
-      <c r="I206" s="40"/>
-      <c r="J206" s="40">
-        <f>SUM(J10:J204)</f>
-        <v>557713.84278910642</v>
-      </c>
-      <c r="K206" s="35"/>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207" s="53"/>
-      <c r="B207" s="56"/>
-      <c r="C207" s="57"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="55"/>
-      <c r="I207" s="55"/>
-      <c r="J207" s="55"/>
-      <c r="K207" s="52"/>
-    </row>
-    <row r="208" spans="1:11" s="1" customFormat="1">
-      <c r="A208" s="45"/>
+      <c r="C205" s="42"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="40"/>
+      <c r="H205" s="40"/>
+      <c r="I205" s="40"/>
+      <c r="J205" s="40">
+        <f>SUM(J10:J203)</f>
+        <v>558216.49689214339</v>
+      </c>
+      <c r="K205" s="35"/>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="A206" s="53"/>
+      <c r="B206" s="56"/>
+      <c r="C206" s="57"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="54"/>
+      <c r="G206" s="55"/>
+      <c r="H206" s="55"/>
+      <c r="I206" s="55"/>
+      <c r="J206" s="55"/>
+      <c r="K206" s="52"/>
+    </row>
+    <row r="207" spans="1:17" s="1" customFormat="1">
+      <c r="A207" s="45"/>
+      <c r="B207" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" s="121">
+        <f>J205</f>
+        <v>558216.49689214339</v>
+      </c>
+      <c r="D207" s="121"/>
+      <c r="E207" s="38">
+        <v>100</v>
+      </c>
+      <c r="F207" s="46"/>
+      <c r="G207" s="47"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="48"/>
+      <c r="J207" s="49"/>
+      <c r="K207" s="50"/>
+    </row>
+    <row r="208" spans="1:17">
+      <c r="A208" s="51"/>
       <c r="B208" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C208" s="120">
-        <f>J206</f>
-        <v>557713.84278910642</v>
-      </c>
-      <c r="D208" s="120"/>
-      <c r="E208" s="38">
-        <v>100</v>
-      </c>
-      <c r="F208" s="46"/>
-      <c r="G208" s="47"/>
-      <c r="H208" s="46"/>
-      <c r="I208" s="48"/>
-      <c r="J208" s="49"/>
-      <c r="K208" s="50"/>
-    </row>
-    <row r="209" spans="1:17">
+        <v>32</v>
+      </c>
+      <c r="C208" s="124">
+        <v>500000</v>
+      </c>
+      <c r="D208" s="124"/>
+      <c r="E208" s="38"/>
+      <c r="F208" s="44"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="53"/>
+      <c r="I208" s="53"/>
+      <c r="J208" s="53"/>
+      <c r="K208" s="52"/>
+      <c r="L208" s="34"/>
+      <c r="M208" s="34"/>
+      <c r="N208" s="34"/>
+      <c r="O208" s="34"/>
+      <c r="P208" s="34"/>
+      <c r="Q208" s="34"/>
+    </row>
+    <row r="209" spans="1:17" ht="14.45" customHeight="1">
       <c r="A209" s="51"/>
       <c r="B209" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C209" s="123">
-        <v>500000</v>
-      </c>
-      <c r="D209" s="123"/>
-      <c r="E209" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="C209" s="124">
+        <f>C208-C211-C212</f>
+        <v>475000</v>
+      </c>
+      <c r="D209" s="124"/>
+      <c r="E209" s="38">
+        <f>C209/C207*100</f>
+        <v>85.092433248488859</v>
+      </c>
       <c r="F209" s="44"/>
       <c r="G209" s="43"/>
       <c r="H209" s="53"/>
-      <c r="I209" s="53"/>
-      <c r="J209" s="53"/>
-      <c r="K209" s="52"/>
-      <c r="L209" s="34"/>
-      <c r="M209" s="34"/>
-      <c r="N209" s="34"/>
-      <c r="O209" s="34"/>
-      <c r="P209" s="34"/>
+      <c r="I209" s="25"/>
+      <c r="J209" s="25"/>
+      <c r="K209" s="25"/>
+      <c r="L209" s="25"/>
+      <c r="M209" s="25"/>
+      <c r="N209" s="25"/>
+      <c r="O209" s="25"/>
+      <c r="P209" s="25"/>
       <c r="Q209" s="34"/>
     </row>
-    <row r="210" spans="1:17" ht="14.4" customHeight="1">
+    <row r="210" spans="1:17" ht="14.45" customHeight="1">
       <c r="A210" s="51"/>
       <c r="B210" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C210" s="123">
-        <f>C209-C212-C213</f>
-        <v>475000</v>
-      </c>
-      <c r="D210" s="123"/>
+        <v>34</v>
+      </c>
+      <c r="C210" s="121">
+        <f>C207-C209</f>
+        <v>83216.49689214339</v>
+      </c>
+      <c r="D210" s="121"/>
       <c r="E210" s="38">
-        <f>C210/C208*100</f>
-        <v>85.169125016611119</v>
+        <f>100-E209</f>
+        <v>14.907566751511141</v>
       </c>
       <c r="F210" s="44"/>
       <c r="G210" s="43"/>
@@ -17001,45 +17053,44 @@
       <c r="P210" s="25"/>
       <c r="Q210" s="34"/>
     </row>
-    <row r="211" spans="1:17" ht="14.4" customHeight="1">
+    <row r="211" spans="1:17">
       <c r="A211" s="51"/>
       <c r="B211" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C211" s="120">
-        <f>C208-C210</f>
-        <v>82713.84278910642</v>
-      </c>
-      <c r="D211" s="120"/>
+        <v>35</v>
+      </c>
+      <c r="C211" s="121">
+        <f>C208*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D211" s="121"/>
       <c r="E211" s="38">
-        <f>100-E210</f>
-        <v>14.830874983388881</v>
+        <v>3</v>
       </c>
       <c r="F211" s="44"/>
       <c r="G211" s="43"/>
       <c r="H211" s="53"/>
-      <c r="I211" s="25"/>
-      <c r="J211" s="25"/>
-      <c r="K211" s="25"/>
-      <c r="L211" s="25"/>
-      <c r="M211" s="25"/>
-      <c r="N211" s="25"/>
-      <c r="O211" s="25"/>
-      <c r="P211" s="25"/>
+      <c r="I211" s="53"/>
+      <c r="J211" s="53"/>
+      <c r="K211" s="52"/>
+      <c r="L211" s="34"/>
+      <c r="M211" s="34"/>
+      <c r="N211" s="34"/>
+      <c r="O211" s="34"/>
+      <c r="P211" s="34"/>
       <c r="Q211" s="34"/>
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="51"/>
       <c r="B212" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C212" s="120">
-        <f>C209*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D212" s="120"/>
+        <v>36</v>
+      </c>
+      <c r="C212" s="121">
+        <f>C208*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D212" s="121"/>
       <c r="E212" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F212" s="44"/>
       <c r="G212" s="43"/>
@@ -17054,45 +17105,20 @@
       <c r="P212" s="34"/>
       <c r="Q212" s="34"/>
     </row>
-    <row r="213" spans="1:17">
-      <c r="A213" s="51"/>
-      <c r="B213" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C213" s="120">
-        <f>C209*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D213" s="120"/>
-      <c r="E213" s="38">
-        <v>2</v>
-      </c>
-      <c r="F213" s="44"/>
-      <c r="G213" s="43"/>
-      <c r="H213" s="53"/>
-      <c r="I213" s="53"/>
-      <c r="J213" s="53"/>
+    <row r="213" spans="1:17" s="34" customFormat="1">
+      <c r="A213" s="52"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="52"/>
+      <c r="F213" s="52"/>
+      <c r="G213" s="52"/>
+      <c r="H213" s="52"/>
+      <c r="I213" s="52"/>
+      <c r="J213" s="52"/>
       <c r="K213" s="52"/>
-      <c r="L213" s="34"/>
-      <c r="M213" s="34"/>
-      <c r="N213" s="34"/>
-      <c r="O213" s="34"/>
-      <c r="P213" s="34"/>
-      <c r="Q213" s="34"/>
-    </row>
-    <row r="214" spans="1:17" s="34" customFormat="1">
-      <c r="A214" s="52"/>
-      <c r="B214" s="52"/>
-      <c r="C214" s="52"/>
-      <c r="D214" s="52"/>
-      <c r="E214" s="52"/>
-      <c r="F214" s="52"/>
-      <c r="G214" s="52"/>
-      <c r="H214" s="52"/>
-      <c r="I214" s="52"/>
-      <c r="J214" s="52"/>
-      <c r="K214" s="52"/>
-    </row>
+    </row>
+    <row r="214" spans="1:17" s="34" customFormat="1"/>
     <row r="215" spans="1:17" s="34" customFormat="1"/>
     <row r="216" spans="1:17" s="34" customFormat="1"/>
     <row r="217" spans="1:17" s="34" customFormat="1"/>
@@ -17148,13 +17174,12 @@
     <row r="267" s="34" customFormat="1"/>
     <row r="268" s="34" customFormat="1"/>
     <row r="269" s="34" customFormat="1"/>
-    <row r="270" s="34" customFormat="1"/>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="N11:T11"/>
+    <mergeCell ref="C207:D207"/>
     <mergeCell ref="C208:D208"/>
     <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -17163,9 +17188,9 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="K189:K191"/>
+    <mergeCell ref="C210:D210"/>
     <mergeCell ref="C211:D211"/>
     <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="D184:E184"/>
@@ -17194,60 +17219,60 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="19.8">
-      <c r="A3" s="148" t="s">
+    <row r="3" spans="1:7" ht="19.5">
+      <c r="A3" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.8">
-      <c r="A4" s="118" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.5">
+      <c r="A4" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.8">
-      <c r="A5" s="118" t="s">
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.5">
+      <c r="A5" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-    </row>
-    <row r="7" spans="1:7" ht="48.6">
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+    </row>
+    <row r="7" spans="1:7" ht="63">
       <c r="A7" s="97" t="s">
         <v>119</v>
       </c>
@@ -17270,8 +17295,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.8">
-      <c r="A8" s="144" t="s">
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="147" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="97" t="s">
@@ -17292,8 +17317,8 @@
       </c>
       <c r="G8" s="102"/>
     </row>
-    <row r="9" spans="1:7" ht="16.8">
-      <c r="A9" s="145"/>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="148"/>
       <c r="B9" s="98" t="s">
         <v>129</v>
       </c>
@@ -17312,8 +17337,8 @@
       </c>
       <c r="G9" s="103"/>
     </row>
-    <row r="10" spans="1:7" ht="16.8">
-      <c r="A10" s="145"/>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="148"/>
       <c r="B10" s="98" t="s">
         <v>130</v>
       </c>
@@ -17335,7 +17360,7 @@
         <v>4045.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.8">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="98" t="s">
         <v>131</v>
@@ -17354,7 +17379,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="16.8">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="98" t="s">
         <v>133</v>
       </c>
@@ -17375,7 +17400,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="16.8">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="98" t="s">
         <v>136</v>
@@ -17394,7 +17419,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="16.8">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="98" t="s">
         <v>138</v>
@@ -17416,15 +17441,15 @@
         <v>10311.740000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.8">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="102">
@@ -17432,7 +17457,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18">
+    <row r="16" spans="1:7" ht="17.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -17446,7 +17471,7 @@
         <v>14362.760000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18">
+    <row r="17" spans="1:7" ht="17.25">
       <c r="A17" s="103"/>
       <c r="B17" s="103" t="s">
         <v>143</v>
@@ -17462,7 +17487,7 @@
         <v>2154.41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18">
+    <row r="18" spans="1:7" ht="17.25">
       <c r="A18" s="107" t="s">
         <v>145</v>
       </c>
@@ -17481,7 +17506,7 @@
         <v>16517.170000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48.6">
+    <row r="21" spans="1:7" ht="63">
       <c r="A21" s="97" t="s">
         <v>119</v>
       </c>
@@ -17504,8 +17529,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.8">
-      <c r="A22" s="144" t="s">
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="147" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="97" t="s">
@@ -17526,8 +17551,8 @@
       </c>
       <c r="G22" s="102"/>
     </row>
-    <row r="23" spans="1:7" ht="16.8">
-      <c r="A23" s="145"/>
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="148"/>
       <c r="B23" s="98" t="s">
         <v>129</v>
       </c>
@@ -17546,8 +17571,8 @@
       </c>
       <c r="G23" s="103"/>
     </row>
-    <row r="24" spans="1:7" ht="16.8">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="148"/>
       <c r="B24" s="98" t="s">
         <v>130</v>
       </c>
@@ -17569,7 +17594,7 @@
         <v>4045.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.8">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="5"/>
       <c r="B25" s="98" t="s">
         <v>131</v>
@@ -17589,7 +17614,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="16.8">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="98" t="s">
         <v>133</v>
       </c>
@@ -17611,7 +17636,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" ht="16.8">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="5"/>
       <c r="B27" s="98" t="s">
         <v>136</v>
@@ -17631,7 +17656,7 @@
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="16.8">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="5"/>
       <c r="B28" s="98" t="s">
         <v>138</v>
@@ -17654,15 +17679,15 @@
         <v>1830.54</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.8">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="5"/>
       <c r="B29" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="147"/>
+      <c r="D29" s="150"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="102">
@@ -17670,7 +17695,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18">
+    <row r="30" spans="1:7" ht="17.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -17684,7 +17709,7 @@
         <v>5881.56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18">
+    <row r="31" spans="1:7" ht="17.25">
       <c r="A31" s="103"/>
       <c r="B31" s="103" t="s">
         <v>143</v>
@@ -17700,7 +17725,7 @@
         <v>882.23</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18">
+    <row r="32" spans="1:7" ht="17.25">
       <c r="A32" s="107" t="s">
         <v>145</v>
       </c>
@@ -17735,6 +17760,4990 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T259"/>
+  <sheetViews>
+    <sheetView topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="1" customFormat="1">
+      <c r="A1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1">
+      <c r="A3" s="129" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1">
+      <c r="A4" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75">
+      <c r="A5" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75">
+      <c r="A6" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75">
+      <c r="A7" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="45">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37">
+        <f>1.93+1.95</f>
+        <v>3.88</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="37">
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
+      </c>
+      <c r="G10" s="38">
+        <f>PRODUCT(C10:F10)</f>
+        <v>0.88692471807375795</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35">
+        <v>3</v>
+      </c>
+      <c r="D11" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E11" s="37">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="F11" s="37">
+        <f>7.5/3.281</f>
+        <v>2.2858884486437061</v>
+      </c>
+      <c r="G11" s="38">
+        <f>PRODUCT(C11:F11)</f>
+        <v>0.87203828161059815</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="21"/>
+      <c r="N11" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="37">
+        <f>3.8+4+3.93</f>
+        <v>11.73</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G12" s="38">
+        <f>PRODUCT(C12:F12)</f>
+        <v>3.1025849999999999</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <f>SUM(G10:G12)</f>
+        <v>4.8615479996843565</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1950</v>
+      </c>
+      <c r="J13" s="40">
+        <f>G13*I13</f>
+        <v>9480.0185993844952</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" ht="150">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37">
+        <f>(9.75*3+14/12*4)/3.281</f>
+        <v>10.337295539977648</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="38">
+        <f>PRODUCT(C16:F16)</f>
+        <v>2.7910697957939647</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23">
+        <f>SUM(G16:G16)</f>
+        <v>2.7910697957939647</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J17" s="40">
+        <f>G17*I17</f>
+        <v>180.38684090216393</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="40">
+        <f>0.13*G17*19284/360</f>
+        <v>19.436079701310575</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="18">
+        <v>3</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="35">
+        <v>2</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="F21" s="37">
+        <f>0.23+0.1</f>
+        <v>0.33</v>
+      </c>
+      <c r="G21" s="38">
+        <f>PRODUCT(C21:F21)</f>
+        <v>0.53460000000000008</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="23">
+        <f>SUM(G21:G21)</f>
+        <v>0.53460000000000008</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="23">
+        <v>663.31</v>
+      </c>
+      <c r="J22" s="40">
+        <f>G22*I22</f>
+        <v>354.605526</v>
+      </c>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="18">
+        <v>4</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="86">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="87">
+        <f>(9.75*3+15/12)/3.281</f>
+        <v>9.2959463578177388</v>
+      </c>
+      <c r="E25" s="88">
+        <v>0.23</v>
+      </c>
+      <c r="F25" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="95">
+        <f>PRODUCT(C25:F25)</f>
+        <v>0.21380676622980799</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="86">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D26" s="87">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E26" s="87">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F26" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="95">
+        <f>PRODUCT(C26:F26)</f>
+        <v>3.7931705775184267E-2</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23">
+        <f>SUM(G25:G26)</f>
+        <v>0.25173847200499228</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1014.97</v>
+      </c>
+      <c r="J27" s="40">
+        <f>G27*I27</f>
+        <v>255.50699693090701</v>
+      </c>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="40">
+        <f>0.13*G27*8617.2/10</f>
+        <v>28.200649892498454</v>
+      </c>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="30">
+      <c r="A30" s="18">
+        <v>5</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="19">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="20">
+        <f>(9.75*3+15/12)/3.281</f>
+        <v>9.2959463578177388</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="38">
+        <f>PRODUCT(C31:F31)</f>
+        <v>0.21380676622980799</v>
+      </c>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="19">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D32" s="20">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E32" s="20">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="38">
+        <f>PRODUCT(C32:F32)</f>
+        <v>3.7931705775184267E-2</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20">
+        <f>3.8+4+3.93</f>
+        <v>11.73</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="38">
+        <f>PRODUCT(C33:F33)</f>
+        <v>0.13489500000000001</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="23">
+        <f>SUM(G31:G33)</f>
+        <v>0.38663347200499232</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="23">
+        <v>12983.1</v>
+      </c>
+      <c r="J34" s="40">
+        <f>G34*I34</f>
+        <v>5019.7010303880161</v>
+      </c>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="40">
+        <f>0.13*G34*8078.11</f>
+        <v>406.02480314997229</v>
+      </c>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" ht="33.75">
+      <c r="A37" s="18">
+        <v>6</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="19">
+        <v>2</v>
+      </c>
+      <c r="D38" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G38" s="38">
+        <f>PRODUCT(C38:F38)</f>
+        <v>0.36450000000000005</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="19">
+        <v>2</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F39" s="21">
+        <f>7.75/3.281</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="G39" s="38">
+        <f>PRODUCT(C39:F39)</f>
+        <v>0.24990856446205426</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="23">
+        <f>SUM(G38:G39)</f>
+        <v>0.61440856446205427</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="23">
+        <v>16512.62</v>
+      </c>
+      <c r="J40" s="40">
+        <f>G40*I40</f>
+        <v>10145.495149707405</v>
+      </c>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="40">
+        <f>0.13*G40*9092.62</f>
+        <v>726.25586818186537</v>
+      </c>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" ht="30">
+      <c r="A43" s="18">
+        <v>7</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="19">
+        <v>2</v>
+      </c>
+      <c r="D44" s="20">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G44" s="38">
+        <f>PRODUCT(C44:F44)</f>
+        <v>1.62</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20">
+        <f>0.23*4</f>
+        <v>0.92</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21">
+        <f>F39</f>
+        <v>2.3620847302651629</v>
+      </c>
+      <c r="G45" s="38">
+        <f>PRODUCT(C45:F45)</f>
+        <v>4.3462359036878997</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="23">
+        <f>SUM(G44:G45)</f>
+        <v>5.9662359036878998</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="23">
+        <v>915.42</v>
+      </c>
+      <c r="J46" s="40">
+        <f>G46*I46</f>
+        <v>5461.6116709539774</v>
+      </c>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="40">
+        <f>0.13*G46*46827.87/100</f>
+        <v>363.20195507339832</v>
+      </c>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" ht="30">
+      <c r="A49" s="18">
+        <v>8</v>
+      </c>
+      <c r="B49" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" s="90"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="86">
+        <f>2*5*2+2</f>
+        <v>22</v>
+      </c>
+      <c r="D50" s="87">
+        <v>0.6</v>
+      </c>
+      <c r="E50" s="88">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F50" s="88">
+        <f>PRODUCT(C50:E50)</f>
+        <v>11.733333333333333</v>
+      </c>
+      <c r="G50" s="117">
+        <f>F50/1000</f>
+        <v>1.1733333333333332E-2</v>
+      </c>
+      <c r="H50" s="90"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="86">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D51" s="87">
+        <f>(7.75+0.75+1)/3.281</f>
+        <v>2.895458701615361</v>
+      </c>
+      <c r="E51" s="88">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F51" s="88">
+        <f>PRODUCT(C51:E51)</f>
+        <v>20.589928544820342</v>
+      </c>
+      <c r="G51" s="117">
+        <f>F51/1000</f>
+        <v>2.0589928544820342E-2</v>
+      </c>
+      <c r="H51" s="90"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="86">
+        <f>TRUNC((7.75/0.5),0)+1</f>
+        <v>16</v>
+      </c>
+      <c r="D52" s="87">
+        <f>(7/12/3.281)*4</f>
+        <v>0.7111652951335975</v>
+      </c>
+      <c r="E52" s="88">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F52" s="88">
+        <f>PRODUCT(C52:E52)</f>
+        <v>4.4952670507210115</v>
+      </c>
+      <c r="G52" s="117">
+        <f>F52/1000</f>
+        <v>4.4952670507210114E-3</v>
+      </c>
+      <c r="H52" s="90"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="86"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="89">
+        <f>SUM(G50:G52)</f>
+        <v>3.6818528928874689E-2</v>
+      </c>
+      <c r="H53" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="89">
+        <v>131940</v>
+      </c>
+      <c r="J53" s="91">
+        <f>G53*I53</f>
+        <v>4857.8367068757261</v>
+      </c>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="91">
+        <f>0.13*G53*106200</f>
+        <v>508.31661039204397</v>
+      </c>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" ht="30">
+      <c r="A56" s="108">
+        <v>9</v>
+      </c>
+      <c r="B56" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="21"/>
+      <c r="O56">
+        <f>18.833*2</f>
+        <v>37.665999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1">
+      <c r="A57" s="108"/>
+      <c r="B57" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="93">
+        <v>1</v>
+      </c>
+      <c r="D57" s="94">
+        <f>3.8+4+3.93</f>
+        <v>11.73</v>
+      </c>
+      <c r="E57" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F57" s="94">
+        <v>1.75</v>
+      </c>
+      <c r="G57" s="95">
+        <f>PRODUCT(C57:F57)</f>
+        <v>4.7213250000000002</v>
+      </c>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1">
+      <c r="A58" s="108"/>
+      <c r="B58" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="93">
+        <v>-2</v>
+      </c>
+      <c r="D58" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="E58" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F58" s="94">
+        <v>1.75</v>
+      </c>
+      <c r="G58" s="95">
+        <f>PRODUCT(C58:F58)</f>
+        <v>-0.18515000000000001</v>
+      </c>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1">
+      <c r="A59" s="108"/>
+      <c r="B59" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="93">
+        <v>1</v>
+      </c>
+      <c r="D59" s="94">
+        <f>9.75/3.281</f>
+        <v>2.9716549832368178</v>
+      </c>
+      <c r="E59" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F59" s="94">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G59" s="95">
+        <f t="shared" ref="G59:G65" si="0">PRODUCT(C59:F59)</f>
+        <v>1.4582031463002976</v>
+      </c>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1">
+      <c r="A60" s="108"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="93">
+        <v>1</v>
+      </c>
+      <c r="D60" s="94">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E60" s="94">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F60" s="94">
+        <f t="shared" ref="F60:F65" si="1">7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G60" s="95">
+        <f t="shared" si="0"/>
+        <v>0.26975712732529694</v>
+      </c>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1">
+      <c r="A61" s="108"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="93">
+        <v>1</v>
+      </c>
+      <c r="D61" s="94">
+        <f t="shared" ref="D61" si="2">9.75/3.281</f>
+        <v>2.9716549832368178</v>
+      </c>
+      <c r="E61" s="94">
+        <v>1.23</v>
+      </c>
+      <c r="F61" s="94">
+        <f t="shared" si="1"/>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G61" s="95">
+        <f t="shared" si="0"/>
+        <v>7.7982168258668079</v>
+      </c>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1">
+      <c r="A62" s="108"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="93">
+        <v>1</v>
+      </c>
+      <c r="D62" s="94">
+        <f t="shared" ref="D62:E62" si="3">14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E62" s="94">
+        <f t="shared" si="3"/>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F62" s="94">
+        <f t="shared" si="1"/>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G62" s="95">
+        <f t="shared" si="0"/>
+        <v>0.26975712732529694</v>
+      </c>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1">
+      <c r="A63" s="108"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="93">
+        <v>1</v>
+      </c>
+      <c r="D63" s="94">
+        <f t="shared" ref="D63" si="4">9.75/3.281</f>
+        <v>2.9716549832368178</v>
+      </c>
+      <c r="E63" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F63" s="94">
+        <f t="shared" si="1"/>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G63" s="95">
+        <f t="shared" si="0"/>
+        <v>1.4582031463002976</v>
+      </c>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1">
+      <c r="A64" s="108"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="93">
+        <v>1</v>
+      </c>
+      <c r="D64" s="94">
+        <f t="shared" ref="D64:E64" si="5">14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E64" s="94">
+        <f t="shared" si="5"/>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F64" s="94">
+        <f t="shared" si="1"/>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G64" s="95">
+        <f t="shared" si="0"/>
+        <v>0.26975712732529694</v>
+      </c>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:15" ht="15" customHeight="1">
+      <c r="A65" s="108"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="93">
+        <v>1</v>
+      </c>
+      <c r="D65" s="94">
+        <f>17/12/3.281</f>
+        <v>0.43177892918825561</v>
+      </c>
+      <c r="E65" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="F65" s="94">
+        <f t="shared" si="1"/>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G65" s="95">
+        <f t="shared" si="0"/>
+        <v>9.2119856882590348E-2</v>
+      </c>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:15" ht="15" customHeight="1">
+      <c r="A66" s="108"/>
+      <c r="B66" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="86"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="89">
+        <f>SUM(G57:G65)</f>
+        <v>16.152189357325884</v>
+      </c>
+      <c r="H66" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="89">
+        <v>14362.76</v>
+      </c>
+      <c r="J66" s="91">
+        <f>G66*I66</f>
+        <v>231990.01921382593</v>
+      </c>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:15" ht="15" customHeight="1">
+      <c r="A67" s="108"/>
+      <c r="B67" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="91">
+        <f>0.13*G66*10311.74</f>
+        <v>21652.433020856512</v>
+      </c>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:15" ht="15" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:15" ht="30">
+      <c r="A69" s="108">
+        <v>9</v>
+      </c>
+      <c r="B69" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="86"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="21"/>
+      <c r="O69">
+        <f>18.833*2</f>
+        <v>37.665999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15" customHeight="1">
+      <c r="A70" s="108"/>
+      <c r="B70" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="110">
+        <v>1</v>
+      </c>
+      <c r="D70" s="94">
+        <f>6.1+6.4+4.6</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E70" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F70" s="94">
+        <v>0.125</v>
+      </c>
+      <c r="G70" s="95">
+        <f t="shared" ref="G70:G85" si="6">PRODUCT(C70:F70)</f>
+        <v>0.49162500000000009</v>
+      </c>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="21"/>
+      <c r="M70">
+        <f>0.37+2.75+0.35+2.69+0.35+0.95+2.73+0.58+0.35+3.02+0.35+3.13+0.35+3.17+0.35</f>
+        <v>21.490000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15" customHeight="1">
+      <c r="A71" s="108"/>
+      <c r="B71" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="110">
+        <v>1</v>
+      </c>
+      <c r="D71" s="94">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E71" s="94">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F71" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G71" s="95">
+        <f t="shared" si="6"/>
+        <v>1.5172682310073704E-2</v>
+      </c>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" customHeight="1">
+      <c r="A72" s="108"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="110">
+        <v>1</v>
+      </c>
+      <c r="D72" s="93">
+        <v>2.75</v>
+      </c>
+      <c r="E72" s="94">
+        <f>0.23</f>
+        <v>0.23</v>
+      </c>
+      <c r="F72" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G72" s="95">
+        <f t="shared" si="6"/>
+        <v>7.5900000000000009E-2</v>
+      </c>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" customHeight="1">
+      <c r="A73" s="108"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="110">
+        <v>1</v>
+      </c>
+      <c r="D73" s="94">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="E73" s="94">
+        <f>14/12/3.281</f>
+        <v>0.35558264756679875</v>
+      </c>
+      <c r="F73" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G73" s="95">
+        <f t="shared" si="6"/>
+        <v>1.5172682310073704E-2</v>
+      </c>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" customHeight="1">
+      <c r="A74" s="108"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="110">
+        <v>1</v>
+      </c>
+      <c r="D74" s="94">
+        <v>2.69</v>
+      </c>
+      <c r="E74" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F74" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G74" s="95">
+        <f t="shared" si="6"/>
+        <v>7.4244000000000004E-2</v>
+      </c>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1">
+      <c r="A75" s="108"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="110">
+        <v>1</v>
+      </c>
+      <c r="D75" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="E75" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F75" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G75" s="95">
+        <f t="shared" si="6"/>
+        <v>1.51741632E-2</v>
+      </c>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:15" ht="15" customHeight="1">
+      <c r="A76" s="108"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="110">
+        <v>1</v>
+      </c>
+      <c r="D76" s="94">
+        <v>0.95</v>
+      </c>
+      <c r="E76" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F76" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G76" s="95">
+        <f t="shared" si="6"/>
+        <v>2.622E-2</v>
+      </c>
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
+      <c r="J76" s="96"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:15" ht="15" customHeight="1">
+      <c r="A77" s="108"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="110">
+        <v>1</v>
+      </c>
+      <c r="D77" s="94">
+        <v>2.73</v>
+      </c>
+      <c r="E77" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F77" s="94">
+        <v>0.25</v>
+      </c>
+      <c r="G77" s="95">
+        <f t="shared" si="6"/>
+        <v>0.156975</v>
+      </c>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:15" ht="15" customHeight="1">
+      <c r="A78" s="108"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="110">
+        <v>1</v>
+      </c>
+      <c r="D78" s="94">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E78" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F78" s="94">
+        <v>0.6</v>
+      </c>
+      <c r="G78" s="95">
+        <f t="shared" si="6"/>
+        <v>8.0039999999999986E-2</v>
+      </c>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:15" ht="15" customHeight="1">
+      <c r="A79" s="108"/>
+      <c r="B79" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="110">
+        <v>1</v>
+      </c>
+      <c r="D79" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="E79" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F79" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G79" s="95">
+        <f t="shared" si="6"/>
+        <v>1.51741632E-2</v>
+      </c>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="1:15" ht="15" customHeight="1">
+      <c r="A80" s="108"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="110">
+        <v>1</v>
+      </c>
+      <c r="D80" s="94">
+        <v>3.02</v>
+      </c>
+      <c r="E80" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F80" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G80" s="95">
+        <f t="shared" si="6"/>
+        <v>8.3351999999999996E-2</v>
+      </c>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="96"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1">
+      <c r="A81" s="108"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="110">
+        <v>1</v>
+      </c>
+      <c r="D81" s="93">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="E81" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F81" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G81" s="95">
+        <f t="shared" si="6"/>
+        <v>1.51741632E-2</v>
+      </c>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:15" ht="15" customHeight="1">
+      <c r="A82" s="108"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="110">
+        <v>1</v>
+      </c>
+      <c r="D82" s="93">
+        <v>3.13</v>
+      </c>
+      <c r="E82" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F82" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G82" s="95">
+        <f t="shared" si="6"/>
+        <v>8.6387999999999993E-2</v>
+      </c>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
+      <c r="J82" s="96"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:15" ht="15" customHeight="1">
+      <c r="A83" s="108"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="110">
+        <v>1</v>
+      </c>
+      <c r="D83" s="93">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="E83" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F83" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G83" s="95">
+        <f t="shared" si="6"/>
+        <v>1.51741632E-2</v>
+      </c>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:15" ht="15" customHeight="1">
+      <c r="A84" s="108"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="110">
+        <v>1</v>
+      </c>
+      <c r="D84" s="93">
+        <v>3.17</v>
+      </c>
+      <c r="E84" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F84" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G84" s="95">
+        <f t="shared" si="6"/>
+        <v>8.7491999999999986E-2</v>
+      </c>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="96"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:15" ht="15" customHeight="1">
+      <c r="A85" s="108"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="110">
+        <v>1</v>
+      </c>
+      <c r="D85" s="93">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="E85" s="94">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="F85" s="94">
+        <v>0.12</v>
+      </c>
+      <c r="G85" s="95">
+        <f t="shared" si="6"/>
+        <v>1.51741632E-2</v>
+      </c>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:15" ht="15" customHeight="1">
+      <c r="A86" s="108"/>
+      <c r="B86" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="93">
+        <v>12</v>
+      </c>
+      <c r="D86" s="94">
+        <v>0.83</v>
+      </c>
+      <c r="E86" s="94">
+        <v>0.23</v>
+      </c>
+      <c r="F86" s="94">
+        <v>1.2</v>
+      </c>
+      <c r="G86" s="95">
+        <f>PRODUCT(C86:F86)</f>
+        <v>2.7489599999999998</v>
+      </c>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" customHeight="1">
+      <c r="A87" s="108"/>
+      <c r="B87" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="86"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="89">
+        <f>SUM(G70:G86)</f>
+        <v>4.0174121806201466</v>
+      </c>
+      <c r="H87" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" s="89">
+        <v>14362.76</v>
+      </c>
+      <c r="J87" s="91">
+        <f>G87*I87</f>
+        <v>57701.126971323814</v>
+      </c>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="1:15" ht="15" customHeight="1">
+      <c r="A88" s="108"/>
+      <c r="B88" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="86"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="91">
+        <f>0.13*G87*10311.74</f>
+        <v>5385.4462843204392</v>
+      </c>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1">
+      <c r="A89" s="108"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:15" ht="30.75">
+      <c r="A90" s="18">
+        <v>10</v>
+      </c>
+      <c r="B90" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="86"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="90"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" customHeight="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="93">
+        <f>0*2</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="94">
+        <f>(5.17+15.5+27+11+70+24.5+41.17+4.667+39.75)/3.281</f>
+        <v>72.769582444376724</v>
+      </c>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94">
+        <v>1.8</v>
+      </c>
+      <c r="G91" s="95">
+        <f t="shared" ref="G91:G155" si="7">PRODUCT(C91:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="96"/>
+      <c r="I91" s="96"/>
+      <c r="J91" s="96"/>
+      <c r="K91" s="21"/>
+      <c r="M91" t="s">
+        <v>103</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15" customHeight="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="93">
+        <v>1</v>
+      </c>
+      <c r="D92" s="94">
+        <f>N92</f>
+        <v>3</v>
+      </c>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94">
+        <f>(O91+O92)/2</f>
+        <v>1.37</v>
+      </c>
+      <c r="G92" s="95">
+        <f t="shared" si="7"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H92" s="96"/>
+      <c r="I92" s="96"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="21"/>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="94">
+        <f t="shared" ref="D93:D98" si="8">N93</f>
+        <v>3</v>
+      </c>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94">
+        <f t="shared" ref="F93:F98" si="9">(O92+O93)/2</f>
+        <v>1.41</v>
+      </c>
+      <c r="G93" s="95">
+        <f t="shared" si="7"/>
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+      <c r="J93" s="96"/>
+      <c r="K93" s="21"/>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" customHeight="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="93">
+        <v>1</v>
+      </c>
+      <c r="D94" s="94">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E94" s="94"/>
+      <c r="F94" s="94">
+        <f t="shared" si="9"/>
+        <v>1.415</v>
+      </c>
+      <c r="G94" s="95">
+        <f t="shared" si="7"/>
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="21"/>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="93">
+        <v>1</v>
+      </c>
+      <c r="D95" s="94">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E95" s="94"/>
+      <c r="F95" s="94">
+        <f t="shared" si="9"/>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="G95" s="95">
+        <f t="shared" si="7"/>
+        <v>4.3650000000000002</v>
+      </c>
+      <c r="H95" s="96"/>
+      <c r="I95" s="96"/>
+      <c r="J95" s="96"/>
+      <c r="K95" s="21"/>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" customHeight="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="93">
+        <v>1</v>
+      </c>
+      <c r="D96" s="94">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E96" s="94"/>
+      <c r="F96" s="94">
+        <f t="shared" si="9"/>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="G96" s="95">
+        <f t="shared" si="7"/>
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="H96" s="96"/>
+      <c r="I96" s="96"/>
+      <c r="J96" s="96"/>
+      <c r="K96" s="21"/>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" customHeight="1">
+      <c r="A97" s="18"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="93">
+        <v>1</v>
+      </c>
+      <c r="D97" s="94">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E97" s="94"/>
+      <c r="F97" s="94">
+        <f t="shared" si="9"/>
+        <v>1.4849999999999999</v>
+      </c>
+      <c r="G97" s="95">
+        <f t="shared" si="7"/>
+        <v>4.4550000000000001</v>
+      </c>
+      <c r="H97" s="96"/>
+      <c r="I97" s="96"/>
+      <c r="J97" s="96"/>
+      <c r="K97" s="21"/>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15" customHeight="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="93">
+        <v>1</v>
+      </c>
+      <c r="D98" s="94">
+        <f t="shared" si="8"/>
+        <v>3.42</v>
+      </c>
+      <c r="E98" s="94"/>
+      <c r="F98" s="94">
+        <f t="shared" si="9"/>
+        <v>1.47</v>
+      </c>
+      <c r="G98" s="95">
+        <f t="shared" si="7"/>
+        <v>5.0274000000000001</v>
+      </c>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+      <c r="J98" s="96"/>
+      <c r="K98" s="21"/>
+      <c r="M98" t="s">
+        <v>101</v>
+      </c>
+      <c r="N98">
+        <v>3.42</v>
+      </c>
+      <c r="O98">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15" customHeight="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="95"/>
+      <c r="H99" s="96"/>
+      <c r="I99" s="96"/>
+      <c r="J99" s="96"/>
+      <c r="K99" s="21"/>
+      <c r="M99" t="s">
+        <v>102</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15" customHeight="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="94">
+        <f>N100</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94">
+        <f>O100</f>
+        <v>1.7</v>
+      </c>
+      <c r="G100" s="95">
+        <f t="shared" si="7"/>
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="96"/>
+      <c r="K100" s="21"/>
+      <c r="N100">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O100">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15" customHeight="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="93"/>
+      <c r="D101" s="94">
+        <f t="shared" ref="D101:D113" si="10">N101</f>
+        <v>3.01</v>
+      </c>
+      <c r="E101" s="94"/>
+      <c r="F101" s="94">
+        <f t="shared" ref="F101:F113" si="11">O101</f>
+        <v>1.6</v>
+      </c>
+      <c r="G101" s="95">
+        <f t="shared" si="7"/>
+        <v>4.8159999999999998</v>
+      </c>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="96"/>
+      <c r="K101" s="21"/>
+      <c r="N101">
+        <v>3.01</v>
+      </c>
+      <c r="O101">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1">
+      <c r="A102" s="18"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="93"/>
+      <c r="D102" s="94">
+        <f t="shared" si="10"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="E102" s="94"/>
+      <c r="F102" s="94">
+        <f t="shared" si="11"/>
+        <v>1.7</v>
+      </c>
+      <c r="G102" s="95">
+        <f t="shared" si="7"/>
+        <v>0.9860000000000001</v>
+      </c>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="21"/>
+      <c r="N102">
+        <f>(0.1+0.11+0.37)</f>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="O102">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15" customHeight="1">
+      <c r="A103" s="18"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="93"/>
+      <c r="D103" s="94">
+        <f t="shared" si="10"/>
+        <v>3.12</v>
+      </c>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94">
+        <f t="shared" si="11"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="G103" s="95">
+        <f t="shared" si="7"/>
+        <v>5.1168000000000005</v>
+      </c>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="96"/>
+      <c r="K103" s="21"/>
+      <c r="N103">
+        <v>3.12</v>
+      </c>
+      <c r="O103">
+        <f>(1.6+1.68)/2</f>
+        <v>1.6400000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15" customHeight="1">
+      <c r="A104" s="18"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="94">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="E104" s="94"/>
+      <c r="F104" s="94">
+        <f t="shared" si="11"/>
+        <v>1.65</v>
+      </c>
+      <c r="G104" s="95">
+        <f t="shared" si="7"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="21"/>
+      <c r="N104">
+        <f>(0.12+0.11+0.37)</f>
+        <v>0.6</v>
+      </c>
+      <c r="O104">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15" customHeight="1">
+      <c r="A105" s="18"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="94">
+        <f t="shared" si="10"/>
+        <v>3.16</v>
+      </c>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94">
+        <f t="shared" si="11"/>
+        <v>1.65</v>
+      </c>
+      <c r="G105" s="95">
+        <f t="shared" si="7"/>
+        <v>5.2139999999999995</v>
+      </c>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
+      <c r="J105" s="96"/>
+      <c r="K105" s="21"/>
+      <c r="N105">
+        <v>3.16</v>
+      </c>
+      <c r="O105">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15" customHeight="1">
+      <c r="A106" s="18"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="94">
+        <f t="shared" si="10"/>
+        <v>0.66</v>
+      </c>
+      <c r="E106" s="94"/>
+      <c r="F106" s="94">
+        <f t="shared" si="11"/>
+        <v>1.65</v>
+      </c>
+      <c r="G106" s="95">
+        <f t="shared" si="7"/>
+        <v>1.089</v>
+      </c>
+      <c r="H106" s="96"/>
+      <c r="I106" s="96"/>
+      <c r="J106" s="96"/>
+      <c r="K106" s="21"/>
+      <c r="N106">
+        <f>0.28+0.38</f>
+        <v>0.66</v>
+      </c>
+      <c r="O106">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15" customHeight="1">
+      <c r="A107" s="18"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="94">
+        <f t="shared" si="10"/>
+        <v>2.96</v>
+      </c>
+      <c r="E107" s="94"/>
+      <c r="F107" s="94">
+        <f t="shared" si="11"/>
+        <v>1.71</v>
+      </c>
+      <c r="G107" s="95">
+        <f t="shared" si="7"/>
+        <v>5.0615999999999994</v>
+      </c>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="96"/>
+      <c r="K107" s="21"/>
+      <c r="N107">
+        <v>2.96</v>
+      </c>
+      <c r="O107">
+        <f>(1.67+1.75)/2</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15" customHeight="1">
+      <c r="A108" s="18"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="93"/>
+      <c r="D108" s="94">
+        <f t="shared" si="10"/>
+        <v>0.62</v>
+      </c>
+      <c r="E108" s="94"/>
+      <c r="F108" s="94">
+        <f t="shared" si="11"/>
+        <v>1.72</v>
+      </c>
+      <c r="G108" s="95">
+        <f t="shared" si="7"/>
+        <v>1.0664</v>
+      </c>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="21"/>
+      <c r="N108">
+        <f>0.12+0.11+0.39</f>
+        <v>0.62</v>
+      </c>
+      <c r="O108">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15" customHeight="1">
+      <c r="A109" s="18"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="93"/>
+      <c r="D109" s="94">
+        <f t="shared" si="10"/>
+        <v>2.96</v>
+      </c>
+      <c r="E109" s="94"/>
+      <c r="F109" s="94">
+        <f t="shared" si="11"/>
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="G109" s="95">
+        <f t="shared" si="7"/>
+        <v>5.1355999999999993</v>
+      </c>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="96"/>
+      <c r="K109" s="21"/>
+      <c r="N109">
+        <v>2.96</v>
+      </c>
+      <c r="O109">
+        <f>(1.72+1.75)/2</f>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15" customHeight="1">
+      <c r="A110" s="18"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="94">
+        <f t="shared" si="10"/>
+        <v>0.63</v>
+      </c>
+      <c r="E110" s="94"/>
+      <c r="F110" s="94">
+        <f t="shared" si="11"/>
+        <v>1.7</v>
+      </c>
+      <c r="G110" s="95">
+        <f t="shared" si="7"/>
+        <v>1.071</v>
+      </c>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="96"/>
+      <c r="K110" s="21"/>
+      <c r="N110">
+        <f>0.12+0.13+0.38</f>
+        <v>0.63</v>
+      </c>
+      <c r="O110">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15" customHeight="1">
+      <c r="A111" s="18"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="93"/>
+      <c r="D111" s="94">
+        <f t="shared" si="10"/>
+        <v>2.92</v>
+      </c>
+      <c r="E111" s="94"/>
+      <c r="F111" s="94">
+        <f t="shared" si="11"/>
+        <v>1.635</v>
+      </c>
+      <c r="G111" s="95">
+        <f t="shared" si="7"/>
+        <v>4.7741999999999996</v>
+      </c>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="21"/>
+      <c r="N111">
+        <v>2.92</v>
+      </c>
+      <c r="O111">
+        <f>(1.65+1.62)/2</f>
+        <v>1.635</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15" customHeight="1">
+      <c r="A112" s="18"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="93"/>
+      <c r="D112" s="94">
+        <f t="shared" si="10"/>
+        <v>0.61</v>
+      </c>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="G112" s="95">
+        <f t="shared" si="7"/>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+      <c r="J112" s="96"/>
+      <c r="K112" s="21"/>
+      <c r="N112">
+        <f>0.13+0.1+0.38</f>
+        <v>0.61</v>
+      </c>
+      <c r="O112">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="15" customHeight="1">
+      <c r="A113" s="18"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="94">
+        <f t="shared" si="10"/>
+        <v>0.44</v>
+      </c>
+      <c r="E113" s="94"/>
+      <c r="F113" s="94">
+        <f t="shared" si="11"/>
+        <v>1.55</v>
+      </c>
+      <c r="G113" s="95">
+        <f t="shared" si="7"/>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="96"/>
+      <c r="K113" s="21"/>
+      <c r="M113" t="s">
+        <v>104</v>
+      </c>
+      <c r="N113">
+        <v>0.44</v>
+      </c>
+      <c r="O113">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="15" customHeight="1">
+      <c r="A114" s="18"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="95"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="96"/>
+      <c r="K114" s="21"/>
+      <c r="M114" t="s">
+        <v>105</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="15" customHeight="1">
+      <c r="A115" s="18"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="93"/>
+      <c r="D115" s="94">
+        <f>N115</f>
+        <v>3</v>
+      </c>
+      <c r="E115" s="94"/>
+      <c r="F115" s="94">
+        <f>(O114+O115)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="G115" s="95">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="H115" s="96"/>
+      <c r="I115" s="96"/>
+      <c r="J115" s="96"/>
+      <c r="K115" s="21"/>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="15" customHeight="1">
+      <c r="A116" s="18"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="93"/>
+      <c r="D116" s="94">
+        <f t="shared" ref="D116:D121" si="12">N116</f>
+        <v>3</v>
+      </c>
+      <c r="E116" s="94"/>
+      <c r="F116" s="94">
+        <f t="shared" ref="F116:F119" si="13">(O115+O116)/2</f>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G116" s="95">
+        <f t="shared" si="7"/>
+        <v>4.5749999999999993</v>
+      </c>
+      <c r="H116" s="96"/>
+      <c r="I116" s="96"/>
+      <c r="J116" s="96"/>
+      <c r="K116" s="21"/>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="15" customHeight="1">
+      <c r="A117" s="18"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="94">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E117" s="94"/>
+      <c r="F117" s="94">
+        <f t="shared" si="13"/>
+        <v>1.55</v>
+      </c>
+      <c r="G117" s="95">
+        <f t="shared" si="7"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="96"/>
+      <c r="K117" s="21"/>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="15" customHeight="1">
+      <c r="A118" s="18"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="93"/>
+      <c r="D118" s="94">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E118" s="94"/>
+      <c r="F118" s="94">
+        <f t="shared" si="13"/>
+        <v>1.55</v>
+      </c>
+      <c r="G118" s="95">
+        <f t="shared" si="7"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H118" s="96"/>
+      <c r="I118" s="96"/>
+      <c r="J118" s="96"/>
+      <c r="K118" s="21"/>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="15" customHeight="1">
+      <c r="A119" s="18"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="94">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E119" s="94"/>
+      <c r="F119" s="94">
+        <f t="shared" si="13"/>
+        <v>1.635</v>
+      </c>
+      <c r="G119" s="95">
+        <f t="shared" si="7"/>
+        <v>4.9050000000000002</v>
+      </c>
+      <c r="H119" s="96"/>
+      <c r="I119" s="96"/>
+      <c r="J119" s="96"/>
+      <c r="K119" s="21"/>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="15" customHeight="1">
+      <c r="A120" s="18"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="93"/>
+      <c r="D120" s="94">
+        <f t="shared" si="12"/>
+        <v>3.06</v>
+      </c>
+      <c r="E120" s="94"/>
+      <c r="F120" s="94">
+        <f>O120</f>
+        <v>1.65</v>
+      </c>
+      <c r="G120" s="95">
+        <f t="shared" si="7"/>
+        <v>5.0489999999999995</v>
+      </c>
+      <c r="H120" s="96"/>
+      <c r="I120" s="96"/>
+      <c r="J120" s="96"/>
+      <c r="K120" s="21"/>
+      <c r="N120">
+        <v>3.06</v>
+      </c>
+      <c r="O120">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="15" customHeight="1">
+      <c r="A121" s="18"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="94">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
+      <c r="E121" s="94"/>
+      <c r="F121" s="94">
+        <f>O121</f>
+        <v>1.61</v>
+      </c>
+      <c r="G121" s="95">
+        <f t="shared" si="7"/>
+        <v>0.2576</v>
+      </c>
+      <c r="H121" s="96"/>
+      <c r="I121" s="96"/>
+      <c r="J121" s="96"/>
+      <c r="K121" s="21"/>
+      <c r="M121" t="s">
+        <v>106</v>
+      </c>
+      <c r="N121">
+        <v>0.16</v>
+      </c>
+      <c r="O121">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="15" customHeight="1">
+      <c r="A122" s="18"/>
+      <c r="B122" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="93">
+        <v>10</v>
+      </c>
+      <c r="D122" s="94">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E122" s="94"/>
+      <c r="F122" s="94">
+        <v>1.2</v>
+      </c>
+      <c r="G122" s="95">
+        <f t="shared" si="7"/>
+        <v>10.057909174032307</v>
+      </c>
+      <c r="H122" s="96"/>
+      <c r="I122" s="96"/>
+      <c r="J122" s="96"/>
+      <c r="K122" s="21"/>
+      <c r="M122" t="s">
+        <v>107</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="15" customHeight="1">
+      <c r="A123" s="18"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="93"/>
+      <c r="D123" s="94">
+        <f>N123</f>
+        <v>0.6</v>
+      </c>
+      <c r="E123" s="94"/>
+      <c r="F123" s="94">
+        <f>(O122+O123)/2</f>
+        <v>1.6</v>
+      </c>
+      <c r="G123" s="95">
+        <f t="shared" si="7"/>
+        <v>0.96</v>
+      </c>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+      <c r="J123" s="96"/>
+      <c r="K123" s="21"/>
+      <c r="N123">
+        <v>0.6</v>
+      </c>
+      <c r="O123">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="15" customHeight="1">
+      <c r="A124" s="18"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="94">
+        <f>N124</f>
+        <v>15</v>
+      </c>
+      <c r="E124" s="94"/>
+      <c r="F124" s="94">
+        <f>O124</f>
+        <v>0.2</v>
+      </c>
+      <c r="G124" s="95">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H124" s="96"/>
+      <c r="I124" s="96"/>
+      <c r="J124" s="96"/>
+      <c r="K124" s="21"/>
+      <c r="M124" t="s">
+        <v>108</v>
+      </c>
+      <c r="N124">
+        <v>15</v>
+      </c>
+      <c r="O124">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="15" customHeight="1">
+      <c r="A125" s="18"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="95"/>
+      <c r="H125" s="96"/>
+      <c r="I125" s="96"/>
+      <c r="J125" s="96"/>
+      <c r="K125" s="21"/>
+      <c r="M125" t="s">
+        <v>109</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1.75</v>
+      </c>
+      <c r="P125" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="15" customHeight="1">
+      <c r="A126" s="18"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="94">
+        <f>N126</f>
+        <v>4</v>
+      </c>
+      <c r="E126" s="94"/>
+      <c r="F126" s="94">
+        <f>O126</f>
+        <v>1.75</v>
+      </c>
+      <c r="G126" s="95">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="21"/>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15" customHeight="1">
+      <c r="A127" s="18"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="94">
+        <f t="shared" ref="D127:D144" si="14">N127</f>
+        <v>4</v>
+      </c>
+      <c r="E127" s="94"/>
+      <c r="F127" s="94">
+        <f t="shared" ref="F127:F144" si="15">O127</f>
+        <v>1.75</v>
+      </c>
+      <c r="G127" s="95">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H127" s="96"/>
+      <c r="I127" s="96"/>
+      <c r="J127" s="96"/>
+      <c r="K127" s="21"/>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="15" customHeight="1">
+      <c r="A128" s="18"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="94">
+        <f t="shared" si="14"/>
+        <v>4.21</v>
+      </c>
+      <c r="E128" s="94"/>
+      <c r="F128" s="94">
+        <f t="shared" si="15"/>
+        <v>1.75</v>
+      </c>
+      <c r="G128" s="95">
+        <f t="shared" si="7"/>
+        <v>7.3674999999999997</v>
+      </c>
+      <c r="H128" s="96"/>
+      <c r="I128" s="96"/>
+      <c r="J128" s="96"/>
+      <c r="K128" s="21"/>
+      <c r="N128">
+        <f>(4.59-0.38)</f>
+        <v>4.21</v>
+      </c>
+      <c r="O128">
+        <v>1.75</v>
+      </c>
+      <c r="P128" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="15" customHeight="1">
+      <c r="A129" s="18"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="93"/>
+      <c r="D129" s="94">
+        <f t="shared" si="14"/>
+        <v>0.49</v>
+      </c>
+      <c r="E129" s="94"/>
+      <c r="F129" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G129" s="95">
+        <f t="shared" si="7"/>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="H129" s="96"/>
+      <c r="I129" s="96"/>
+      <c r="J129" s="96"/>
+      <c r="K129" s="21"/>
+      <c r="N129">
+        <f>0.38+0.11</f>
+        <v>0.49</v>
+      </c>
+      <c r="O129">
+        <v>2.1</v>
+      </c>
+      <c r="P129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="15" customHeight="1">
+      <c r="A130" s="18"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="94">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="94"/>
+      <c r="F130" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G130" s="95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H130" s="96"/>
+      <c r="I130" s="96"/>
+      <c r="J130" s="96"/>
+      <c r="K130" s="21"/>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="15" customHeight="1">
+      <c r="A131" s="18"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="94">
+        <f t="shared" si="14"/>
+        <v>3.17</v>
+      </c>
+      <c r="E131" s="94"/>
+      <c r="F131" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G131" s="95">
+        <f t="shared" si="7"/>
+        <v>6.657</v>
+      </c>
+      <c r="H131" s="96"/>
+      <c r="I131" s="96"/>
+      <c r="J131" s="96"/>
+      <c r="K131" s="21"/>
+      <c r="N131">
+        <v>3.17</v>
+      </c>
+      <c r="O131">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="15" customHeight="1">
+      <c r="A132" s="18"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="94">
+        <f t="shared" si="14"/>
+        <v>0.48</v>
+      </c>
+      <c r="E132" s="94"/>
+      <c r="F132" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G132" s="95">
+        <f t="shared" si="7"/>
+        <v>1.008</v>
+      </c>
+      <c r="H132" s="96"/>
+      <c r="I132" s="96"/>
+      <c r="J132" s="96"/>
+      <c r="K132" s="21"/>
+      <c r="N132">
+        <f>0.1+0.28+0.1</f>
+        <v>0.48</v>
+      </c>
+      <c r="O132">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="15" customHeight="1">
+      <c r="A133" s="18"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="94">
+        <f t="shared" si="14"/>
+        <v>3.11</v>
+      </c>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G133" s="95">
+        <f t="shared" si="7"/>
+        <v>6.5309999999999997</v>
+      </c>
+      <c r="H133" s="96"/>
+      <c r="I133" s="96"/>
+      <c r="J133" s="96"/>
+      <c r="K133" s="21"/>
+      <c r="N133">
+        <v>3.11</v>
+      </c>
+      <c r="O133">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="15" customHeight="1">
+      <c r="A134" s="18"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="94">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="E134" s="94"/>
+      <c r="F134" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G134" s="95">
+        <f t="shared" si="7"/>
+        <v>1.26</v>
+      </c>
+      <c r="H134" s="96"/>
+      <c r="I134" s="96"/>
+      <c r="J134" s="96"/>
+      <c r="K134" s="21"/>
+      <c r="N134">
+        <f>0.11+0.38+0.11</f>
+        <v>0.6</v>
+      </c>
+      <c r="O134">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="15" customHeight="1">
+      <c r="A135" s="18"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="93"/>
+      <c r="D135" s="94">
+        <f t="shared" si="14"/>
+        <v>3.1</v>
+      </c>
+      <c r="E135" s="94"/>
+      <c r="F135" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G135" s="95">
+        <f t="shared" si="7"/>
+        <v>6.5100000000000007</v>
+      </c>
+      <c r="H135" s="96"/>
+      <c r="I135" s="96"/>
+      <c r="J135" s="96"/>
+      <c r="K135" s="21"/>
+      <c r="N135">
+        <v>3.1</v>
+      </c>
+      <c r="O135">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="15" customHeight="1">
+      <c r="A136" s="18"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="94">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="E136" s="94"/>
+      <c r="F136" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1</v>
+      </c>
+      <c r="G136" s="95">
+        <f t="shared" si="7"/>
+        <v>1.26</v>
+      </c>
+      <c r="H136" s="96"/>
+      <c r="I136" s="96"/>
+      <c r="J136" s="96"/>
+      <c r="K136" s="21"/>
+      <c r="N136">
+        <f>0.11+0.38+0.11</f>
+        <v>0.6</v>
+      </c>
+      <c r="O136">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="15" customHeight="1">
+      <c r="A137" s="18"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="94">
+        <f t="shared" si="14"/>
+        <v>3.11</v>
+      </c>
+      <c r="E137" s="94"/>
+      <c r="F137" s="94">
+        <f t="shared" si="15"/>
+        <v>2.1550000000000002</v>
+      </c>
+      <c r="G137" s="95">
+        <f t="shared" si="7"/>
+        <v>6.7020500000000007</v>
+      </c>
+      <c r="H137" s="96"/>
+      <c r="I137" s="96"/>
+      <c r="J137" s="96"/>
+      <c r="K137" s="21"/>
+      <c r="N137">
+        <v>3.11</v>
+      </c>
+      <c r="O137">
+        <f>(2.1+2.21)/2</f>
+        <v>2.1550000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="15" customHeight="1">
+      <c r="A138" s="18"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="93"/>
+      <c r="D138" s="94">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="E138" s="94"/>
+      <c r="F138" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G138" s="95">
+        <f t="shared" si="7"/>
+        <v>1.32</v>
+      </c>
+      <c r="H138" s="96"/>
+      <c r="I138" s="96"/>
+      <c r="J138" s="96"/>
+      <c r="K138" s="21"/>
+      <c r="N138">
+        <f>0.11+0.39+0.1</f>
+        <v>0.6</v>
+      </c>
+      <c r="O138">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="15" customHeight="1">
+      <c r="A139" s="18"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="94">
+        <f t="shared" si="14"/>
+        <v>3.1</v>
+      </c>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G139" s="95">
+        <f t="shared" si="7"/>
+        <v>6.9440000000000008</v>
+      </c>
+      <c r="H139" s="96"/>
+      <c r="I139" s="96"/>
+      <c r="J139" s="96"/>
+      <c r="K139" s="21"/>
+      <c r="N139">
+        <v>3.1</v>
+      </c>
+      <c r="O139">
+        <f>(2.2+2.28)/2</f>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="15" customHeight="1">
+      <c r="A140" s="18"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="94">
+        <f t="shared" si="14"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E140" s="94"/>
+      <c r="F140" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G140" s="95">
+        <f t="shared" si="7"/>
+        <v>1.276</v>
+      </c>
+      <c r="H140" s="96"/>
+      <c r="I140" s="96"/>
+      <c r="J140" s="96"/>
+      <c r="K140" s="21"/>
+      <c r="N140">
+        <f>0.1+0.38+0.1</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O140">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="15" customHeight="1">
+      <c r="A141" s="18"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="93"/>
+      <c r="D141" s="94">
+        <f t="shared" si="14"/>
+        <v>3.15</v>
+      </c>
+      <c r="E141" s="94"/>
+      <c r="F141" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="G141" s="95">
+        <f t="shared" si="7"/>
+        <v>7.1662499999999998</v>
+      </c>
+      <c r="H141" s="96"/>
+      <c r="I141" s="96"/>
+      <c r="J141" s="96"/>
+      <c r="K141" s="21"/>
+      <c r="N141">
+        <v>3.15</v>
+      </c>
+      <c r="O141">
+        <f>(2.3+2.25)/2</f>
+        <v>2.2749999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="15" customHeight="1">
+      <c r="A142" s="18"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="93"/>
+      <c r="D142" s="94">
+        <f t="shared" si="14"/>
+        <v>3.25</v>
+      </c>
+      <c r="E142" s="94"/>
+      <c r="F142" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G142" s="95">
+        <f t="shared" si="7"/>
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="H142" s="96"/>
+      <c r="I142" s="96"/>
+      <c r="J142" s="96"/>
+      <c r="K142" s="21"/>
+      <c r="N142">
+        <v>3.25</v>
+      </c>
+      <c r="O142">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="15" customHeight="1">
+      <c r="A143" s="18"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="94">
+        <f t="shared" si="14"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E143" s="94"/>
+      <c r="F143" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G143" s="95">
+        <f t="shared" si="7"/>
+        <v>1.3109999999999997</v>
+      </c>
+      <c r="H143" s="96"/>
+      <c r="I143" s="96"/>
+      <c r="J143" s="96"/>
+      <c r="K143" s="21"/>
+      <c r="N143">
+        <f>0.11+0.36+0.1</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O143">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="15" customHeight="1">
+      <c r="A144" s="18"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="94">
+        <f t="shared" si="14"/>
+        <v>0.97</v>
+      </c>
+      <c r="E144" s="94"/>
+      <c r="F144" s="94">
+        <f t="shared" si="15"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G144" s="95">
+        <f t="shared" si="7"/>
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="H144" s="96"/>
+      <c r="I144" s="96"/>
+      <c r="J144" s="96"/>
+      <c r="K144" s="21"/>
+      <c r="N144">
+        <f>0.11+0.38+0.38+0.1</f>
+        <v>0.97</v>
+      </c>
+      <c r="O144">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15" customHeight="1">
+      <c r="A145" s="18"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="94"/>
+      <c r="F145" s="94"/>
+      <c r="G145" s="95"/>
+      <c r="H145" s="96"/>
+      <c r="I145" s="96"/>
+      <c r="J145" s="96"/>
+      <c r="K145" s="21"/>
+      <c r="M145" t="s">
+        <v>113</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="15" customHeight="1">
+      <c r="A146" s="18"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="94">
+        <f>N146</f>
+        <v>0.48</v>
+      </c>
+      <c r="E146" s="94"/>
+      <c r="F146" s="94">
+        <f>O146</f>
+        <v>1.75</v>
+      </c>
+      <c r="G146" s="95">
+        <f t="shared" si="7"/>
+        <v>0.84</v>
+      </c>
+      <c r="H146" s="96"/>
+      <c r="I146" s="96"/>
+      <c r="J146" s="96"/>
+      <c r="K146" s="21"/>
+      <c r="N146">
+        <f>0.38+0.1</f>
+        <v>0.48</v>
+      </c>
+      <c r="O146">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="15" customHeight="1">
+      <c r="A147" s="18"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="93"/>
+      <c r="D147" s="94">
+        <f t="shared" ref="D147:D154" si="16">N147</f>
+        <v>2.75</v>
+      </c>
+      <c r="E147" s="94"/>
+      <c r="F147" s="94">
+        <f t="shared" ref="F147:F154" si="17">O147</f>
+        <v>1.75</v>
+      </c>
+      <c r="G147" s="95">
+        <f t="shared" si="7"/>
+        <v>4.8125</v>
+      </c>
+      <c r="H147" s="96"/>
+      <c r="I147" s="96"/>
+      <c r="J147" s="96"/>
+      <c r="K147" s="21"/>
+      <c r="N147">
+        <v>2.75</v>
+      </c>
+      <c r="O147">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15" customHeight="1">
+      <c r="A148" s="18"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="94">
+        <f t="shared" si="16"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E148" s="94"/>
+      <c r="F148" s="94">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="G148" s="95">
+        <f t="shared" si="7"/>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="H148" s="96"/>
+      <c r="I148" s="96"/>
+      <c r="J148" s="96"/>
+      <c r="K148" s="21"/>
+      <c r="N148">
+        <f>0.36+0.1+0.11</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O148">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15" customHeight="1">
+      <c r="A149" s="18"/>
+      <c r="B149" s="92"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="94">
+        <f t="shared" si="16"/>
+        <v>2.65</v>
+      </c>
+      <c r="E149" s="94"/>
+      <c r="F149" s="94">
+        <f>(O148+O149)/2</f>
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="G149" s="95">
+        <f t="shared" si="7"/>
+        <v>4.7037499999999994</v>
+      </c>
+      <c r="H149" s="96"/>
+      <c r="I149" s="96"/>
+      <c r="J149" s="96"/>
+      <c r="K149" s="21"/>
+      <c r="N149">
+        <v>2.65</v>
+      </c>
+      <c r="O149">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15" customHeight="1">
+      <c r="A150" s="18"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="93"/>
+      <c r="D150" s="94">
+        <f t="shared" si="16"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E150" s="94"/>
+      <c r="F150" s="94">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="G150" s="95">
+        <f t="shared" si="7"/>
+        <v>1.044</v>
+      </c>
+      <c r="H150" s="96"/>
+      <c r="I150" s="96"/>
+      <c r="J150" s="96"/>
+      <c r="K150" s="21"/>
+      <c r="N150">
+        <f>0.36+0.11+0.11</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O150">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="15" customHeight="1">
+      <c r="A151" s="18"/>
+      <c r="B151" s="92"/>
+      <c r="C151" s="93"/>
+      <c r="D151" s="94">
+        <f t="shared" si="16"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E151" s="94"/>
+      <c r="F151" s="94">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="G151" s="95">
+        <f t="shared" si="7"/>
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="H151" s="96"/>
+      <c r="I151" s="96"/>
+      <c r="J151" s="96"/>
+      <c r="K151" s="21"/>
+      <c r="N151">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O151">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="15" customHeight="1">
+      <c r="A152" s="18"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="93"/>
+      <c r="D152" s="94">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="E152" s="94"/>
+      <c r="F152" s="94">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="G152" s="95">
+        <f t="shared" si="7"/>
+        <v>1.08</v>
+      </c>
+      <c r="H152" s="96"/>
+      <c r="I152" s="96"/>
+      <c r="J152" s="96"/>
+      <c r="K152" s="21"/>
+      <c r="N152">
+        <f>0.37+0.11+0.12</f>
+        <v>0.6</v>
+      </c>
+      <c r="O152">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15" customHeight="1">
+      <c r="A153" s="18"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="94">
+        <f t="shared" si="16"/>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E153" s="94"/>
+      <c r="F153" s="94">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+      <c r="G153" s="95">
+        <f t="shared" si="7"/>
+        <v>4.9375190490704055</v>
+      </c>
+      <c r="H153" s="96"/>
+      <c r="I153" s="96"/>
+      <c r="J153" s="96"/>
+      <c r="K153" s="21"/>
+      <c r="N153">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="O153">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="15" customHeight="1">
+      <c r="A154" s="18"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="93"/>
+      <c r="D154" s="94">
+        <f t="shared" si="16"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E154" s="94"/>
+      <c r="F154" s="94">
+        <f t="shared" si="17"/>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G154" s="95">
+        <f t="shared" si="7"/>
+        <v>1.2374276135324593</v>
+      </c>
+      <c r="H154" s="96"/>
+      <c r="I154" s="96"/>
+      <c r="J154" s="96"/>
+      <c r="K154" s="21"/>
+      <c r="N154">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O154">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="15" customHeight="1">
+      <c r="A155" s="18"/>
+      <c r="B155" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="93">
+        <v>1</v>
+      </c>
+      <c r="D155" s="94">
+        <v>15</v>
+      </c>
+      <c r="E155" s="94"/>
+      <c r="F155" s="94">
+        <v>0.45</v>
+      </c>
+      <c r="G155" s="95">
+        <f t="shared" si="7"/>
+        <v>6.75</v>
+      </c>
+      <c r="H155" s="96"/>
+      <c r="I155" s="96"/>
+      <c r="J155" s="96"/>
+      <c r="K155" s="21"/>
+    </row>
+    <row r="156" spans="1:15" ht="15" customHeight="1">
+      <c r="A156" s="18"/>
+      <c r="B156" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="86"/>
+      <c r="D156" s="87"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="89">
+        <f>SUM(G91:G155)</f>
+        <v>219.30700583663517</v>
+      </c>
+      <c r="H156" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="I156" s="89">
+        <v>405.86</v>
+      </c>
+      <c r="J156" s="91">
+        <f>G156*I156</f>
+        <v>89007.941388856751</v>
+      </c>
+      <c r="K156" s="21"/>
+    </row>
+    <row r="157" spans="1:15" ht="15" customHeight="1">
+      <c r="A157" s="18"/>
+      <c r="B157" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="86"/>
+      <c r="D157" s="87"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="89"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="89"/>
+      <c r="J157" s="91">
+        <f>0.13*G156*11166.2/100</f>
+        <v>3183.4736551449464</v>
+      </c>
+      <c r="K157" s="21"/>
+    </row>
+    <row r="158" spans="1:15" ht="15" customHeight="1">
+      <c r="A158" s="18"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="87"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="89"/>
+      <c r="J158" s="91"/>
+      <c r="K158" s="21"/>
+    </row>
+    <row r="159" spans="1:15" ht="77.25">
+      <c r="A159" s="18">
+        <v>11</v>
+      </c>
+      <c r="B159" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159" s="81"/>
+      <c r="D159" s="81"/>
+      <c r="E159" s="81"/>
+      <c r="F159" s="81"/>
+      <c r="G159" s="81"/>
+      <c r="H159" s="81"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="82"/>
+      <c r="K159" s="21"/>
+    </row>
+    <row r="160" spans="1:15" ht="15" customHeight="1">
+      <c r="A160" s="18"/>
+      <c r="B160" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" s="19">
+        <v>6</v>
+      </c>
+      <c r="D160" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21">
+        <f>5.42/3.281</f>
+        <v>1.6519353855531849</v>
+      </c>
+      <c r="G160" s="84">
+        <f t="shared" ref="G160" si="18">PRODUCT(C160:F160)</f>
+        <v>11.893934775982929</v>
+      </c>
+      <c r="H160" s="22"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="82"/>
+      <c r="K160" s="21"/>
+    </row>
+    <row r="161" spans="1:13" ht="15" customHeight="1">
+      <c r="A161" s="18"/>
+      <c r="B161" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="23">
+        <f>SUM(G160:G160)</f>
+        <v>11.893934775982929</v>
+      </c>
+      <c r="H161" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I161" s="23">
+        <v>2575.34</v>
+      </c>
+      <c r="J161" s="82">
+        <f>G161*I161</f>
+        <v>30630.92598597988</v>
+      </c>
+      <c r="K161" s="21"/>
+      <c r="M161">
+        <f>26*6*181.17</f>
+        <v>28262.519999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15" customHeight="1">
+      <c r="A162" s="18"/>
+      <c r="B162" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="19"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="23"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="82">
+        <f>0.13*G161*24343.96/10</f>
+        <v>3764.0911415787864</v>
+      </c>
+      <c r="K162" s="21"/>
+    </row>
+    <row r="163" spans="1:13" ht="15" customHeight="1">
+      <c r="A163" s="18"/>
+      <c r="B163" s="83"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="23"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="23"/>
+      <c r="J163" s="82"/>
+      <c r="K163" s="21"/>
+    </row>
+    <row r="164" spans="1:13" ht="30.75">
+      <c r="A164" s="18">
+        <v>12</v>
+      </c>
+      <c r="B164" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="60"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
+      <c r="I164" s="23"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="21"/>
+    </row>
+    <row r="165" spans="1:13" ht="15" customHeight="1">
+      <c r="A165" s="18"/>
+      <c r="B165" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" s="19">
+        <v>0</v>
+      </c>
+      <c r="D165" s="20">
+        <f>(5.17+15.5+27+10.917+70+53.5+21.333+24.5+41.17+4.667+39.75)/3.281</f>
+        <v>95.552270649192295</v>
+      </c>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="38">
+        <f t="shared" ref="G165" si="19">PRODUCT(C165:F165)</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="22"/>
+      <c r="I165" s="23"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="21"/>
+    </row>
+    <row r="166" spans="1:13" ht="15" customHeight="1">
+      <c r="A166" s="18"/>
+      <c r="B166" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="23">
+        <f>SUM(G165:G165)</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I166" s="23">
+        <v>82.59</v>
+      </c>
+      <c r="J166" s="40">
+        <f>G166*I166</f>
+        <v>0</v>
+      </c>
+      <c r="K166" s="21"/>
+    </row>
+    <row r="167" spans="1:13" ht="15" customHeight="1">
+      <c r="A167" s="18"/>
+      <c r="B167" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="23"/>
+      <c r="J167" s="40">
+        <f>0.13*G166*1992.14/100</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="21"/>
+    </row>
+    <row r="168" spans="1:13" ht="15" customHeight="1">
+      <c r="A168" s="18"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="23"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="23"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="21"/>
+    </row>
+    <row r="169" spans="1:13" ht="135.75">
+      <c r="A169" s="18">
+        <v>13</v>
+      </c>
+      <c r="B169" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="23"/>
+      <c r="J169" s="40"/>
+      <c r="K169" s="21"/>
+    </row>
+    <row r="170" spans="1:13" ht="15" customHeight="1">
+      <c r="A170" s="18"/>
+      <c r="B170" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C170" s="19">
+        <v>0</v>
+      </c>
+      <c r="D170" s="20">
+        <f>(13.5+12.333)/3.281</f>
+        <v>7.873514172508381</v>
+      </c>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="38">
+        <f t="shared" ref="G170" si="20">PRODUCT(C170:F170)</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="22"/>
+      <c r="I170" s="23"/>
+      <c r="J170" s="40"/>
+      <c r="K170" s="21"/>
+    </row>
+    <row r="171" spans="1:13" ht="15" customHeight="1">
+      <c r="A171" s="18"/>
+      <c r="B171" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="23">
+        <f>SUM(G170:G170)</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I171" s="23">
+        <v>4132.8</v>
+      </c>
+      <c r="J171" s="40">
+        <f>G171*I171</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="21"/>
+    </row>
+    <row r="172" spans="1:13" ht="15" customHeight="1">
+      <c r="A172" s="18"/>
+      <c r="B172" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="23"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="23"/>
+      <c r="J172" s="40">
+        <f>0.13*G171*4132.8</f>
+        <v>0</v>
+      </c>
+      <c r="K172" s="21"/>
+    </row>
+    <row r="173" spans="1:13" ht="15" customHeight="1">
+      <c r="A173" s="18"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="23"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="21"/>
+    </row>
+    <row r="174" spans="1:13" ht="30.75">
+      <c r="A174" s="18">
+        <v>14</v>
+      </c>
+      <c r="B174" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="E174" s="144"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="23"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="23"/>
+      <c r="J174" s="40"/>
+      <c r="K174" s="21"/>
+    </row>
+    <row r="175" spans="1:13" ht="15" customHeight="1">
+      <c r="A175" s="18"/>
+      <c r="B175" s="36" t="str">
+        <f>B91</f>
+        <v>-wall</v>
+      </c>
+      <c r="C175" s="19">
+        <v>1</v>
+      </c>
+      <c r="D175" s="143">
+        <f>G156</f>
+        <v>219.30700583663517</v>
+      </c>
+      <c r="E175" s="144"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="38">
+        <f t="shared" ref="G175" si="21">PRODUCT(C175:F175)</f>
+        <v>219.30700583663517</v>
+      </c>
+      <c r="H175" s="22"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="21"/>
+    </row>
+    <row r="176" spans="1:13" ht="15" customHeight="1">
+      <c r="A176" s="18"/>
+      <c r="B176" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="23">
+        <f>SUM(G175:G175)</f>
+        <v>219.30700583663517</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I176" s="23">
+        <v>251.77</v>
+      </c>
+      <c r="J176" s="40">
+        <f>G176*I176</f>
+        <v>55214.924859489642</v>
+      </c>
+      <c r="K176" s="21"/>
+    </row>
+    <row r="177" spans="1:13" ht="15" customHeight="1">
+      <c r="A177" s="18"/>
+      <c r="B177" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" s="19"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="40">
+        <f>0.13*G176*12736/100</f>
+        <v>3631.0222342360012</v>
+      </c>
+      <c r="K177" s="21"/>
+    </row>
+    <row r="178" spans="1:13" ht="15" customHeight="1">
+      <c r="A178" s="18"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="21"/>
+    </row>
+    <row r="179" spans="1:13" ht="30.6" customHeight="1">
+      <c r="A179" s="18">
+        <v>15</v>
+      </c>
+      <c r="B179" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F179" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G179" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H179" s="22"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="40"/>
+      <c r="K179" s="145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="28.15" customHeight="1">
+      <c r="A180" s="18"/>
+      <c r="B180" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" s="19">
+        <f>0*4</f>
+        <v>0</v>
+      </c>
+      <c r="D180" s="20">
+        <f>(3.333*3+8.333*2)/3.281</f>
+        <v>8.1270953977445899</v>
+      </c>
+      <c r="E180" s="21">
+        <v>1.04</v>
+      </c>
+      <c r="F180" s="21">
+        <f>PRODUCT(C180:E180)</f>
+        <v>0</v>
+      </c>
+      <c r="G180" s="69">
+        <f>F180</f>
+        <v>0</v>
+      </c>
+      <c r="H180" s="22"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="146"/>
+      <c r="M180">
+        <f>61.5*2+26*6</f>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="28.15" customHeight="1">
+      <c r="A181" s="18"/>
+      <c r="B181" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C181" s="19">
+        <v>2</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21">
+        <v>61</v>
+      </c>
+      <c r="G181" s="69">
+        <f>F181</f>
+        <v>61</v>
+      </c>
+      <c r="H181" s="22"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="146"/>
+    </row>
+    <row r="182" spans="1:13" ht="28.15" customHeight="1">
+      <c r="A182" s="18"/>
+      <c r="B182" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C182" s="19">
+        <v>6</v>
+      </c>
+      <c r="D182" s="20">
+        <v>2.54</v>
+      </c>
+      <c r="E182" s="21">
+        <v>2</v>
+      </c>
+      <c r="F182" s="21">
+        <f>PRODUCT(C182:E182)</f>
+        <v>30.48</v>
+      </c>
+      <c r="G182" s="69">
+        <f>F182</f>
+        <v>30.48</v>
+      </c>
+      <c r="H182" s="22"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="118"/>
+    </row>
+    <row r="183" spans="1:13" ht="15" customHeight="1">
+      <c r="A183" s="18"/>
+      <c r="B183" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="23">
+        <f>SUM(G180:G182)</f>
+        <v>91.48</v>
+      </c>
+      <c r="H183" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I183" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J183" s="40">
+        <f>G183*I183</f>
+        <v>16573.4316</v>
+      </c>
+      <c r="K183" s="21"/>
+    </row>
+    <row r="184" spans="1:13" ht="15" customHeight="1">
+      <c r="A184" s="18"/>
+      <c r="B184" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" s="19"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="23"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="40">
+        <f>0.13*G183*1871.42/18.94</f>
+        <v>1175.0620489968321</v>
+      </c>
+      <c r="K184" s="21"/>
+    </row>
+    <row r="185" spans="1:13" ht="15" customHeight="1">
+      <c r="A185" s="18"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="1:13" ht="30.75">
+      <c r="A186" s="18">
+        <v>16</v>
+      </c>
+      <c r="B186" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C186" s="19"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="23"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="21"/>
+    </row>
+    <row r="187" spans="1:13" ht="15" customHeight="1">
+      <c r="A187" s="18"/>
+      <c r="B187" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C187" s="19">
+        <v>0</v>
+      </c>
+      <c r="D187" s="20">
+        <v>3.23</v>
+      </c>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="G187" s="38">
+        <f t="shared" ref="G187" si="22">PRODUCT(C187:F187)</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="22"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="21"/>
+    </row>
+    <row r="188" spans="1:13" ht="15" customHeight="1">
+      <c r="A188" s="18"/>
+      <c r="B188" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="23">
+        <f>SUM(G187:G187)</f>
+        <v>0</v>
+      </c>
+      <c r="H188" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I188" s="23">
+        <v>6391.43</v>
+      </c>
+      <c r="J188" s="40">
+        <f>G188*I188</f>
+        <v>0</v>
+      </c>
+      <c r="K188" s="21"/>
+    </row>
+    <row r="189" spans="1:13" ht="15" customHeight="1">
+      <c r="A189" s="18"/>
+      <c r="B189" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="23"/>
+      <c r="J189" s="40">
+        <f>0.13*J188</f>
+        <v>0</v>
+      </c>
+      <c r="K189" s="21"/>
+    </row>
+    <row r="190" spans="1:13" ht="15" customHeight="1">
+      <c r="A190" s="18"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="21"/>
+    </row>
+    <row r="191" spans="1:13" ht="15" customHeight="1">
+      <c r="A191" s="18">
+        <v>17</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C191" s="19">
+        <v>0</v>
+      </c>
+      <c r="D191" s="20"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="33">
+        <f t="shared" ref="G191" si="23">PRODUCT(C191:F191)</f>
+        <v>0</v>
+      </c>
+      <c r="H191" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I191" s="23">
+        <v>5000</v>
+      </c>
+      <c r="J191" s="33">
+        <f>G191*I191</f>
+        <v>0</v>
+      </c>
+      <c r="K191" s="21"/>
+    </row>
+    <row r="192" spans="1:13" ht="15" customHeight="1">
+      <c r="A192" s="18"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="23"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="21"/>
+    </row>
+    <row r="193" spans="1:17" ht="15" customHeight="1">
+      <c r="A193" s="18">
+        <v>18</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="19">
+        <v>1</v>
+      </c>
+      <c r="D193" s="20"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="33">
+        <f t="shared" ref="G193" si="24">PRODUCT(C193:F193)</f>
+        <v>1</v>
+      </c>
+      <c r="H193" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" s="23">
+        <v>500</v>
+      </c>
+      <c r="J193" s="33">
+        <f>G193*I193</f>
+        <v>500</v>
+      </c>
+      <c r="K193" s="21"/>
+    </row>
+    <row r="194" spans="1:17" ht="15" customHeight="1">
+      <c r="A194" s="18"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="21"/>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="39"/>
+      <c r="B195" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="42"/>
+      <c r="D195" s="37"/>
+      <c r="E195" s="37"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="40"/>
+      <c r="H195" s="40"/>
+      <c r="I195" s="40"/>
+      <c r="J195" s="40">
+        <f>SUM(J10:J193)</f>
+        <v>558216.49689214339</v>
+      </c>
+      <c r="K195" s="35"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="53"/>
+      <c r="B196" s="56"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="54"/>
+      <c r="G196" s="55"/>
+      <c r="H196" s="55"/>
+      <c r="I196" s="55"/>
+      <c r="J196" s="55"/>
+      <c r="K196" s="52"/>
+    </row>
+    <row r="197" spans="1:17" s="1" customFormat="1">
+      <c r="A197" s="45"/>
+      <c r="B197" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" s="121">
+        <f>J195</f>
+        <v>558216.49689214339</v>
+      </c>
+      <c r="D197" s="121"/>
+      <c r="E197" s="38">
+        <v>100</v>
+      </c>
+      <c r="F197" s="46"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="48"/>
+      <c r="J197" s="49"/>
+      <c r="K197" s="50"/>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" s="51"/>
+      <c r="B198" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="124">
+        <v>500000</v>
+      </c>
+      <c r="D198" s="124"/>
+      <c r="E198" s="38"/>
+      <c r="F198" s="44"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
+      <c r="J198" s="53"/>
+      <c r="K198" s="52"/>
+      <c r="L198" s="34"/>
+      <c r="M198" s="34"/>
+      <c r="N198" s="34"/>
+      <c r="O198" s="34"/>
+      <c r="P198" s="34"/>
+      <c r="Q198" s="34"/>
+    </row>
+    <row r="199" spans="1:17" ht="14.45" customHeight="1">
+      <c r="A199" s="51"/>
+      <c r="B199" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="124">
+        <f>C198-C201-C202</f>
+        <v>475000</v>
+      </c>
+      <c r="D199" s="124"/>
+      <c r="E199" s="38">
+        <f>C199/C197*100</f>
+        <v>85.092433248488859</v>
+      </c>
+      <c r="F199" s="44"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="53"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="25"/>
+      <c r="K199" s="25"/>
+      <c r="L199" s="25"/>
+      <c r="M199" s="25"/>
+      <c r="N199" s="25"/>
+      <c r="O199" s="25"/>
+      <c r="P199" s="25"/>
+      <c r="Q199" s="34"/>
+    </row>
+    <row r="200" spans="1:17" ht="14.45" customHeight="1">
+      <c r="A200" s="51"/>
+      <c r="B200" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="121">
+        <f>C197-C199</f>
+        <v>83216.49689214339</v>
+      </c>
+      <c r="D200" s="121"/>
+      <c r="E200" s="38">
+        <f>100-E199</f>
+        <v>14.907566751511141</v>
+      </c>
+      <c r="F200" s="44"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="53"/>
+      <c r="I200" s="25"/>
+      <c r="J200" s="25"/>
+      <c r="K200" s="25"/>
+      <c r="L200" s="25"/>
+      <c r="M200" s="25"/>
+      <c r="N200" s="25"/>
+      <c r="O200" s="25"/>
+      <c r="P200" s="25"/>
+      <c r="Q200" s="34"/>
+    </row>
+    <row r="201" spans="1:17">
+      <c r="A201" s="51"/>
+      <c r="B201" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="121">
+        <f>C198*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D201" s="121"/>
+      <c r="E201" s="38">
+        <v>3</v>
+      </c>
+      <c r="F201" s="44"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="53"/>
+      <c r="I201" s="53"/>
+      <c r="J201" s="53"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="34"/>
+      <c r="M201" s="34"/>
+      <c r="N201" s="34"/>
+      <c r="O201" s="34"/>
+      <c r="P201" s="34"/>
+      <c r="Q201" s="34"/>
+    </row>
+    <row r="202" spans="1:17">
+      <c r="A202" s="51"/>
+      <c r="B202" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C202" s="121">
+        <f>C198*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D202" s="121"/>
+      <c r="E202" s="38">
+        <v>2</v>
+      </c>
+      <c r="F202" s="44"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
+      <c r="J202" s="53"/>
+      <c r="K202" s="52"/>
+      <c r="L202" s="34"/>
+      <c r="M202" s="34"/>
+      <c r="N202" s="34"/>
+      <c r="O202" s="34"/>
+      <c r="P202" s="34"/>
+      <c r="Q202" s="34"/>
+    </row>
+    <row r="203" spans="1:17" s="34" customFormat="1">
+      <c r="A203" s="52"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="52"/>
+      <c r="D203" s="52"/>
+      <c r="E203" s="52"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="52"/>
+      <c r="H203" s="52"/>
+      <c r="I203" s="52"/>
+      <c r="J203" s="52"/>
+      <c r="K203" s="52"/>
+    </row>
+    <row r="204" spans="1:17" s="34" customFormat="1"/>
+    <row r="205" spans="1:17" s="34" customFormat="1"/>
+    <row r="206" spans="1:17" s="34" customFormat="1"/>
+    <row r="207" spans="1:17" s="34" customFormat="1"/>
+    <row r="208" spans="1:17" s="34" customFormat="1"/>
+    <row r="209" s="34" customFormat="1"/>
+    <row r="210" s="34" customFormat="1"/>
+    <row r="211" s="34" customFormat="1"/>
+    <row r="212" s="34" customFormat="1"/>
+    <row r="213" s="34" customFormat="1"/>
+    <row r="214" s="34" customFormat="1"/>
+    <row r="215" s="34" customFormat="1"/>
+    <row r="216" s="34" customFormat="1"/>
+    <row r="217" s="34" customFormat="1"/>
+    <row r="218" s="34" customFormat="1"/>
+    <row r="219" s="34" customFormat="1"/>
+    <row r="220" s="34" customFormat="1"/>
+    <row r="221" s="34" customFormat="1"/>
+    <row r="222" s="34" customFormat="1"/>
+    <row r="223" s="34" customFormat="1"/>
+    <row r="224" s="34" customFormat="1"/>
+    <row r="225" s="34" customFormat="1"/>
+    <row r="226" s="34" customFormat="1"/>
+    <row r="227" s="34" customFormat="1"/>
+    <row r="228" s="34" customFormat="1"/>
+    <row r="229" s="34" customFormat="1"/>
+    <row r="230" s="34" customFormat="1"/>
+    <row r="231" s="34" customFormat="1"/>
+    <row r="232" s="34" customFormat="1"/>
+    <row r="233" s="34" customFormat="1"/>
+    <row r="234" s="34" customFormat="1"/>
+    <row r="235" s="34" customFormat="1"/>
+    <row r="236" s="34" customFormat="1"/>
+    <row r="237" s="34" customFormat="1"/>
+    <row r="238" s="34" customFormat="1"/>
+    <row r="239" s="34" customFormat="1"/>
+    <row r="240" s="34" customFormat="1"/>
+    <row r="241" s="34" customFormat="1"/>
+    <row r="242" s="34" customFormat="1"/>
+    <row r="243" s="34" customFormat="1"/>
+    <row r="244" s="34" customFormat="1"/>
+    <row r="245" s="34" customFormat="1"/>
+    <row r="246" s="34" customFormat="1"/>
+    <row r="247" s="34" customFormat="1"/>
+    <row r="248" s="34" customFormat="1"/>
+    <row r="249" s="34" customFormat="1"/>
+    <row r="250" s="34" customFormat="1"/>
+    <row r="251" s="34" customFormat="1"/>
+    <row r="252" s="34" customFormat="1"/>
+    <row r="253" s="34" customFormat="1"/>
+    <row r="254" s="34" customFormat="1"/>
+    <row r="255" s="34" customFormat="1"/>
+    <row r="256" s="34" customFormat="1"/>
+    <row r="257" s="34" customFormat="1"/>
+    <row r="258" s="34" customFormat="1"/>
+    <row r="259" s="34" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N11:T11"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="K179:K181"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="10" man="1"/>
+  </rowBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -17742,14 +22751,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="76"/>
-    <col min="2" max="2" width="58.21875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="76"/>
+    <col min="1" max="1" width="8.85546875" style="76"/>
+    <col min="2" max="2" width="58.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="70" customFormat="1" ht="15.6">
+    <row r="1" spans="1:2" s="70" customFormat="1" ht="15.75">
       <c r="A1" s="77" t="s">
         <v>21</v>
       </c>
@@ -17757,7 +22766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2">
       <c r="A2" s="75">
         <v>1</v>
       </c>
@@ -17765,7 +22774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="69">
+    <row r="3" spans="1:2" ht="75">
       <c r="A3" s="75">
         <v>2</v>
       </c>
@@ -17773,7 +22782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2">
       <c r="A4" s="75">
         <v>3</v>
       </c>
@@ -17781,7 +22790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2">
       <c r="A5" s="75">
         <v>4</v>
       </c>
@@ -17789,7 +22798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2">
       <c r="A6" s="75">
         <v>5</v>
       </c>
@@ -17797,7 +22806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.600000000000001">
+    <row r="7" spans="1:2" ht="18.75">
       <c r="A7" s="75">
         <v>6</v>
       </c>
@@ -17805,7 +22814,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2">
       <c r="A8" s="75">
         <v>7</v>
       </c>
@@ -17813,7 +22822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2">
       <c r="A9" s="75">
         <v>8</v>
       </c>
@@ -17821,7 +22830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2">
       <c r="A10" s="75">
         <v>9</v>
       </c>
@@ -17829,7 +22838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2">
       <c r="A11" s="75">
         <v>10</v>
       </c>
@@ -17845,7 +22854,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2">
       <c r="A13" s="75">
         <v>12</v>
       </c>
@@ -17861,7 +22870,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="75">
         <v>14</v>
       </c>
@@ -17869,7 +22878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2">
       <c r="A16" s="75">
         <v>15</v>
       </c>
@@ -17877,7 +22886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2">
       <c r="A17" s="75">
         <v>16</v>
       </c>
